--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/ExperimentalContext/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B98E63-5745-4FF3-8CEE-474CD3F71BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{F5B98E63-5745-4FF3-8CEE-474CD3F71BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D2D90C-A0A1-427C-9F88-36E6FCDEB701}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="293">
   <si>
     <t>experimentation</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Nom usuel de l’expérimentation</t>
   </si>
   <si>
-    <t>VATE résistants Pouilly</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -92,41 +89,847 @@
     <t>label</t>
   </si>
   <si>
-    <t>name_expe</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
     <t>pattern</t>
   </si>
   <si>
-    <t>start_date_expe</t>
+    <t>Date de début de l’expérimentation. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ISO8601</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>WGS84</t>
+  </si>
+  <si>
+    <t>GWS84</t>
+  </si>
+  <si>
+    <t>système d'irrigation</t>
+  </si>
+  <si>
+    <t>Latitude du centroïde de la parcelle  (degrés décimaux WGS84)</t>
+  </si>
+  <si>
+    <t>Longitude du centroïde de la parcelle (degrés décimaux WGS84)</t>
+  </si>
+  <si>
+    <t>Type de système d'irrigation équipant la parcelle</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>aucun,goutte-à-goutte aérien,goutte-à-goutte enterré,aspersion,submersion</t>
+  </si>
+  <si>
+    <t>goutte-à-goutte aérien</t>
+  </si>
+  <si>
+    <t>Nom communément donné à la parcelle sur laquelle l’expérimentation a lieu</t>
+  </si>
+  <si>
+    <t>Syrah prestige</t>
+  </si>
+  <si>
+    <t>plot_name</t>
+  </si>
+  <si>
+    <t>plot_description</t>
+  </si>
+  <si>
+    <t>expe_name</t>
+  </si>
+  <si>
+    <t>expe_start_date</t>
+  </si>
+  <si>
+    <t>plot_irrigation_system</t>
+  </si>
+  <si>
+    <t>plot_latitude</t>
+  </si>
+  <si>
+    <t>plot_longitude</t>
+  </si>
+  <si>
+    <t>Description de la parcelle</t>
+  </si>
+  <si>
+    <t>Nom de la parcelle</t>
+  </si>
+  <si>
+    <t>Brève description de la parcelle expérimentale</t>
+  </si>
+  <si>
+    <t>Parcelle de syrah d'environ, sur un sol fersiallitique typique des Costières de Nîmes.</t>
+  </si>
+  <si>
+    <t>plot_commune</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>Nom de la commune sur laquelle se trouve la parcelle</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/recherche/recherche-geographique?debut=0</t>
+  </si>
+  <si>
+    <t>Vauvert</t>
+  </si>
+  <si>
+    <t>plot_bassin</t>
+  </si>
+  <si>
+    <t>Bassin viticole</t>
+  </si>
+  <si>
+    <t>Bassin viticole dans lequel se trouve la parcelle</t>
+  </si>
+  <si>
+    <t>Languedoc-Roussillon</t>
+  </si>
+  <si>
+    <t>Alsace et Est,Armagnac,Bourgogne Beaujolais Jura Savoie,Champagne,Cognac,Languedoc-Roussillon,Provence-Corse,Sud-Ouest,Toulouse-Pyrénées,Val de Loire,Vallée du Rhône,Vins Doux Naturels</t>
+  </si>
+  <si>
+    <t>plot_year_start</t>
+  </si>
+  <si>
+    <t>Année de plantation</t>
+  </si>
+  <si>
+    <t>Année de plantation de la parcelle au format AAAA</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>plot_previous_crop</t>
+  </si>
+  <si>
+    <t>Précédent cultural</t>
+  </si>
+  <si>
+    <t>Précédent cultural (en particulier si jeune vigne)</t>
+  </si>
+  <si>
+    <t>vigne</t>
+  </si>
+  <si>
+    <t>plot_scion</t>
+  </si>
+  <si>
+    <t>Greffon</t>
+  </si>
+  <si>
+    <t>Syrah N Cl300</t>
+  </si>
+  <si>
+    <t>plot_rootstock</t>
+  </si>
+  <si>
+    <t>Porte-greffe</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) du porte-greffe</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) produisant les fruits. Format de type "Syrah N Cl300" ou "Grenache B"</t>
+  </si>
+  <si>
+    <t>110R</t>
+  </si>
+  <si>
+    <t>Ecartement entre rangs</t>
+  </si>
+  <si>
+    <t>Ecartement entre les rangs de vigne, en m</t>
+  </si>
+  <si>
+    <t>Ecartement entre les ceps de vigne sur le rang, en m</t>
+  </si>
+  <si>
+    <t>Altitude au-dessus ne niveau de la mer du dispositif expérimental, en m</t>
+  </si>
+  <si>
+    <t>Description du mode d'entretien du sol majoritaire dans les inter-rangs</t>
+  </si>
+  <si>
+    <t>Description du mode d'entretien du sol majoritaire sous le rang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode de production </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de production visée </t>
+  </si>
+  <si>
+    <t>Ecartement entre ceps</t>
+  </si>
+  <si>
+    <t>Mode de taille</t>
+  </si>
+  <si>
+    <t>Mode de conduite</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Pente</t>
+  </si>
+  <si>
+    <t>Entretien du sol inter-rang</t>
+  </si>
+  <si>
+    <t>Entretien du sol sous le rang</t>
+  </si>
+  <si>
+    <t>Mode de production</t>
+  </si>
+  <si>
+    <t>Type de produit</t>
+  </si>
+  <si>
+    <t>Objectif de rendement</t>
+  </si>
+  <si>
+    <t>plot_pruning</t>
+  </si>
+  <si>
+    <t>plot_training</t>
+  </si>
+  <si>
+    <t>plot_ir_distance</t>
+  </si>
+  <si>
+    <t>plot_r_distance</t>
+  </si>
+  <si>
+    <t>plot_altitude</t>
+  </si>
+  <si>
+    <t>plot_slope</t>
+  </si>
+  <si>
+    <t>plot_ir_soil_man</t>
+  </si>
+  <si>
+    <t>plot_r_soil_man</t>
+  </si>
+  <si>
+    <t>plot_prod_mode</t>
+  </si>
+  <si>
+    <t>plot_product_type</t>
+  </si>
+  <si>
+    <t>plot_target_yield</t>
+  </si>
+  <si>
+    <t>Cordon de Royat</t>
+  </si>
+  <si>
+    <t>Espalier</t>
+  </si>
+  <si>
+    <t>03 Presque de niveau 0.5-1%</t>
+  </si>
+  <si>
+    <t>désherbage mécanique</t>
+  </si>
+  <si>
+    <t>Agriculture Biologique</t>
+  </si>
+  <si>
+    <t>AOP</t>
+  </si>
+  <si>
+    <t>Description du mode de taille en place sur la parcelle</t>
+  </si>
+  <si>
+    <t>Description du mode de conduite de la végétation</t>
+  </si>
+  <si>
+    <t>Pente moyenne du sol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site geoportail permet de tracer un profil de pente sur la parcelle. </t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Taille courte (gobelet),Cordon de Royat,Cordon double,Guyot simple,Guyot double,Guyot Poussard,Guyot mixte,Chablis,Taille rase de précision (mécanique),Taille minimale (non-taille)</t>
+  </si>
+  <si>
+    <t>Espalier,Taille minimale,Gobelet,Echalas,Lys,Lyre ouverte,Pergola</t>
+  </si>
+  <si>
+    <t>01 Flat 0-0.2%,02 De niveau 0.2-0.5%,03 Presque de niveau 0.5-1%,04 très légère pente 1-2%,05 légère pente 2-5%,06 en pente 5-10%,07 pente nette 10-15%,08 pente prononcée 15-30%,09 forte pente 30-60%,10 pente extrême &gt;60%</t>
+  </si>
+  <si>
+    <t>désherbé,enherbé,enherbé1/2,enherbé1/3</t>
+  </si>
+  <si>
+    <t>désherbé,enherbé</t>
+  </si>
+  <si>
+    <t>Raisonnée ou conventionnelle,Agriculture Biologique,Biodynamie</t>
+  </si>
+  <si>
+    <t>AOP,IGP,Vins sans IG,Raisin de table</t>
+  </si>
+  <si>
+    <t>R.Jahn.2006</t>
+  </si>
+  <si>
+    <t>Objectif de rendement du viticulteur sur la parcelle en t/ha.</t>
+  </si>
+  <si>
+    <t>Description des objectifs poursuivis par l’expérimentation</t>
+  </si>
+  <si>
+    <t>Description de l’expérimentation</t>
+  </si>
+  <si>
+    <t>Email de la personne contact</t>
+  </si>
+  <si>
+    <t>Name and address of the institution responsible for the study.</t>
+  </si>
+  <si>
+    <t>Nom de l'institution responsable de l'expérimentation</t>
+  </si>
+  <si>
+    <t>Objectif</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Contact nom</t>
+  </si>
+  <si>
+    <t>Contact email</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronyme du projet ou des projets associés à l'expérimentation </t>
+  </si>
+  <si>
+    <t>L’objectif de cette action est d’améliorer le conseil en terme de gestion de la matière organique, par une meilleure connaissance du type de produit à apporter en liaison avec les besoins au niveau du sol et les effets attendus, tout en prenant en compte les conditions pédo-climatiques et les conditions d’entretien du sol ainsi que les exigences régionales en terme de vin à élaborer. Le choix des produits organiques apportés répond à une offre locale en compost de marc provenant de la distillerie de la commune ou en déchets verts provenant d’une plate-forme de compostage à proximité.</t>
+  </si>
+  <si>
+    <t>Sur la parcelle gérée par l’IFV en Languedoc-Roussillon, les modalités mises en place sont les suivantes :
+- Témoin sans apports (TEM)
+- Apport compost déchets verts (DV)
+- Apport compost de marc (MARC)
+Les modalités ont été mises en place le 17 mars et le 23 mars 2009, avec un dispositif expérimental en carré latin, avec 3 répétitions pour chaque modalité. Les apports ont été renouvelés en avril 2013</t>
+  </si>
+  <si>
+    <t>xavier.delpuech@vignevin.com</t>
+  </si>
+  <si>
+    <t>OAD MO</t>
+  </si>
+  <si>
+    <t>IFV Pôle Rhône-Méditerranée</t>
+  </si>
+  <si>
+    <t>Xavier, Delpuech</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2009-03-01</t>
+  </si>
+  <si>
+    <t>MO-Vauvert</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
   <si>
     <t>Date de début</t>
   </si>
   <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>Date de début de l’expérimentation. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>ISO8601</t>
+    <t>Date de fin</t>
+  </si>
+  <si>
+    <t>expe_end_date</t>
+  </si>
+  <si>
+    <t>expe_obj</t>
+  </si>
+  <si>
+    <t>expe_desc</t>
+  </si>
+  <si>
+    <t>expe_proj</t>
+  </si>
+  <si>
+    <t>expe_orga</t>
+  </si>
+  <si>
+    <t>expe_contact</t>
+  </si>
+  <si>
+    <t>expe_email</t>
+  </si>
+  <si>
+    <t>Date de fin de l’expérimentation. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>Prénon, Nom de la personne contact</t>
+  </si>
+  <si>
+    <t>itk</t>
+  </si>
+  <si>
+    <t>Millésime</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>Fertilisation azotée</t>
+  </si>
+  <si>
+    <t>Forme azote</t>
+  </si>
+  <si>
+    <t>Description fertilisation</t>
+  </si>
+  <si>
+    <t>Enherbement temporaire</t>
+  </si>
+  <si>
+    <t>Millésime (saison de production)</t>
+  </si>
+  <si>
+    <t>Quantité d'eau apportée par irrigation sur la saison, exprimée en mm/an. 0 si aucune irrigation</t>
+  </si>
+  <si>
+    <t>Quantité apportée par ha et par an</t>
+  </si>
+  <si>
+    <t>Forme de l'azote apporté : minérale ou organique</t>
+  </si>
+  <si>
+    <t>Descriptif de la fertilisation pratiquée sur la parcelle habituellement</t>
+  </si>
+  <si>
+    <t>Pourcentage d'enherbement temporaire (couverture du sol) le cas échéant (si semis d'engrais vert ou enherbement spontanné)</t>
+  </si>
+  <si>
+    <t>itk_year</t>
+  </si>
+  <si>
+    <t>itk_irri</t>
+  </si>
+  <si>
+    <t>itk_n_type</t>
+  </si>
+  <si>
+    <t>itk_n_ferti</t>
+  </si>
+  <si>
+    <t>itk_ferti_desc</t>
+  </si>
+  <si>
+    <t>itk_cc</t>
+  </si>
+  <si>
+    <t>minérale</t>
+  </si>
+  <si>
+    <t>suivant protocole</t>
+  </si>
+  <si>
+    <t>minérale,organique,organo-minérale</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>Description sol</t>
+  </si>
+  <si>
+    <t>Profondeur du sol</t>
+  </si>
+  <si>
+    <t>Texture dominante du sol</t>
+  </si>
+  <si>
+    <t>Pierrosité du sol</t>
+  </si>
+  <si>
+    <t>Teneur en MO</t>
+  </si>
+  <si>
+    <t>pH sol</t>
+  </si>
+  <si>
+    <t>Descriptif du type de sol</t>
+  </si>
+  <si>
+    <t>Profondeur de sol accessible aux racines de la vigne</t>
+  </si>
+  <si>
+    <t>Abondance des cailloux en volume (FAO,2006)</t>
+  </si>
+  <si>
+    <t>Teneur du sol en matière organique sur l'horizon de surface</t>
+  </si>
+  <si>
+    <t>pHeau du sol sur l'horizon de surface</t>
+  </si>
+  <si>
+    <t>soil_desc</t>
+  </si>
+  <si>
+    <t>soil_text</t>
+  </si>
+  <si>
+    <t>soil_depth</t>
+  </si>
+  <si>
+    <t>soil_ston</t>
+  </si>
+  <si>
+    <t>soil_om</t>
+  </si>
+  <si>
+    <t>soil_ph</t>
+  </si>
+  <si>
+    <t>Texture dominante du sol accessible au racine (texture 6 classes GEPPA)</t>
+  </si>
+  <si>
+    <t>Outil de calcul de la texture du sol : https://www.nrcs.usda.gov/wps/portal/nrcs/detailfull/soils/research/guide/?cid=NRCS142P2_054167</t>
+  </si>
+  <si>
+    <t>sol fersiallitique typique des costières de Nîmes</t>
+  </si>
+  <si>
+    <t>L:limoneux</t>
+  </si>
+  <si>
+    <t>A:abondant 40-80%</t>
+  </si>
+  <si>
+    <t>A:argileux,Al:argilo-limoneux,As:argile sableuse,L:limoneux,Sl:sablo-limoneux,S:Sableux</t>
+  </si>
+  <si>
+    <t>N:aucun cailloux,V:très peu (0-2%),F:peu 2-5%,C:fréquent 5-15%,M:beaucoup 15-40%,A:abondant 40-80%,D:majoritaire &gt;80%,S:concentré sur une couche</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>design_desc</t>
+  </si>
+  <si>
+    <t>Description du plan d'expérience</t>
+  </si>
+  <si>
+    <t>Description des facteurs étudiés</t>
+  </si>
+  <si>
+    <t>Type de plan d'expérience</t>
+  </si>
+  <si>
+    <t>Nombre de répétitions</t>
+  </si>
+  <si>
+    <t>Taille des unités expérimentales</t>
+  </si>
+  <si>
+    <t>Description des unités d'observations</t>
+  </si>
+  <si>
+    <t>Hétérogénéité</t>
+  </si>
+  <si>
+    <t>Brève description du plan d'expérience. Dans certains cas, il n’y a pas de plan d’expérience, et s’il s’agit d’une compilation de différentes études, on peut préciser « données aggrégées ou réduites »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description des facteurs étudiés et leurs différentes modalités (ou niveaux). </t>
+  </si>
+  <si>
+    <t>Type de plan d'expérience selon la crop ontology CO_715</t>
+  </si>
+  <si>
+    <t>Nombre de répétitions par traitement</t>
+  </si>
+  <si>
+    <t>Taille en m² des unités expérimentales</t>
+  </si>
+  <si>
+    <t>Descriptif des facteurs d'hétérogénéité éventuels du dispositif expérimental (sol, matériel végétal, topographie…)</t>
+  </si>
+  <si>
+    <t>Dispositif en carré latin à 3 répétitions. 10 ceps sont suivis sur chaque unité expérimentale de 3 inter-rangs de large</t>
+  </si>
+  <si>
+    <t>Apport de matière organique:
+- Compost de déchêts verts
+- Compost de Marc
+- Témoin sans apport</t>
+  </si>
+  <si>
+    <t>Carré latin</t>
+  </si>
+  <si>
+    <t>placette de 10 ceps située au centre de chaque unité expérimentale</t>
+  </si>
+  <si>
+    <t>gradient NS de fertilité du sol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomisé,Carré latin,Bloc randomisé,Blocs incomplets </t>
+  </si>
+  <si>
+    <t>Brève description des unités d'observations</t>
+  </si>
+  <si>
+    <t>design_plan</t>
+  </si>
+  <si>
+    <t>design_factor</t>
+  </si>
+  <si>
+    <t>design_rep</t>
+  </si>
+  <si>
+    <t>design_size</t>
+  </si>
+  <si>
+    <t>design_unit_desc</t>
+  </si>
+  <si>
+    <t>design_hete</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>exactmatch</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CO_715_0000077</t>
+  </si>
+  <si>
+    <t>closematch</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CO_715_0000069</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CO_715_0000071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CO_715_0000062</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CO_715_0000254</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CO_715_0000253</t>
+  </si>
+  <si>
+    <t>Capteurs</t>
+  </si>
+  <si>
+    <t>Descriptifs des capteurs équipant la parcelle le cas échéant</t>
+  </si>
+  <si>
+    <t>sonde d'humidité des sols de typa capacitive</t>
+  </si>
+  <si>
+    <t>design_device</t>
+  </si>
+  <si>
+    <t>Performances agronomiques</t>
+  </si>
+  <si>
+    <t>Statut hydrique de la vigne</t>
+  </si>
+  <si>
+    <t>Statut minéral de la vigne</t>
+  </si>
+  <si>
+    <t>Analyses de sols</t>
+  </si>
+  <si>
+    <t>Suivi maladies</t>
+  </si>
+  <si>
+    <t>Analyse maturité</t>
+  </si>
+  <si>
+    <t>Vinification</t>
+  </si>
+  <si>
+    <t>Analyses sensorielles</t>
+  </si>
+  <si>
+    <t>Suivi couverts végétaux</t>
+  </si>
+  <si>
+    <t>Données météo</t>
+  </si>
+  <si>
+    <t>Mesures de Performances agronomiques réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Statut hydrique de la vigne réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Statut minéral de la vigne réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Analyses de sols réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Suivi maladies réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Analyse maturité réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Vinification réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Analyses sensorielles réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Suivi couverts végétaux réalisées</t>
+  </si>
+  <si>
+    <t>Mesures de Données météo réalisées</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>oui,non</t>
+  </si>
+  <si>
+    <t>Code INSEE de la commune (5 caractères alphanumériques)</t>
+  </si>
+  <si>
+    <t>Code INSEE commune</t>
+  </si>
+  <si>
+    <t>plot_insee_commune</t>
+  </si>
+  <si>
+    <t>"^([013-9]\\d|2[AB1-9])\\d{3}"</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>design_obs_agro</t>
+  </si>
+  <si>
+    <t>design_obs_min</t>
+  </si>
+  <si>
+    <t>design_obs_hyd</t>
+  </si>
+  <si>
+    <t>design_obs_mat</t>
+  </si>
+  <si>
+    <t>design_obs_sen</t>
+  </si>
+  <si>
+    <t>design_obs_soil</t>
+  </si>
+  <si>
+    <t>design_obs_dis</t>
+  </si>
+  <si>
+    <t>design_obs_vin</t>
+  </si>
+  <si>
+    <t>design_obs_cc</t>
+  </si>
+  <si>
+    <t>design_obs_mto</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>annot_results</t>
+  </si>
+  <si>
+    <t>annot_eve</t>
+  </si>
+  <si>
+    <t>Résultats</t>
+  </si>
+  <si>
+    <t>Commentaire sur les résultats obtenus</t>
+  </si>
+  <si>
+    <t>Evenement</t>
+  </si>
+  <si>
+    <t>Après 10 ans de suivis et 3 apports de compost, le statut organique du sol a été amélioré, que ce soit avec le compost de déchets verts ou celui de marc. La modalité témoin sans apport voit aussi son taux de matière organique en surface augmenter significativement, bien que dans une moindre mesure. Le mode de gestion du sol (labour en été, présence d’enherbement hivernal et retour des sarments) semble par nature assez favorable au maintien voir à l’amélioration du statut organique du sol.
+Les effets sur la vigne des apports sont perceptibles au bout de plusieurs années seulement, et restent sous la dépendance du millésime. Ils sont globalement peu marqués sur la plante. La vigne bénéficie des apports de compost, en premier lieu sur son expression végétative, effet qui a été sensible assez rapidement après le début de l’essai, et depuis peu sur son rendement. Le statut azoté des modalités avec apport de compost est amélioré (azote assimilable des moûts et N-Tester).</t>
+  </si>
+  <si>
+    <t>Description des évenements marquants</t>
+  </si>
+  <si>
+    <t>Forte attaque de mildiou en 2008, avec 30% de pertes de récolte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +943,40 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666699"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF31B404"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,15 +996,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -181,6 +1024,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,119 +1327,1554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="T3" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>43.692996999999998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>43.692996999999998</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>4.2784149999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>-180</v>
+      </c>
+      <c r="I12">
+        <v>180</v>
+      </c>
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="O12">
+        <v>4.2784149999999999</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16">
+        <v>30341</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>1998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>2.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33">
+        <v>3.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34">
+        <v>2010</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>204</v>
+      </c>
+      <c r="P43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45">
+        <v>6.5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50">
+        <v>215</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" t="s">
+        <v>273</v>
+      </c>
+      <c r="J54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" t="s">
+        <v>273</v>
+      </c>
+      <c r="J55" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J56" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" t="s">
+        <v>273</v>
+      </c>
+      <c r="J57" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" t="s">
+        <v>273</v>
+      </c>
+      <c r="J58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" t="s">
+        <v>273</v>
+      </c>
+      <c r="J59" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" t="s">
+        <v>273</v>
+      </c>
+      <c r="J60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="J61" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" t="s">
+        <v>273</v>
+      </c>
+      <c r="J62" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" t="s">
+        <v>265</v>
+      </c>
+      <c r="E63" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" t="s">
+        <v>273</v>
+      </c>
+      <c r="J63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B65" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32" xr:uid="{914447CD-A1B5-41A0-8105-E69119D5EE3F}">
+      <formula1>"AOP,IGP,Vins sans IG,Raisin de table"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{97D92A34-09A2-489E-91AE-3F0FC063A126}">
+      <formula1>"Raisonnée ou conventionnelle,Agriculture Biologique,Biodynamie"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Q15" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
+    <hyperlink ref="S13" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
+    <hyperlink ref="T12" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
+    <hyperlink ref="T28" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
+    <hyperlink ref="T4" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
+    <hyperlink ref="Q16" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="8_{F5B98E63-5745-4FF3-8CEE-474CD3F71BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D2D90C-A0A1-427C-9F88-36E6FCDEB701}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="8_{F5B98E63-5745-4FF3-8CEE-474CD3F71BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B03E6CE-4DB8-4CE0-8FE7-B0498197B608}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="395">
   <si>
     <t>experimentation</t>
   </si>
@@ -375,12 +375,6 @@
   </si>
   <si>
     <t>source</t>
-  </si>
-  <si>
-    <t>Taille courte (gobelet),Cordon de Royat,Cordon double,Guyot simple,Guyot double,Guyot Poussard,Guyot mixte,Chablis,Taille rase de précision (mécanique),Taille minimale (non-taille)</t>
-  </si>
-  <si>
-    <t>Espalier,Taille minimale,Gobelet,Echalas,Lys,Lyre ouverte,Pergola</t>
   </si>
   <si>
     <t>01 Flat 0-0.2%,02 De niveau 0.2-0.5%,03 Presque de niveau 0.5-1%,04 très légère pente 1-2%,05 légère pente 2-5%,06 en pente 5-10%,07 pente nette 10-15%,08 pente prononcée 15-30%,09 forte pente 30-60%,10 pente extrême &gt;60%</t>
@@ -606,9 +600,6 @@
     <t>Descriptif du type de sol</t>
   </si>
   <si>
-    <t>Profondeur de sol accessible aux racines de la vigne</t>
-  </si>
-  <si>
     <t>Abondance des cailloux en volume (FAO,2006)</t>
   </si>
   <si>
@@ -923,6 +914,322 @@
   </si>
   <si>
     <t>Forte attaque de mildiou en 2008, avec 30% de pertes de récolte</t>
+  </si>
+  <si>
+    <t>proj_name</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Nom du projet</t>
+  </si>
+  <si>
+    <t>Acronyme du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description des objectifs poursuivis </t>
+  </si>
+  <si>
+    <t>Description du projet</t>
+  </si>
+  <si>
+    <t>Nom projet</t>
+  </si>
+  <si>
+    <t>Acronyme</t>
+  </si>
+  <si>
+    <t>Date début</t>
+  </si>
+  <si>
+    <t>Date fin</t>
+  </si>
+  <si>
+    <t>Coordinateur nom</t>
+  </si>
+  <si>
+    <t>Coordinateur email</t>
+  </si>
+  <si>
+    <t>Support financier</t>
+  </si>
+  <si>
+    <t>Support financier du projet</t>
+  </si>
+  <si>
+    <t>Elaboration d’un outil d’aide à la décision pour la gestion du patrimoine organique des sols viticoles. Paramétrage et validation du modèle AMG</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>L'objectif de cette action est d'améliorer le conseil en termes de gestion de la matière organique, par une meilleure connaissance du type de produit à apporter en liaison avec les besoins au niveau du sol et les effets attendus, tout en prenant en compte les conditions pédo-climatiques et les conditions d'entretien du sol ainsi que les exigences régionales en terme de vin à élaborer. Le calage du modèle AMG, qui calcule l'évolution du stock de carbone organique, et donc de matière organique, du sol, permettrait la validation d'un outil capable de générer différents scénarios (notamment en fonction d'une typologie de produit et de doses à apporter). Dans ce sens, cela aboutirait à terme à un progrès significatif dans la gestion de la matière organique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un réseau de 6 parcelles a été mis en place à l'échelle nationale. Sur ce réseau, il s’agit d’acquérir les données concernant le sol, la plante et les produits épandus (variables selon les sites).
+Les parcelles d’expérimentation ont été mises en place l’hiver 2008-2009 pour certaines et l’hiver 2009-2010 pour d’autres. </t>
+  </si>
+  <si>
+    <t>Jean-Yves CAHUREL</t>
+  </si>
+  <si>
+    <t>jean-yves.cahurel@vignevin.com</t>
+  </si>
+  <si>
+    <t> FranceAgriMer</t>
+  </si>
+  <si>
+    <t>Date de début du projet. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>Date de fin du projet. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>proj_acronym</t>
+  </si>
+  <si>
+    <t>proj_support</t>
+  </si>
+  <si>
+    <t>proj_start_date</t>
+  </si>
+  <si>
+    <t>proj_end_date</t>
+  </si>
+  <si>
+    <t>proj_obj</t>
+  </si>
+  <si>
+    <t>proj_desc</t>
+  </si>
+  <si>
+    <t>proj_coord_name</t>
+  </si>
+  <si>
+    <t>proj_coord_email</t>
+  </si>
+  <si>
+    <t>Prénom, Nom de la personne qui coordonne et encadre le projet</t>
+  </si>
+  <si>
+    <t>plot_area</t>
+  </si>
+  <si>
+    <t>Surface (ha)</t>
+  </si>
+  <si>
+    <t>Surface en ha de la parcelle expérimentale</t>
+  </si>
+  <si>
+    <t>plot_density</t>
+  </si>
+  <si>
+    <t>Densité de plantation</t>
+  </si>
+  <si>
+    <t>Densité de plantation (à l'origine), en nombre de plants par hectare</t>
+  </si>
+  <si>
+    <t>plot_r_or</t>
+  </si>
+  <si>
+    <t>Orientation des rangs</t>
+  </si>
+  <si>
+    <t>N-S</t>
+  </si>
+  <si>
+    <t>E-O,N-S,NE-SO,NO-SE</t>
+  </si>
+  <si>
+    <t>Profondeur de sol accessible aux racines de la vigne, en m</t>
+  </si>
+  <si>
+    <t>Taille en gobelet,Cordon de Royat,Cordon double,Guyot simple,Guyot double,Guyot Poussard,Guyot mixte,Chablis,Taille rase de précision (mécanique),Taille minimale (non-taille)</t>
+  </si>
+  <si>
+    <t>Espalier palissé,Taille minimale,Gobelet,Echalas,Déployé(Scott-Henry,Smart-Dyson,Lys),Lyre ouverte,Pergola,Tête de saule</t>
+  </si>
+  <si>
+    <t>soil_type</t>
+  </si>
+  <si>
+    <t>Type de sol</t>
+  </si>
+  <si>
+    <t>argileux,argilo-calcaire,argilo-sablonneux,calcaire,calcaro-marneux,calcaro-sablonneux,marneux,marno-sablonneux,sablonneux</t>
+  </si>
+  <si>
+    <t>argileux</t>
+  </si>
+  <si>
+    <t>itk-ferti_mode</t>
+  </si>
+  <si>
+    <t>Mode d'apport</t>
+  </si>
+  <si>
+    <t>Mode d'apport des éléments fertilisants</t>
+  </si>
+  <si>
+    <t>au sol</t>
+  </si>
+  <si>
+    <t>au sol,fertirrigation,foliaire</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>wine_bac</t>
+  </si>
+  <si>
+    <t>Bactérie(s)</t>
+  </si>
+  <si>
+    <t>wine_col</t>
+  </si>
+  <si>
+    <t>Couleur</t>
+  </si>
+  <si>
+    <t>Couleur du vin</t>
+  </si>
+  <si>
+    <t>rouge,blanc,rosé</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>Bactérie(s) utilisées lors de la vinification (produit commercial)</t>
+  </si>
+  <si>
+    <t>Lamothe-Abiet Oeno1</t>
+  </si>
+  <si>
+    <t>wine_malo</t>
+  </si>
+  <si>
+    <t>Fermentation malolactique</t>
+  </si>
+  <si>
+    <t>Fermentation malolactique faite ou non sur vin fini</t>
+  </si>
+  <si>
+    <t>wine_yeast</t>
+  </si>
+  <si>
+    <t>Levure(s)</t>
+  </si>
+  <si>
+    <t>Levures utilisées lors de la vinification</t>
+  </si>
+  <si>
+    <t>Actiflore F5</t>
+  </si>
+  <si>
+    <t>wine_vintage</t>
+  </si>
+  <si>
+    <t>Millésime du vin (format AAAA)</t>
+  </si>
+  <si>
+    <t>wine_type</t>
+  </si>
+  <si>
+    <t>Type de vin</t>
+  </si>
+  <si>
+    <t>Type de vin : tranquille, effervescent</t>
+  </si>
+  <si>
+    <t>tranquille</t>
+  </si>
+  <si>
+    <t>tranquille,effervescent</t>
+  </si>
+  <si>
+    <t>wine_mac</t>
+  </si>
+  <si>
+    <t>Type de macération</t>
+  </si>
+  <si>
+    <t>Description du type de macération lors de la vinification</t>
+  </si>
+  <si>
+    <t>macération longue sous marc</t>
+  </si>
+  <si>
+    <t>wine_vol</t>
+  </si>
+  <si>
+    <t>Volume en hL</t>
+  </si>
+  <si>
+    <t>Volume du vin produit en hL</t>
+  </si>
+  <si>
+    <t>wine_mac_time</t>
+  </si>
+  <si>
+    <t>Durée de macération</t>
+  </si>
+  <si>
+    <t>Durée de la macération en jours</t>
+  </si>
+  <si>
+    <t>subplot</t>
+  </si>
+  <si>
+    <t>subplot_n</t>
+  </si>
+  <si>
+    <t>Nombre de ceps</t>
+  </si>
+  <si>
+    <t>Nombre de ceps dans la placette</t>
+  </si>
+  <si>
+    <t>subplot_x</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>Numéro du rang de la placette (relatif)</t>
+  </si>
+  <si>
+    <t>subplot_y</t>
+  </si>
+  <si>
+    <t>Position dans le rang</t>
+  </si>
+  <si>
+    <t>Position de la placette dans le rang (numéro de la 1er souche de la placette à partir du début du rang)</t>
+  </si>
+  <si>
+    <t>subplot_scion</t>
+  </si>
+  <si>
+    <t>subplot_rootstock</t>
+  </si>
+  <si>
+    <t>subplot_bloc</t>
+  </si>
+  <si>
+    <t>Bloc</t>
+  </si>
+  <si>
+    <t>Code du bloc surlequel se trouve la placette</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1327,11 +1634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,13 +1703,13 @@
         <v>49</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1413,13 +1720,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1436,13 +1743,13 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1454,7 +1761,7 @@
         <v>21</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1462,16 +1769,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1480,7 +1787,7 @@
         <v>21</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1488,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1511,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1531,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1554,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1577,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1597,22 +1904,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1623,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1647,7 +1954,7 @@
         <v>43.692996999999998</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1658,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1682,7 +1989,7 @@
         <v>4.2784149999999999</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1708,7 +2015,7 @@
         <v>17</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1759,13 +2066,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E16">
         <v>30341</v>
@@ -1774,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>50</v>
@@ -1949,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>113</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1972,7 +2279,7 @@
         <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2041,16 +2348,16 @@
         <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q28" t="s">
         <v>111</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2073,7 +2380,7 @@
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2096,7 +2403,7 @@
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2119,7 +2426,7 @@
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2142,7 +2449,7 @@
         <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2156,7 +2463,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>3.5</v>
@@ -2170,16 +2477,16 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E34">
         <v>2010</v>
@@ -2190,16 +2497,16 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
         <v>158</v>
       </c>
-      <c r="B35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" t="s">
-        <v>160</v>
-      </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35">
         <v>50</v>
@@ -2210,16 +2517,16 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -2230,42 +2537,42 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2273,151 +2580,154 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>341</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>342</v>
+      </c>
+      <c r="E39" t="s">
+        <v>343</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" t="s">
-        <v>200</v>
+        <v>168</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41">
-        <v>1.5</v>
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" t="s">
         <v>180</v>
       </c>
-      <c r="B42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" t="s">
-        <v>183</v>
-      </c>
       <c r="D42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" t="s">
-        <v>201</v>
+        <v>333</v>
+      </c>
+      <c r="E42">
+        <v>1.5</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
         <v>195</v>
       </c>
-      <c r="C43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" t="s">
-        <v>189</v>
-      </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>204</v>
-      </c>
-      <c r="P43" t="s">
-        <v>120</v>
+        <v>200</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
+        <v>186</v>
+      </c>
+      <c r="E44" t="s">
+        <v>199</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
+        <v>201</v>
+      </c>
+      <c r="P44" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E45">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
@@ -2425,39 +2735,39 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
-      </c>
-      <c r="E46" t="s">
-        <v>220</v>
+        <v>188</v>
+      </c>
+      <c r="E46">
+        <v>6.5</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2465,62 +2775,62 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" t="s">
         <v>205</v>
       </c>
-      <c r="B48" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" t="s">
-        <v>209</v>
-      </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="J48" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E50">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>60</v>
@@ -2528,39 +2838,39 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="E51">
+        <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E52" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2568,19 +2878,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2588,271 +2898,890 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F54" t="s">
-        <v>273</v>
-      </c>
-      <c r="J54" t="s">
-        <v>268</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J55" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D56" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F56" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J57" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
         <v>277</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
         <v>278</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D62" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" t="s">
         <v>264</v>
       </c>
-      <c r="E62" t="s">
-        <v>266</v>
-      </c>
       <c r="F62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" t="s">
+        <v>270</v>
+      </c>
+      <c r="J63" t="s">
         <v>265</v>
-      </c>
-      <c r="E63" t="s">
-        <v>266</v>
-      </c>
-      <c r="F63" t="s">
-        <v>273</v>
-      </c>
-      <c r="J63" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
         <v>284</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D65" t="s">
         <v>285</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E65" t="s">
         <v>287</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" t="s">
         <v>288</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
+        <v>289</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>291</v>
+      </c>
+      <c r="B67" t="s">
         <v>290</v>
       </c>
-      <c r="F64" t="s">
+      <c r="C67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" t="s">
+        <v>304</v>
+      </c>
+      <c r="F67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>284</v>
-      </c>
-      <c r="B65" t="s">
-        <v>286</v>
-      </c>
-      <c r="C65" t="s">
-        <v>289</v>
-      </c>
-      <c r="D65" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>291</v>
       </c>
-      <c r="E65" t="s">
-        <v>292</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="B68" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>297</v>
+      </c>
+      <c r="D68" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B69" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" t="s">
+        <v>305</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" t="s">
+        <v>307</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" t="s">
+        <v>309</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" t="s">
+        <v>310</v>
+      </c>
+      <c r="F74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" t="s">
+        <v>311</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" t="s">
+        <v>324</v>
+      </c>
+      <c r="D76" t="s">
+        <v>325</v>
+      </c>
+      <c r="E76">
+        <v>0.5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77">
+        <v>3500</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78" t="s">
+        <v>331</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" t="s">
+        <v>337</v>
+      </c>
+      <c r="E79" t="s">
+        <v>339</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>345</v>
+      </c>
+      <c r="B80" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" t="s">
+        <v>347</v>
+      </c>
+      <c r="D80" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>345</v>
+      </c>
+      <c r="B81" t="s">
+        <v>348</v>
+      </c>
+      <c r="C81" t="s">
+        <v>349</v>
+      </c>
+      <c r="D81" t="s">
+        <v>350</v>
+      </c>
+      <c r="E81" t="s">
+        <v>352</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" t="s">
+        <v>356</v>
+      </c>
+      <c r="D82" t="s">
+        <v>357</v>
+      </c>
+      <c r="E82" t="s">
+        <v>263</v>
+      </c>
+      <c r="F82" t="s">
+        <v>270</v>
+      </c>
+      <c r="J82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>345</v>
+      </c>
+      <c r="B83" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" t="s">
+        <v>359</v>
+      </c>
+      <c r="D83" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" t="s">
+        <v>361</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" t="s">
+        <v>363</v>
+      </c>
+      <c r="E84">
+        <v>2010</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>345</v>
+      </c>
+      <c r="B85" t="s">
+        <v>364</v>
+      </c>
+      <c r="C85" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" t="s">
+        <v>366</v>
+      </c>
+      <c r="E85" t="s">
+        <v>367</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>345</v>
+      </c>
+      <c r="B86" t="s">
+        <v>369</v>
+      </c>
+      <c r="C86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D86" t="s">
+        <v>371</v>
+      </c>
+      <c r="E86" t="s">
+        <v>372</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" t="s">
+        <v>374</v>
+      </c>
+      <c r="D87" t="s">
+        <v>375</v>
+      </c>
+      <c r="E87">
+        <v>0.2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" t="s">
+        <v>376</v>
+      </c>
+      <c r="C88" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" t="s">
+        <v>378</v>
+      </c>
+      <c r="E88">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>60</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>379</v>
+      </c>
+      <c r="B89" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" t="s">
+        <v>381</v>
+      </c>
+      <c r="D89" t="s">
+        <v>382</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89" t="s">
+        <v>60</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>379</v>
+      </c>
+      <c r="B90" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" t="s">
+        <v>384</v>
+      </c>
+      <c r="D90" t="s">
+        <v>385</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>60</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>379</v>
+      </c>
+      <c r="B91" t="s">
+        <v>386</v>
+      </c>
+      <c r="C91" t="s">
+        <v>387</v>
+      </c>
+      <c r="D91" t="s">
+        <v>388</v>
+      </c>
+      <c r="E91">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>60</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>379</v>
+      </c>
+      <c r="B92" t="s">
+        <v>389</v>
+      </c>
+      <c r="C92" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>379</v>
+      </c>
+      <c r="B93" t="s">
+        <v>390</v>
+      </c>
+      <c r="C93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" t="s">
+        <v>391</v>
+      </c>
+      <c r="C94" t="s">
+        <v>392</v>
+      </c>
+      <c r="D94" t="s">
+        <v>393</v>
+      </c>
+      <c r="E94" t="s">
+        <v>394</v>
+      </c>
+      <c r="F94" t="s">
         <v>13</v>
       </c>
     </row>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdelpuech\OneDrive - vignevin.com\AgricultureNumerique\ProjetsEnCours\VITISDATACROP\05_TRAVAIL_EN_COURS\WP1.1 Harmonisation\Expérimentation\vitisdatacrop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="529" documentId="8_{F5B98E63-5745-4FF3-8CEE-474CD3F71BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B03E6CE-4DB8-4CE0-8FE7-B0498197B608}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B7449F-90EF-4F9B-8AB1-EA4CC5B47857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="399">
   <si>
     <t>experimentation</t>
   </si>
@@ -1230,6 +1230,18 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>subplot_trt</t>
+  </si>
+  <si>
+    <t>Traitement</t>
+  </si>
+  <si>
+    <t>Code du traitement appliqué sur la placette</t>
+  </si>
+  <si>
+    <t>TEM</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1343,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1634,23 +1642,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1712,1733 +1720,1733 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>211</v>
+      </c>
+      <c r="E4" t="s">
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>214</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>215</v>
+      </c>
+      <c r="E8">
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>135</v>
+        <v>223</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>216</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>43.692996999999998</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31">
+        <v>2010</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>90</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11">
-        <v>43.692996999999998</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>4.2784149999999999</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <v>-180</v>
-      </c>
-      <c r="I12">
-        <v>180</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12">
-        <v>4.2784149999999999</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16">
-        <v>30341</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33">
         <v>30</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18">
-        <v>1998</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22">
-        <v>2.5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P28" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>111</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33">
-        <v>3.5</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34">
-        <v>2010</v>
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35">
-        <v>50</v>
+        <v>167</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36">
+        <v>342</v>
+      </c>
+      <c r="E36" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" t="s">
         <v>30</v>
       </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" t="s">
-        <v>176</v>
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>43.692996999999998</v>
       </c>
       <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>90</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38">
+        <v>43.692996999999998</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>4.2784149999999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>-180</v>
+      </c>
+      <c r="I39">
+        <v>180</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39">
+        <v>4.2784149999999999</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" t="s">
-        <v>340</v>
-      </c>
-      <c r="C39" t="s">
-        <v>341</v>
-      </c>
-      <c r="D39" t="s">
-        <v>342</v>
-      </c>
-      <c r="E39" t="s">
-        <v>343</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>333</v>
-      </c>
-      <c r="E42">
-        <v>1.5</v>
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" t="s">
-        <v>198</v>
+        <v>266</v>
+      </c>
+      <c r="E43">
+        <v>30341</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="L43" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>201</v>
-      </c>
-      <c r="P44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1998</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46">
-        <v>6.5</v>
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" t="s">
-        <v>219</v>
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <v>2.5</v>
       </c>
       <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
         <v>30</v>
       </c>
-      <c r="J49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-      <c r="F50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51">
-        <v>215</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54">
+        <v>93</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>113</v>
+      </c>
+      <c r="P55" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>111</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60">
+        <v>3.5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D61" t="s">
+        <v>325</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" t="s">
+        <v>328</v>
+      </c>
+      <c r="E62">
+        <v>3500</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" t="s">
+        <v>331</v>
+      </c>
+      <c r="F63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" t="s">
-        <v>221</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="J63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" t="s">
+        <v>296</v>
+      </c>
+      <c r="D64" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" t="s">
+        <v>304</v>
+      </c>
+      <c r="F64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" t="s">
-        <v>242</v>
-      </c>
-      <c r="C54" t="s">
-        <v>239</v>
-      </c>
-      <c r="D54" t="s">
-        <v>240</v>
-      </c>
-      <c r="E54" t="s">
-        <v>241</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" t="s">
-        <v>271</v>
-      </c>
-      <c r="C55" t="s">
-        <v>243</v>
-      </c>
-      <c r="D55" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" t="s">
-        <v>270</v>
-      </c>
-      <c r="J55" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" t="s">
-        <v>273</v>
-      </c>
-      <c r="C56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" t="s">
-        <v>264</v>
-      </c>
-      <c r="F56" t="s">
-        <v>270</v>
-      </c>
-      <c r="J56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C57" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" t="s">
-        <v>263</v>
-      </c>
-      <c r="F57" t="s">
-        <v>270</v>
-      </c>
-      <c r="J57" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>202</v>
-      </c>
-      <c r="B58" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" t="s">
-        <v>256</v>
-      </c>
-      <c r="E58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" t="s">
-        <v>270</v>
-      </c>
-      <c r="J58" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" t="s">
-        <v>277</v>
-      </c>
-      <c r="C59" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" t="s">
-        <v>264</v>
-      </c>
-      <c r="F59" t="s">
-        <v>270</v>
-      </c>
-      <c r="J59" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" t="s">
-        <v>274</v>
-      </c>
-      <c r="C60" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F60" t="s">
-        <v>270</v>
-      </c>
-      <c r="J60" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" t="s">
-        <v>264</v>
-      </c>
-      <c r="F61" t="s">
-        <v>270</v>
-      </c>
-      <c r="J61" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>202</v>
-      </c>
-      <c r="B62" t="s">
-        <v>275</v>
-      </c>
-      <c r="C62" t="s">
-        <v>250</v>
-      </c>
-      <c r="D62" t="s">
-        <v>260</v>
-      </c>
-      <c r="E62" t="s">
-        <v>264</v>
-      </c>
-      <c r="F62" t="s">
-        <v>270</v>
-      </c>
-      <c r="J62" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>202</v>
-      </c>
-      <c r="B63" t="s">
-        <v>279</v>
-      </c>
-      <c r="C63" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" t="s">
-        <v>263</v>
-      </c>
-      <c r="F63" t="s">
-        <v>270</v>
-      </c>
-      <c r="J63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>202</v>
-      </c>
-      <c r="B64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" t="s">
-        <v>263</v>
-      </c>
-      <c r="F64" t="s">
-        <v>270</v>
-      </c>
-      <c r="J64" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E65" t="s">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>291</v>
       </c>
       <c r="B67" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D67" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>291</v>
       </c>
       <c r="B68" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>291</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>291</v>
       </c>
       <c r="B70" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D70" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>291</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" t="s">
-        <v>310</v>
+        <v>333</v>
+      </c>
+      <c r="E74">
+        <v>1.5</v>
       </c>
       <c r="F74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J75" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>323</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
-      </c>
-      <c r="E76">
-        <v>0.5</v>
+        <v>186</v>
+      </c>
+      <c r="E76" t="s">
+        <v>199</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
+        <v>201</v>
+      </c>
+      <c r="P76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>327</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="E77">
-        <v>3500</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>330</v>
-      </c>
-      <c r="E78" t="s">
-        <v>331</v>
+        <v>188</v>
+      </c>
+      <c r="E78">
+        <v>6.5</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>178</v>
       </c>
@@ -3461,331 +3469,354 @@
         <v>338</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="D80" t="s">
-        <v>353</v>
-      </c>
-      <c r="E80" t="s">
-        <v>354</v>
+        <v>382</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B81" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="C81" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="D81" t="s">
-        <v>350</v>
-      </c>
-      <c r="E81" t="s">
-        <v>352</v>
+        <v>385</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B82" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C82" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="D82" t="s">
-        <v>357</v>
-      </c>
-      <c r="E82" t="s">
-        <v>263</v>
+        <v>388</v>
+      </c>
+      <c r="E82">
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>270</v>
-      </c>
-      <c r="J82" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>360</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B84" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>363</v>
-      </c>
-      <c r="E84">
-        <v>2010</v>
+        <v>70</v>
+      </c>
+      <c r="E84" t="s">
+        <v>72</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B85" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="C85" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="D85" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="E85" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
       </c>
-      <c r="J85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B86" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="C86" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="D86" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="E86" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>345</v>
       </c>
       <c r="B87" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
-        <v>375</v>
-      </c>
-      <c r="E87">
-        <v>0.2</v>
+        <v>353</v>
+      </c>
+      <c r="E87" t="s">
+        <v>354</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="D88" t="s">
-        <v>378</v>
-      </c>
-      <c r="E88">
-        <v>14</v>
+        <v>350</v>
+      </c>
+      <c r="E88" t="s">
+        <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>382</v>
-      </c>
-      <c r="E89">
+        <v>357</v>
+      </c>
+      <c r="E89" t="s">
+        <v>263</v>
+      </c>
+      <c r="F89" t="s">
+        <v>270</v>
+      </c>
+      <c r="J89" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" t="s">
+        <v>359</v>
+      </c>
+      <c r="D90" t="s">
+        <v>360</v>
+      </c>
+      <c r="E90" t="s">
+        <v>361</v>
+      </c>
+      <c r="F90" t="s">
         <v>30</v>
       </c>
-      <c r="F89" t="s">
-        <v>60</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>379</v>
-      </c>
-      <c r="B90" t="s">
-        <v>383</v>
-      </c>
-      <c r="C90" t="s">
-        <v>384</v>
-      </c>
-      <c r="D90" t="s">
-        <v>385</v>
-      </c>
-      <c r="E90">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>60</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B91" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>387</v>
+        <v>157</v>
       </c>
       <c r="D91" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E91">
-        <v>25</v>
+        <v>2010</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B92" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>366</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B93" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="E93" t="s">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B94" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D94" t="s">
-        <v>393</v>
-      </c>
-      <c r="E94" t="s">
-        <v>394</v>
+        <v>375</v>
+      </c>
+      <c r="E94">
+        <v>0.2</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>60</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T95">
+    <sortCondition ref="A2:A95"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32" xr:uid="{914447CD-A1B5-41A0-8105-E69119D5EE3F}">
@@ -3796,12 +3827,12 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q15" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
-    <hyperlink ref="S13" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
-    <hyperlink ref="T12" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
-    <hyperlink ref="T28" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
-    <hyperlink ref="T4" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
-    <hyperlink ref="Q16" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
+    <hyperlink ref="Q42" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
+    <hyperlink ref="S40" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
+    <hyperlink ref="T39" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
+    <hyperlink ref="T55" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
+    <hyperlink ref="T24" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
+    <hyperlink ref="Q43" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdelpuech\OneDrive - vignevin.com\AgricultureNumerique\ProjetsEnCours\VITISDATACROP\05_TRAVAIL_EN_COURS\WP1.1 Harmonisation\Expérimentation\vitisdatacrop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{32B7449F-90EF-4F9B-8AB1-EA4CC5B47857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02FF6B61-D1A8-46AF-9D18-190C1D721350}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424BCA56-7127-41AC-91C0-F8F969100370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="473">
   <si>
     <t>experimentation</t>
   </si>
@@ -1395,6 +1395,78 @@
   </si>
   <si>
     <t>VAUVERT000BN59</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>43.6930</t>
+  </si>
+  <si>
+    <t>4.2784</t>
+  </si>
+  <si>
+    <t>30341</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1480,6 +1552,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1496,10 +1569,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1799,14 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="38" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
-      <selection pane="bottomRight" activeCell="R77" sqref="R77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1948,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -1903,7 +1968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -1923,7 +1988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -1943,7 +2008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -1963,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>198</v>
       </c>
@@ -1986,7 +2051,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -2009,7 +2074,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -2022,14 +2087,14 @@
       <c r="D8" t="s">
         <v>210</v>
       </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="E8" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -2042,14 +2107,14 @@
       <c r="D9" t="s">
         <v>211</v>
       </c>
-      <c r="E9">
-        <v>215</v>
+      <c r="E9" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -2069,7 +2134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -2089,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -2109,7 +2174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -2132,7 +2197,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -2155,7 +2220,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -2178,7 +2243,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -2201,7 +2266,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -2224,7 +2289,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -2247,7 +2312,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -2270,7 +2335,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -2293,7 +2358,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -2316,7 +2381,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>198</v>
       </c>
@@ -2339,7 +2404,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2430,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2462,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2491,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2537,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2563,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -2580,8 +2645,8 @@
       <c r="D32" t="s">
         <v>159</v>
       </c>
-      <c r="E32">
-        <v>2010</v>
+      <c r="E32" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -2590,7 +2655,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -2603,8 +2668,8 @@
       <c r="D33" t="s">
         <v>160</v>
       </c>
-      <c r="E33">
-        <v>50</v>
+      <c r="E33" s="7" t="s">
+        <v>466</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -2613,7 +2678,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -2626,14 +2691,14 @@
       <c r="D34" t="s">
         <v>161</v>
       </c>
-      <c r="E34">
-        <v>30</v>
+      <c r="E34" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -2656,7 +2721,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -2676,7 +2741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -2699,7 +2764,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -2732,8 +2797,8 @@
       <c r="D39" t="s">
         <v>26</v>
       </c>
-      <c r="E39">
-        <v>43.692996999999998</v>
+      <c r="E39" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -2770,8 +2835,8 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40">
-        <v>4.2784149999999999</v>
+      <c r="E40" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -2886,8 +2951,8 @@
       <c r="D44" t="s">
         <v>262</v>
       </c>
-      <c r="E44">
-        <v>30341</v>
+      <c r="E44" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2938,8 +3003,8 @@
       <c r="D46" t="s">
         <v>56</v>
       </c>
-      <c r="E46">
-        <v>1998</v>
+      <c r="E46" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -3027,8 +3092,8 @@
       <c r="D50" t="s">
         <v>71</v>
       </c>
-      <c r="E50">
-        <v>2.5</v>
+      <c r="E50" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -3053,8 +3118,8 @@
       <c r="D51" t="s">
         <v>72</v>
       </c>
-      <c r="E51">
-        <v>1.1000000000000001</v>
+      <c r="E51" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -3157,8 +3222,8 @@
       <c r="D55" t="s">
         <v>73</v>
       </c>
-      <c r="E55">
-        <v>93</v>
+      <c r="E55" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -3316,8 +3381,8 @@
       <c r="D61" t="s">
         <v>115</v>
       </c>
-      <c r="E61">
-        <v>3.5</v>
+      <c r="E61" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -3339,8 +3404,8 @@
       <c r="D62" t="s">
         <v>321</v>
       </c>
-      <c r="E62">
-        <v>0.5</v>
+      <c r="E62" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -3365,8 +3430,8 @@
       <c r="D63" t="s">
         <v>324</v>
       </c>
-      <c r="E63">
-        <v>3500</v>
+      <c r="E63" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -3424,7 +3489,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>287</v>
       </c>
@@ -3447,7 +3512,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>287</v>
       </c>
@@ -3467,7 +3532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>287</v>
       </c>
@@ -3493,7 +3558,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>287</v>
       </c>
@@ -3519,7 +3584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>287</v>
       </c>
@@ -3539,7 +3604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>287</v>
       </c>
@@ -3562,7 +3627,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>287</v>
       </c>
@@ -3585,7 +3650,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>287</v>
       </c>
@@ -3605,7 +3670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>287</v>
       </c>
@@ -3661,8 +3726,8 @@
       <c r="D76" t="s">
         <v>329</v>
       </c>
-      <c r="E76">
-        <v>1.5</v>
+      <c r="E76" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -3739,8 +3804,8 @@
       <c r="D79" t="s">
         <v>183</v>
       </c>
-      <c r="E79">
-        <v>2</v>
+      <c r="E79" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -3759,8 +3824,8 @@
       <c r="D80" t="s">
         <v>184</v>
       </c>
-      <c r="E80">
-        <v>6.5</v>
+      <c r="E80" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -3779,8 +3844,8 @@
       <c r="D81" t="s">
         <v>409</v>
       </c>
-      <c r="E81">
-        <v>120</v>
+      <c r="E81" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -3818,7 +3883,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>375</v>
       </c>
@@ -3841,7 +3906,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -3854,8 +3919,8 @@
       <c r="D84" t="s">
         <v>378</v>
       </c>
-      <c r="E84">
-        <v>30</v>
+      <c r="E84" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="F84" t="s">
         <v>57</v>
@@ -3867,7 +3932,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>375</v>
       </c>
@@ -3880,8 +3945,8 @@
       <c r="D85" t="s">
         <v>381</v>
       </c>
-      <c r="E85">
-        <v>5</v>
+      <c r="E85" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="F85" t="s">
         <v>57</v>
@@ -3893,7 +3958,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>375</v>
       </c>
@@ -3906,8 +3971,8 @@
       <c r="D86" t="s">
         <v>384</v>
       </c>
-      <c r="E86">
-        <v>25</v>
+      <c r="E86" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="F86" t="s">
         <v>57</v>
@@ -3919,7 +3984,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>375</v>
       </c>
@@ -3942,7 +4007,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -3965,7 +4030,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>375</v>
       </c>
@@ -3985,7 +4050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>375</v>
       </c>
@@ -4005,7 +4070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>341</v>
       </c>
@@ -4025,7 +4090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>341</v>
       </c>
@@ -4048,7 +4113,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>341</v>
       </c>
@@ -4071,7 +4136,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>341</v>
       </c>
@@ -4091,7 +4156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>341</v>
       </c>
@@ -4104,14 +4169,14 @@
       <c r="D95" t="s">
         <v>359</v>
       </c>
-      <c r="E95">
-        <v>2010</v>
+      <c r="E95" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>341</v>
       </c>
@@ -4134,7 +4199,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>341</v>
       </c>
@@ -4154,7 +4219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>341</v>
       </c>
@@ -4167,8 +4232,8 @@
       <c r="D98" t="s">
         <v>371</v>
       </c>
-      <c r="E98">
-        <v>0.2</v>
+      <c r="E98" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -4177,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>341</v>
       </c>
@@ -4190,8 +4255,8 @@
       <c r="D99" t="s">
         <v>374</v>
       </c>
-      <c r="E99">
-        <v>14</v>
+      <c r="E99" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="F99" t="s">
         <v>57</v>
@@ -4200,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>416</v>
       </c>
@@ -4223,7 +4288,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>416</v>
       </c>
@@ -4246,7 +4311,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>416</v>
       </c>
@@ -4269,7 +4334,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -4282,8 +4347,8 @@
       <c r="D103" t="s">
         <v>431</v>
       </c>
-      <c r="E103">
-        <v>15</v>
+      <c r="E103" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -4295,7 +4360,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>416</v>
       </c>
@@ -4318,7 +4383,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>416</v>
       </c>
@@ -4339,26 +4404,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T105" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="plot"/>
-        <filter val="soil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T105" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T99">
     <sortCondition ref="A2:A99"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33" xr:uid="{914447CD-A1B5-41A0-8105-E69119D5EE3F}">
-      <formula1>"AOP,IGP,Vins sans IG,Raisin de table"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32" xr:uid="{97D92A34-09A2-489E-91AE-3F0FC063A126}">
-      <formula1>"Raisonnée ou conventionnelle,Agriculture Biologique,Biodynamie"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="Q43" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
     <hyperlink ref="S41" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdelpuech\OneDrive - vignevin.com\AgricultureNumerique\ProjetsEnCours\VITISDATACROP\05_TRAVAIL_EN_COURS\WP1.1 Harmonisation\Expérimentation\vitisdatacrop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424BCA56-7127-41AC-91C0-F8F969100370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$T$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$T$108</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="492">
   <si>
     <t>experimentation</t>
   </si>
@@ -261,12 +261,6 @@
   </si>
   <si>
     <t>Altitude au-dessus ne niveau de la mer du dispositif expérimental, en m</t>
-  </si>
-  <si>
-    <t>Description du mode d'entretien du sol majoritaire dans les inter-rangs</t>
-  </si>
-  <si>
-    <t>Description du mode d'entretien du sol majoritaire sous le rang</t>
   </si>
   <si>
     <t xml:space="preserve">Mode de production </t>
@@ -762,9 +756,6 @@
     <t>sonde d'humidité des sols de typa capacitive</t>
   </si>
   <si>
-    <t>design_device</t>
-  </si>
-  <si>
     <t>Performances agronomiques</t>
   </si>
   <si>
@@ -847,36 +838,6 @@
   </si>
   <si>
     <t>boolean</t>
-  </si>
-  <si>
-    <t>design_obs_agro</t>
-  </si>
-  <si>
-    <t>design_obs_min</t>
-  </si>
-  <si>
-    <t>design_obs_hyd</t>
-  </si>
-  <si>
-    <t>design_obs_mat</t>
-  </si>
-  <si>
-    <t>design_obs_sen</t>
-  </si>
-  <si>
-    <t>design_obs_soil</t>
-  </si>
-  <si>
-    <t>design_obs_dis</t>
-  </si>
-  <si>
-    <t>design_obs_vin</t>
-  </si>
-  <si>
-    <t>design_obs_cc</t>
-  </si>
-  <si>
-    <t>design_obs_mto</t>
   </si>
   <si>
     <t>annotation</t>
@@ -1292,9 +1253,6 @@
     <t>oscar</t>
   </si>
   <si>
-    <t>silexportegreffe,oscar</t>
-  </si>
-  <si>
     <t>AOP,IGP,Vins sans IG,Raisin de table,Eau de vie</t>
   </si>
   <si>
@@ -1379,9 +1337,6 @@
     <t>silexportegreffe,ocesar</t>
   </si>
   <si>
-    <t>silexportegreffe,ocesar,oscar</t>
-  </si>
-  <si>
     <t>Brève description ou commentaire sur la parcelle expérimentale</t>
   </si>
   <si>
@@ -1467,6 +1422,108 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>silexportegreffe,sinfonia,opensilex</t>
+  </si>
+  <si>
+    <t>sinfonia,opensilex</t>
+  </si>
+  <si>
+    <t>silexportegreffe,oscar,ocesar,sinfonia</t>
+  </si>
+  <si>
+    <t>silexportegreffe,oscar,sinfonia</t>
+  </si>
+  <si>
+    <t>silexportegreffe,sinfonia</t>
+  </si>
+  <si>
+    <t>sinfonia</t>
+  </si>
+  <si>
+    <t>silexportegreffe,ocesar,oscar,sinfonia</t>
+  </si>
+  <si>
+    <t>oscar,ocesar,sinfonia</t>
+  </si>
+  <si>
+    <t>ocesar,sinfonia</t>
+  </si>
+  <si>
+    <t>oscar,sinfonia</t>
+  </si>
+  <si>
+    <t>plot_soil_man</t>
+  </si>
+  <si>
+    <t>Description de l'entretien du sol</t>
+  </si>
+  <si>
+    <t>Description du mode d'entretien de sol sur la parcelle</t>
+  </si>
+  <si>
+    <t>travail du sol intégral</t>
+  </si>
+  <si>
+    <t>Type d'entretien du sol majoritaire sous le rang</t>
+  </si>
+  <si>
+    <t>Type d'entretien du sol majoritaire dans les inter-rangs</t>
+  </si>
+  <si>
+    <t>wine_name</t>
+  </si>
+  <si>
+    <t>Nom ou code du vin</t>
+  </si>
+  <si>
+    <t>Nom ou code donné au vin</t>
+  </si>
+  <si>
+    <t>2019125</t>
+  </si>
+  <si>
+    <t>wine_trt</t>
+  </si>
+  <si>
+    <t>Code du traitement expérimental appliqué ou en lien avec le vin</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>monitoring_device</t>
+  </si>
+  <si>
+    <t>monitoring_obs_agro</t>
+  </si>
+  <si>
+    <t>monitoring_obs_hyd</t>
+  </si>
+  <si>
+    <t>monitoring_obs_min</t>
+  </si>
+  <si>
+    <t>monitoring_obs_soil</t>
+  </si>
+  <si>
+    <t>monitoring_obs_dis</t>
+  </si>
+  <si>
+    <t>monitoring_obs_mat</t>
+  </si>
+  <si>
+    <t>monitoring_obs_vin</t>
+  </si>
+  <si>
+    <t>monitoring_obs_sen</t>
+  </si>
+  <si>
+    <t>monitoring_obs_cc</t>
+  </si>
+  <si>
+    <t>monitoring_obs_mto</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <dimension ref="A1:U105"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,59 +1988,59 @@
         <v>3</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1990,19 +2048,19 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
         <v>198</v>
       </c>
-      <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>200</v>
-      </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2010,19 +2068,19 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -2030,65 +2088,65 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="D6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -2096,19 +2154,19 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2116,19 +2174,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2136,19 +2194,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2156,19 +2214,19 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>481</v>
       </c>
       <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" t="s">
         <v>235</v>
-      </c>
-      <c r="D12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" t="s">
-        <v>237</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2176,235 +2234,235 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>488</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>489</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>491</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
+        <v>263</v>
+      </c>
+      <c r="J22" t="s">
         <v>258</v>
       </c>
-      <c r="E22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F22" t="s">
-        <v>266</v>
-      </c>
-      <c r="J22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2412,13 +2470,13 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -2427,10 +2485,10 @@
         <v>16</v>
       </c>
       <c r="R23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2438,13 +2496,13 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -2456,27 +2514,27 @@
         <v>20</v>
       </c>
       <c r="R24" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -2485,27 +2543,27 @@
         <v>20</v>
       </c>
       <c r="R25" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -2513,45 +2571,48 @@
       <c r="G26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="R27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -2560,222 +2621,231 @@
         <v>16</v>
       </c>
       <c r="R28" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="R30" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="N31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="R31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="R32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
         <v>152</v>
       </c>
-      <c r="B33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
-      </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
       </c>
       <c r="R33" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C37" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F37" t="s">
         <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2784,7 +2854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2792,13 +2862,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -2816,13 +2886,13 @@
         <v>43.692996999999998</v>
       </c>
       <c r="R39" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2830,13 +2900,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -2854,13 +2924,13 @@
         <v>4.2784149999999999</v>
       </c>
       <c r="R40" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2871,7 +2941,7 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -2883,13 +2953,13 @@
         <v>16</v>
       </c>
       <c r="R41" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2900,7 +2970,7 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E42" t="s">
         <v>42</v>
@@ -2909,10 +2979,10 @@
         <v>12</v>
       </c>
       <c r="R42" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2935,39 +3005,39 @@
         <v>47</v>
       </c>
       <c r="R43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="R44" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2990,7 +3060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3004,16 +3074,16 @@
         <v>56</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="R46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -3033,7 +3103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3053,10 +3123,10 @@
         <v>12</v>
       </c>
       <c r="R48" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3076,15 +3146,15 @@
         <v>12</v>
       </c>
       <c r="R49" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
         <v>70</v>
@@ -3093,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -3102,24 +3172,24 @@
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
         <v>72</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -3128,62 +3198,62 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
         <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="R52" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="R53" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3206,24 +3276,24 @@
         <v>30</v>
       </c>
       <c r="R54" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -3232,180 +3302,180 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
         <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>473</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
         <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>472</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
         <v>29</v>
       </c>
       <c r="J58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>469</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="R59" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
         <v>29</v>
       </c>
       <c r="J60" t="s">
-        <v>415</v>
+        <v>111</v>
       </c>
       <c r="R60" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>449</v>
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>102</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J61" t="s">
+        <v>401</v>
+      </c>
+      <c r="R61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -3413,166 +3483,166 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="R62" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D63" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
       <c r="R63" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>445</v>
+        <v>309</v>
       </c>
       <c r="C64" t="s">
-        <v>447</v>
+        <v>310</v>
       </c>
       <c r="D64" t="s">
-        <v>446</v>
-      </c>
-      <c r="E64" t="s">
-        <v>448</v>
+        <v>311</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R64" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="C65" t="s">
-        <v>326</v>
+        <v>432</v>
       </c>
       <c r="D65" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="E65" t="s">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
-      <c r="J65" t="s">
-        <v>328</v>
-      </c>
       <c r="R65" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
+      <c r="J66" t="s">
+        <v>315</v>
+      </c>
       <c r="R66" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" t="s">
+        <v>275</v>
+      </c>
+      <c r="E67" t="s">
         <v>287</v>
-      </c>
-      <c r="B67" t="s">
-        <v>310</v>
-      </c>
-      <c r="C67" t="s">
-        <v>293</v>
-      </c>
-      <c r="D67" t="s">
-        <v>289</v>
-      </c>
-      <c r="E67" t="s">
-        <v>131</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C68" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="R68" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C69" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" t="s">
         <v>295</v>
       </c>
-      <c r="D69" t="s">
-        <v>309</v>
-      </c>
       <c r="E69" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -3581,372 +3651,384 @@
         <v>20</v>
       </c>
       <c r="R69" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B70" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" t="s">
         <v>290</v>
-      </c>
-      <c r="E70" t="s">
-        <v>303</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>287</v>
-      </c>
-      <c r="B71" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" t="s">
-        <v>304</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="R71" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C72" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="R72" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="R73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C74" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" t="s">
+        <v>135</v>
+      </c>
+      <c r="R74" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" t="s">
         <v>298</v>
       </c>
-      <c r="D74" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" t="s">
-        <v>307</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="R74" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" t="s">
-        <v>185</v>
-      </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="R76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
         <v>174</v>
       </c>
-      <c r="B76" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" t="s">
-        <v>329</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="D77" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F77" t="s">
         <v>22</v>
       </c>
-      <c r="R76" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E77" t="s">
-        <v>194</v>
-      </c>
-      <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="J77" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" t="s">
         <v>192</v>
-      </c>
-      <c r="R77" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" t="s">
-        <v>195</v>
       </c>
       <c r="F78" t="s">
         <v>29</v>
       </c>
       <c r="J78" t="s">
-        <v>197</v>
-      </c>
-      <c r="P78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>190</v>
+      </c>
+      <c r="R78" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>453</v>
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
+        <v>193</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>195</v>
+      </c>
+      <c r="P79" t="s">
+        <v>112</v>
+      </c>
+      <c r="R79" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
       </c>
-      <c r="H81">
+    </row>
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" t="s">
+        <v>395</v>
+      </c>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82">
         <v>0</v>
       </c>
-      <c r="U81" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B82" t="s">
-        <v>332</v>
-      </c>
-      <c r="C82" t="s">
-        <v>333</v>
-      </c>
-      <c r="D82" t="s">
-        <v>333</v>
-      </c>
-      <c r="E82" t="s">
-        <v>335</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="U82" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" t="s">
+        <v>320</v>
+      </c>
+      <c r="D83" t="s">
+        <v>320</v>
+      </c>
+      <c r="E83" t="s">
+        <v>322</v>
+      </c>
+      <c r="F83" t="s">
         <v>29</v>
       </c>
-      <c r="J82" t="s">
-        <v>334</v>
-      </c>
-      <c r="U82" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>375</v>
-      </c>
-      <c r="B83" t="s">
-        <v>403</v>
-      </c>
-      <c r="C83" t="s">
-        <v>404</v>
-      </c>
-      <c r="D83" t="s">
-        <v>405</v>
-      </c>
-      <c r="E83" t="s">
-        <v>406</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="J83" t="s">
+        <v>321</v>
+      </c>
+      <c r="U83" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>362</v>
+      </c>
+      <c r="B84" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" t="s">
+        <v>391</v>
+      </c>
+      <c r="D84" t="s">
+        <v>392</v>
+      </c>
+      <c r="E84" t="s">
+        <v>393</v>
+      </c>
+      <c r="F84" t="s">
         <v>12</v>
       </c>
-      <c r="R83" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>375</v>
-      </c>
-      <c r="B84" t="s">
-        <v>376</v>
-      </c>
-      <c r="C84" t="s">
-        <v>377</v>
-      </c>
-      <c r="D84" t="s">
-        <v>378</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F84" t="s">
-        <v>57</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
       <c r="R84" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D85" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F85" t="s">
         <v>57</v>
@@ -3955,24 +4037,24 @@
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B86" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C86" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D86" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F86" t="s">
         <v>57</v>
@@ -3981,432 +4063,537 @@
         <v>0</v>
       </c>
       <c r="R86" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C87" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" t="s">
+        <v>371</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" t="s">
         <v>63</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>68</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>64</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="R87" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>375</v>
-      </c>
-      <c r="B88" t="s">
-        <v>386</v>
-      </c>
-      <c r="C88" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88" t="s">
-        <v>69</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
       </c>
       <c r="R88" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>375</v>
-      </c>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C89" t="s">
-        <v>388</v>
+        <v>66</v>
       </c>
       <c r="D89" t="s">
-        <v>389</v>
+        <v>67</v>
       </c>
       <c r="E89" t="s">
-        <v>390</v>
+        <v>69</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R89" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>362</v>
+      </c>
+      <c r="B90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C90" t="s">
         <v>375</v>
       </c>
-      <c r="B90" t="s">
-        <v>391</v>
-      </c>
-      <c r="C90" t="s">
-        <v>392</v>
-      </c>
       <c r="D90" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E90" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="C91" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="D91" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="E91" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="R91" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D92" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E92" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F92" t="s">
         <v>29</v>
       </c>
-      <c r="J92" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R92" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>328</v>
+      </c>
+      <c r="B93" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" t="s">
+        <v>333</v>
+      </c>
+      <c r="E93" t="s">
+        <v>335</v>
+      </c>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" t="s">
+        <v>334</v>
+      </c>
+      <c r="R93" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" t="s">
+        <v>338</v>
+      </c>
+      <c r="C94" t="s">
+        <v>339</v>
+      </c>
+      <c r="D94" t="s">
+        <v>340</v>
+      </c>
+      <c r="E94" t="s">
+        <v>256</v>
+      </c>
+      <c r="F94" t="s">
+        <v>263</v>
+      </c>
+      <c r="J94" t="s">
+        <v>258</v>
+      </c>
+      <c r="R94" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B95" t="s">
         <v>341</v>
       </c>
-      <c r="B93" t="s">
-        <v>351</v>
-      </c>
-      <c r="C93" t="s">
-        <v>352</v>
-      </c>
-      <c r="D93" t="s">
-        <v>353</v>
-      </c>
-      <c r="E93" t="s">
-        <v>259</v>
-      </c>
-      <c r="F93" t="s">
-        <v>266</v>
-      </c>
-      <c r="J93" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>341</v>
-      </c>
-      <c r="B94" t="s">
-        <v>354</v>
-      </c>
-      <c r="C94" t="s">
-        <v>355</v>
-      </c>
-      <c r="D94" t="s">
-        <v>356</v>
-      </c>
-      <c r="E94" t="s">
-        <v>357</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="C95" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" t="s">
+        <v>343</v>
+      </c>
+      <c r="E95" t="s">
+        <v>344</v>
+      </c>
+      <c r="F95" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>341</v>
-      </c>
-      <c r="B95" t="s">
-        <v>358</v>
-      </c>
-      <c r="C95" t="s">
-        <v>153</v>
-      </c>
-      <c r="D95" t="s">
-        <v>359</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
-      </c>
-      <c r="E96" t="s">
-        <v>363</v>
+        <v>346</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
       </c>
-      <c r="J96" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C97" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E97" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F97" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" t="s">
+        <v>351</v>
+      </c>
+      <c r="R97" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" t="s">
+        <v>355</v>
+      </c>
+      <c r="F98" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>341</v>
-      </c>
-      <c r="B98" t="s">
-        <v>369</v>
-      </c>
-      <c r="C98" t="s">
-        <v>370</v>
-      </c>
-      <c r="D98" t="s">
-        <v>371</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="R98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>328</v>
+      </c>
+      <c r="B99" t="s">
+        <v>356</v>
+      </c>
+      <c r="C99" t="s">
+        <v>357</v>
+      </c>
+      <c r="D99" t="s">
+        <v>358</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F99" t="s">
         <v>22</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>341</v>
-      </c>
-      <c r="B99" t="s">
-        <v>372</v>
-      </c>
-      <c r="C99" t="s">
-        <v>373</v>
-      </c>
-      <c r="D99" t="s">
-        <v>374</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F99" t="s">
-        <v>57</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="B100" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="C100" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="D100" t="s">
-        <v>419</v>
-      </c>
-      <c r="E100" t="s">
-        <v>424</v>
+        <v>361</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="R100" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B101" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C101" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="E101" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="R101" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B102" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C102" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D102" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E102" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
       </c>
       <c r="R102" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>402</v>
+      </c>
+      <c r="B103" t="s">
+        <v>411</v>
+      </c>
+      <c r="C103" t="s">
+        <v>412</v>
+      </c>
+      <c r="D103" t="s">
+        <v>413</v>
+      </c>
+      <c r="E103" t="s">
+        <v>414</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="R103" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" t="s">
         <v>416</v>
       </c>
-      <c r="B103" t="s">
-        <v>429</v>
-      </c>
-      <c r="C103" t="s">
-        <v>430</v>
-      </c>
-      <c r="D103" t="s">
-        <v>431</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="D104" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F104" t="s">
         <v>22</v>
       </c>
-      <c r="H103">
+      <c r="H104">
         <v>0</v>
       </c>
-      <c r="R103" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>416</v>
-      </c>
-      <c r="B104" t="s">
-        <v>434</v>
-      </c>
-      <c r="C104" t="s">
-        <v>435</v>
-      </c>
-      <c r="D104" t="s">
-        <v>438</v>
-      </c>
-      <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="L104" t="s">
-        <v>439</v>
-      </c>
       <c r="R104" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>421</v>
       </c>
       <c r="D105" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
       </c>
+      <c r="L105" t="s">
+        <v>425</v>
+      </c>
       <c r="R105" t="s">
-        <v>441</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>402</v>
+      </c>
+      <c r="B106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" t="s">
+        <v>423</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="R106" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" t="s">
+        <v>474</v>
+      </c>
+      <c r="C107" t="s">
+        <v>475</v>
+      </c>
+      <c r="D107" t="s">
+        <v>476</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="R107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>328</v>
+      </c>
+      <c r="B108" t="s">
+        <v>478</v>
+      </c>
+      <c r="C108" t="s">
+        <v>379</v>
+      </c>
+      <c r="D108" t="s">
+        <v>479</v>
+      </c>
+      <c r="E108" t="s">
+        <v>381</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="R108" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T105" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T99">
-    <sortCondition ref="A2:A99"/>
+  <autoFilter ref="A1:T108" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="design"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T100">
+    <sortCondition ref="A2:A100"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADACD91A-CDAC-40E6-A054-58A83A2E41D2}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E733AB-333D-49C3-867F-61D104CA3F42}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="476">
   <si>
     <t>experimentation</t>
   </si>
@@ -714,79 +714,7 @@
     <t>http://purl.obolibrary.org/obo/CO_715_0000253</t>
   </si>
   <si>
-    <t>Capteurs</t>
-  </si>
-  <si>
-    <t>Descriptifs des capteurs équipant la parcelle le cas échéant</t>
-  </si>
-  <si>
-    <t>sonde d'humidité des sols de typa capacitive</t>
-  </si>
-  <si>
-    <t>Performances agronomiques</t>
-  </si>
-  <si>
-    <t>Statut hydrique de la vigne</t>
-  </si>
-  <si>
-    <t>Statut minéral de la vigne</t>
-  </si>
-  <si>
-    <t>Analyses de sols</t>
-  </si>
-  <si>
-    <t>Suivi maladies</t>
-  </si>
-  <si>
-    <t>Analyse maturité</t>
-  </si>
-  <si>
-    <t>Vinification</t>
-  </si>
-  <si>
-    <t>Analyses sensorielles</t>
-  </si>
-  <si>
-    <t>Suivi couverts végétaux</t>
-  </si>
-  <si>
-    <t>Données météo</t>
-  </si>
-  <si>
-    <t>Mesures de Performances agronomiques réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Statut hydrique de la vigne réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Statut minéral de la vigne réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Analyses de sols réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Suivi maladies réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Analyse maturité réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Vinification réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Analyses sensorielles réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Suivi couverts végétaux réalisées</t>
-  </si>
-  <si>
-    <t>Mesures de Données météo réalisées</t>
-  </si>
-  <si>
     <t>oui</t>
-  </si>
-  <si>
-    <t>non</t>
   </si>
   <si>
     <t>oui,non</t>
@@ -1416,42 +1344,6 @@
   </si>
   <si>
     <t>Code du traitement expérimental appliqué ou en lien avec le vin</t>
-  </si>
-  <si>
-    <t>monitoring</t>
-  </si>
-  <si>
-    <t>monitoring_device</t>
-  </si>
-  <si>
-    <t>monitoring_obs_agro</t>
-  </si>
-  <si>
-    <t>monitoring_obs_hyd</t>
-  </si>
-  <si>
-    <t>monitoring_obs_min</t>
-  </si>
-  <si>
-    <t>monitoring_obs_soil</t>
-  </si>
-  <si>
-    <t>monitoring_obs_dis</t>
-  </si>
-  <si>
-    <t>monitoring_obs_mat</t>
-  </si>
-  <si>
-    <t>monitoring_obs_vin</t>
-  </si>
-  <si>
-    <t>monitoring_obs_sen</t>
-  </si>
-  <si>
-    <t>monitoring_obs_cc</t>
-  </si>
-  <si>
-    <t>monitoring_obs_mto</t>
   </si>
   <si>
     <t>priority</t>
@@ -1700,10 +1592,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2003,11 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection activeCell="A15" sqref="A15:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="67.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2092,7 +1979,7 @@
         <v>214</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>215</v>
@@ -2101,50 +1988,50 @@
         <v>217</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
@@ -2164,88 +2051,88 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>192</v>
       </c>
@@ -2268,47 +2155,47 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>192</v>
       </c>
@@ -2316,19 +2203,19 @@
         <v>210</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>192</v>
       </c>
@@ -2342,13 +2229,13 @@
         <v>201</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>192</v>
       </c>
@@ -2368,7 +2255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
@@ -2388,257 +2275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2649,7 +2286,7 @@
         <v>135</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>131</v>
@@ -2661,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2690,13 +2327,13 @@
         <v>18</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -2722,13 +2359,13 @@
         <v>18</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="225" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2751,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2774,10 +2411,10 @@
         <v>12</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2800,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2826,10 +2463,10 @@
         <v>2</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2849,10 +2486,10 @@
         <v>12</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2875,10 +2512,10 @@
         <v>114</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>147</v>
       </c>
@@ -2892,16 +2529,16 @@
         <v>154</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>147</v>
       </c>
@@ -2915,16 +2552,16 @@
         <v>155</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
@@ -2938,13 +2575,13 @@
         <v>156</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>147</v>
       </c>
@@ -2967,7 +2604,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>147</v>
       </c>
@@ -2987,33 +2624,33 @@
         <v>12</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>147</v>
       </c>
@@ -3024,7 +2661,7 @@
         <v>153</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3033,7 +2670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -3047,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>20</v>
@@ -3065,13 +2702,13 @@
         <v>43.692996999999998</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="U42" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -3085,7 +2722,7 @@
         <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>20</v>
@@ -3103,13 +2740,13 @@
         <v>4.2784149999999999</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="U43" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +2757,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>29</v>
@@ -3132,13 +2769,13 @@
         <v>1</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="T44" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
@@ -3149,7 +2786,7 @@
         <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>39</v>
@@ -3158,10 +2795,10 @@
         <v>12</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3184,39 +2821,39 @@
         <v>44</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>44</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -3239,7 +2876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -3253,7 +2890,7 @@
         <v>53</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>12</v>
@@ -3262,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
@@ -3285,7 +2922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
@@ -3308,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
@@ -3334,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -3351,7 +2988,7 @@
         <v>68</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
@@ -3360,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
@@ -3377,7 +3014,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>20</v>
@@ -3386,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
@@ -3409,13 +3046,13 @@
         <v>26</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
@@ -3435,13 +3072,13 @@
         <v>26</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>19</v>
       </c>
@@ -3464,10 +3101,10 @@
         <v>27</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>19</v>
       </c>
@@ -3481,7 +3118,7 @@
         <v>70</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
@@ -3493,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
@@ -3528,7 +3165,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
@@ -3539,7 +3176,7 @@
         <v>78</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>97</v>
@@ -3554,10 +3191,10 @@
         <v>106</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
@@ -3568,7 +3205,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>97</v>
@@ -3583,24 +3220,24 @@
         <v>107</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>12</v>
@@ -3609,10 +3246,10 @@
         <v>2</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3638,10 +3275,10 @@
         <v>108</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
@@ -3664,13 +3301,13 @@
         <v>2</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +3321,7 @@
         <v>110</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -3696,21 +3333,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>20</v>
@@ -3722,24 +3359,24 @@
         <v>0</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
@@ -3748,24 +3385,24 @@
         <v>1</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>12</v>
@@ -3774,24 +3411,24 @@
         <v>3</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>12</v>
@@ -3800,27 +3437,27 @@
         <v>2</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>12</v>
@@ -3829,25 +3466,25 @@
         <v>1</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="T70" s="7"/>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>126</v>
@@ -3859,24 +3496,24 @@
         <v>3</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -3888,24 +3525,24 @@
         <v>18</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
@@ -3917,24 +3554,24 @@
         <v>18</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="285" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>12</v>
@@ -3943,24 +3580,24 @@
         <v>2</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>12</v>
@@ -3969,27 +3606,27 @@
         <v>1</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>12</v>
@@ -3998,24 +3635,24 @@
         <v>2</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>132</v>
@@ -4024,24 +3661,24 @@
         <v>3</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>12</v>
@@ -4050,10 +3687,10 @@
         <v>2</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>168</v>
       </c>
@@ -4076,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>168</v>
       </c>
@@ -4090,10 +3727,10 @@
         <v>170</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>20</v>
@@ -4102,10 +3739,10 @@
         <v>2</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
@@ -4134,10 +3771,10 @@
         <v>186</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
@@ -4166,10 +3803,10 @@
         <v>109</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -4183,7 +3820,7 @@
         <v>177</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
@@ -4192,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>168</v>
       </c>
@@ -4206,7 +3843,7 @@
         <v>178</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
@@ -4215,21 +3852,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
@@ -4241,24 +3878,24 @@
         <v>0</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>26</v>
@@ -4267,50 +3904,50 @@
         <v>3</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>54</v>
@@ -4319,24 +3956,24 @@
         <v>0</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>54</v>
@@ -4345,24 +3982,24 @@
         <v>0</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>54</v>
@@ -4371,12 +4008,12 @@
         <v>0</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>60</v>
@@ -4394,12 +4031,12 @@
         <v>3</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>63</v>
@@ -4417,240 +4054,240 @@
         <v>3</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>26</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
@@ -4659,24 +4296,24 @@
         <v>0</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>54</v>
@@ -4685,93 +4322,93 @@
         <v>0</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>20</v>
@@ -4780,126 +4417,120 @@
         <v>0</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R108" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="R108" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R110" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R111" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="D112" s="2" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U112" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="subplot"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U112" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U103">
     <sortCondition ref="A2:A103"/>
   </sortState>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1A6EEC-F2B4-49A6-A3CE-881847E20092}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B43691-1970-4233-9DB2-0693F4D80DEF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -1100,9 +1100,6 @@
     <t>Contact exploitation</t>
   </si>
   <si>
-    <t>Prénon, Nom de la personne contact au sein de l'exploitation</t>
-  </si>
-  <si>
     <t>Jean-Paul, Cabanis</t>
   </si>
   <si>
@@ -1538,9 +1535,6 @@
     <t>Description libre de l'événement</t>
   </si>
   <si>
-    <t>gel de pritemps, avec destruction d'environ 30% des bourgons principaux</t>
-  </si>
-  <si>
     <t>event_date</t>
   </si>
   <si>
@@ -1572,6 +1566,12 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>Prénom, Nom de la personne contact au sein de l'exploitation</t>
+  </si>
+  <si>
+    <t>gel de printemps, avec destruction d'environ 30% des bourgons principaux</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:W107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="67.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2090,7 +2090,7 @@
         <v>204</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>205</v>
@@ -2165,21 +2165,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2191,15 +2191,15 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>324</v>
@@ -2223,27 +2223,27 @@
         <v>328</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
@@ -2255,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
@@ -2292,16 +2292,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -2315,16 +2315,16 @@
         <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
@@ -2341,13 +2341,13 @@
         <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>53</v>
@@ -2367,7 +2367,7 @@
         <v>191</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>53</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -2471,7 +2471,7 @@
         <v>18</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V16" s="6" t="s">
         <v>212</v>
@@ -2506,7 +2506,7 @@
         <v>18</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>211</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
@@ -2564,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -2648,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -2677,7 +2677,7 @@
         <v>108</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -2685,22 +2685,22 @@
         <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>338</v>
@@ -2711,22 +2711,22 @@
         <v>141</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -2743,7 +2743,7 @@
         <v>147</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
@@ -2766,7 +2766,7 @@
         <v>148</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -2815,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -2855,7 +2855,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -2882,7 +2882,7 @@
         <v>43.692996999999998</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V31" s="8" t="s">
         <v>208</v>
@@ -2902,7 +2902,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -2929,7 +2929,7 @@
         <v>4.2784149999999999</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V32" s="7" t="s">
         <v>209</v>
@@ -2940,16 +2940,16 @@
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
@@ -2961,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V33" s="7"/>
     </row>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>206</v>
@@ -3011,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>39</v>
@@ -3023,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3055,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3072,7 +3072,7 @@
         <v>215</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>12</v>
@@ -3119,13 +3119,13 @@
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3142,7 +3142,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>12</v>
@@ -3154,10 +3154,10 @@
         <v>2</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3258,7 +3258,7 @@
         <v>67</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>20</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3290,7 +3290,7 @@
         <v>68</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>20</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3337,7 +3337,7 @@
         <v>270</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3369,7 +3369,7 @@
         <v>271</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3418,7 +3418,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>20</v>
@@ -3473,16 +3473,16 @@
         <v>141</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>26</v>
@@ -3491,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>338</v>
@@ -3502,16 +3502,16 @@
         <v>141</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>26</v>
@@ -3520,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>338</v>
@@ -3531,16 +3531,16 @@
         <v>141</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>12</v>
@@ -3549,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3581,7 +3581,7 @@
         <v>102</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3613,7 +3613,7 @@
         <v>339</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3630,7 +3630,7 @@
         <v>104</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
@@ -3659,7 +3659,7 @@
         <v>261</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3691,7 +3691,7 @@
         <v>264</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3711,16 +3711,16 @@
         <v>19</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>12</v>
@@ -3732,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
@@ -3767,7 +3767,7 @@
         <v>268</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
@@ -3775,13 +3775,13 @@
         <v>229</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>240</v>
@@ -3796,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U60" s="7"/>
     </row>
@@ -3829,7 +3829,7 @@
         <v>3</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3861,7 +3861,7 @@
         <v>18</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3893,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="261" hidden="1" x14ac:dyDescent="0.35">
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="116" hidden="1" x14ac:dyDescent="0.35">
@@ -3951,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
@@ -3983,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
@@ -4012,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
@@ -4084,7 +4084,7 @@
         <v>269</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>20</v>
@@ -4093,7 +4093,7 @@
         <v>2</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
@@ -4125,7 +4125,7 @@
         <v>176</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4157,7 +4157,7 @@
         <v>103</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
@@ -4174,7 +4174,7 @@
         <v>167</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -4197,7 +4197,7 @@
         <v>168</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -4217,10 +4217,10 @@
         <v>335</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
@@ -4243,10 +4243,10 @@
         <v>332</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>333</v>
@@ -4255,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
@@ -4269,10 +4269,10 @@
         <v>313</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>53</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4292,13 +4292,13 @@
         <v>314</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>53</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4318,13 +4318,13 @@
         <v>315</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="E79" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>53</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4356,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4393,7 +4393,7 @@
         <v>319</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>320</v>
@@ -4402,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4416,7 +4416,7 @@
         <v>322</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>323</v>
@@ -4425,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4448,7 +4448,7 @@
         <v>26</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4474,7 +4474,7 @@
         <v>283</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4500,7 +4500,7 @@
         <v>214</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4523,7 +4523,7 @@
         <v>26</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4540,13 +4540,13 @@
         <v>295</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4572,7 +4572,7 @@
         <v>300</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4595,7 +4595,7 @@
         <v>12</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4612,7 +4612,7 @@
         <v>307</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>20</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4638,7 +4638,7 @@
         <v>310</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>53</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4670,7 +4670,7 @@
         <v>12</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4693,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4707,16 +4707,16 @@
         <v>350</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4724,16 +4724,16 @@
         <v>340</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="E96" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4750,22 +4750,22 @@
         <v>340</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="D97" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M97" s="2" t="s">
+      <c r="S97" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4773,19 +4773,19 @@
         <v>340</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4793,22 +4793,22 @@
         <v>277</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
@@ -4816,13 +4816,13 @@
         <v>277</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>323</v>
@@ -4831,24 +4831,24 @@
         <v>12</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>12</v>
@@ -4862,16 +4862,16 @@
         <v>340</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>458</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
@@ -4882,16 +4882,16 @@
         <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>12</v>
@@ -4902,76 +4902,76 @@
         <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="E107" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>501</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>17</v>
@@ -4984,7 +4984,7 @@
   <autoFilter ref="A1:V107" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="factor"/>
+        <filter val="event"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B43691-1970-4233-9DB2-0693F4D80DEF}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{051C1487-8BE5-4DC2-8AF5-5EC33696CCD2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$V$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$V$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="520">
   <si>
     <t>experimentation</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Espalier</t>
   </si>
   <si>
-    <t>03 Presque de niveau 0.5-1%</t>
-  </si>
-  <si>
     <t>Agriculture Biologique</t>
   </si>
   <si>
@@ -344,13 +341,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>01 Flat 0-0.2%,02 De niveau 0.2-0.5%,03 Presque de niveau 0.5-1%,04 très légère pente 1-2%,05 légère pente 2-5%,06 en pente 5-10%,07 pente nette 10-15%,08 pente prononcée 15-30%,09 forte pente 30-60%,10 pente extrême &gt;60%</t>
-  </si>
-  <si>
     <t>Raisonnée ou conventionnelle,Agriculture Biologique,Biodynamie</t>
-  </si>
-  <si>
-    <t>R.Jahn.2006</t>
   </si>
   <si>
     <t>Objectif de rendement du viticulteur sur la parcelle en t/ha.</t>
@@ -402,16 +393,10 @@
 Les modalités ont été mises en place le 17 mars et le 23 mars 2009, avec un dispositif expérimental en carré latin, avec 3 répétitions pour chaque modalité. Les apports ont été renouvelés en avril 2013</t>
   </si>
   <si>
-    <t>xavier.delpuech@vignevin.com</t>
-  </si>
-  <si>
     <t>OAD MO</t>
   </si>
   <si>
     <t>IFV Pôle Rhône-Méditerranée</t>
-  </si>
-  <si>
-    <t>Xavier, Delpuech</t>
   </si>
   <si>
     <t>2020-12-31</t>
@@ -782,12 +767,6 @@
 Les parcelles d’expérimentation ont été mises en place l’hiver 2008-2009 pour certaines et l’hiver 2009-2010 pour d’autres. </t>
   </si>
   <si>
-    <t>Jean-Yves CAHUREL</t>
-  </si>
-  <si>
-    <t>jean-yves.cahurel@vignevin.com</t>
-  </si>
-  <si>
     <t> FranceAgriMer</t>
   </si>
   <si>
@@ -1100,9 +1079,6 @@
     <t>Contact exploitation</t>
   </si>
   <si>
-    <t>Jean-Paul, Cabanis</t>
-  </si>
-  <si>
     <t>est_area_vine</t>
   </si>
   <si>
@@ -1442,9 +1418,6 @@
     <t>https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006071367/LEGISCTA000036441436/2020-07-02/?anchor=LEGIARTI000036441438#LEGIARTI000036441438</t>
   </si>
   <si>
-    <t>Code rural et de la Pêche maritime</t>
-  </si>
-  <si>
     <t>Alsace Est,Aquitaine,Bourgogne-Beaujolais-Savoie-Jura,Champagne,Charentes-Cognac,Corse,Languedoc-Roussillon,Sud-Ouest,Val-de-Loire-Centre, Vallée-du-Rhône-Provence</t>
   </si>
   <si>
@@ -1572,13 +1545,76 @@
   </si>
   <si>
     <t>gel de printemps, avec destruction d'environ 30% des bourgons principaux</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data_desc</t>
+  </si>
+  <si>
+    <t>data_vintage</t>
+  </si>
+  <si>
+    <t>data_stage</t>
+  </si>
+  <si>
+    <t>Stade phénologique lors de la mesure</t>
+  </si>
+  <si>
+    <t>Millésime associé aux données</t>
+  </si>
+  <si>
+    <t>BBCH65</t>
+  </si>
+  <si>
+    <t>data_protocol</t>
+  </si>
+  <si>
+    <t>Référence du protocole d'acquisition</t>
+  </si>
+  <si>
+    <t>Code ou URI du protocole lors de l'acquisition des données</t>
+  </si>
+  <si>
+    <t>Stade phénologique lors de l'acquisition des données (BBCH)</t>
+  </si>
+  <si>
+    <t>Millésime du dataset</t>
+  </si>
+  <si>
+    <t>Description du dataset</t>
+  </si>
+  <si>
+    <t>Description du fichier contentant les données (dataset), généralement sous forme tabulaire. Les données peuvent être regroupées par millésime, par stade et ou par type selon la granularité souhaitée</t>
+  </si>
+  <si>
+    <t>Jean, Durand</t>
+  </si>
+  <si>
+    <t>jean.durand@myemail.com</t>
+  </si>
+  <si>
+    <t>plat (0-0.2%),de niveau (0.2-0.5%),presque de niveau (0.5-1%),très légère pente (1-2%),légère pente (2-5%),en pente (5-10%),pente nette (10-15%),pente prononcée (15-30%),forte pente (30-60%),pente extrême (&gt;60%)</t>
+  </si>
+  <si>
+    <t>@R.Jahn.2006</t>
+  </si>
+  <si>
+    <t>@Coderuraletdelapechemaritime.2017</t>
+  </si>
+  <si>
+    <t>presque de niveau (0.5-1%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,6 +1663,13 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1645,11 +1688,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1678,9 +1722,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Milliers" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1997,41 +2045,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="67.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="67.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.54296875" style="2"/>
+    <col min="1" max="1" width="21.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" style="2"/>
     <col min="5" max="5" width="39" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="67.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="28.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="57" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.81640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.1796875" style="2" customWidth="1"/>
-    <col min="21" max="22" width="44.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="65.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="67.54296875" style="2"/>
+    <col min="17" max="17" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.140625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="44.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="65.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="67.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2051,10 +2099,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2081,82 +2129,82 @@
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -2165,21 +2213,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2191,27 +2239,27 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>26</v>
@@ -2220,30 +2268,30 @@
         <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
@@ -2255,27 +2303,27 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
@@ -2284,24 +2332,24 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -2310,21 +2358,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
@@ -2333,87 +2381,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2421,13 +2469,13 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
@@ -2439,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2450,13 +2498,13 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>17</v>
@@ -2471,27 +2519,27 @@
         <v>18</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>17</v>
@@ -2506,27 +2554,27 @@
         <v>18</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="225" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
@@ -2538,24 +2586,24 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
@@ -2564,24 +2612,24 @@
         <v>5</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>122</v>
+        <v>514</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
@@ -2593,27 +2641,27 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>119</v>
+        <v>515</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G21" s="2">
         <v>7</v>
@@ -2622,24 +2670,24 @@
         <v>2</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
@@ -2648,24 +2696,24 @@
         <v>8</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
@@ -2674,174 +2722,174 @@
         <v>9</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -2849,13 +2897,13 @@
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -2876,19 +2924,19 @@
         <v>21</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P31" s="2">
         <v>43.692996999999998</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2896,13 +2944,13 @@
         <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -2923,33 +2971,33 @@
         <v>21</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P32" s="2">
         <v>4.2784149999999999</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
@@ -2961,14 +3009,14 @@
         <v>3</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="V33" s="7"/>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +3027,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>29</v>
@@ -2994,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3011,7 +3059,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>39</v>
@@ -3023,10 +3071,10 @@
         <v>2</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3055,24 +3103,24 @@
         <v>44</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>12</v>
@@ -3084,16 +3132,16 @@
         <v>2</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -3119,16 +3167,16 @@
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -3142,7 +3190,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>12</v>
@@ -3154,13 +3202,13 @@
         <v>2</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
@@ -3212,10 +3260,10 @@
         <v>1</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -3241,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -3258,7 +3306,7 @@
         <v>67</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>20</v>
@@ -3273,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -3290,7 +3338,7 @@
         <v>68</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>20</v>
@@ -3305,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
@@ -3319,7 +3367,7 @@
         <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>91</v>
@@ -3334,13 +3382,13 @@
         <v>2</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3351,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>92</v>
@@ -3366,13 +3414,13 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>19</v>
       </c>
@@ -3401,10 +3449,10 @@
         <v>27</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -3418,7 +3466,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>20</v>
@@ -3433,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -3444,10 +3492,10 @@
         <v>76</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>93</v>
+        <v>519</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>26</v>
@@ -3456,33 +3504,33 @@
         <v>3</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>103</v>
+        <v>516</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>26</v>
@@ -3491,27 +3539,27 @@
         <v>2</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>26</v>
@@ -3520,27 +3568,27 @@
         <v>2</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>12</v>
@@ -3549,10 +3597,10 @@
         <v>2</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -3566,7 +3614,7 @@
         <v>70</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>26</v>
@@ -3578,13 +3626,13 @@
         <v>2</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
@@ -3598,7 +3646,7 @@
         <v>71</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>26</v>
@@ -3610,13 +3658,13 @@
         <v>2</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
@@ -3627,10 +3675,10 @@
         <v>81</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
@@ -3645,21 +3693,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -3674,24 +3722,24 @@
         <v>0</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
@@ -3703,24 +3751,24 @@
         <v>1</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>12</v>
@@ -3732,27 +3780,27 @@
         <v>3</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>12</v>
@@ -3764,27 +3812,27 @@
         <v>2</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>12</v>
@@ -3796,28 +3844,28 @@
         <v>1</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>12</v>
@@ -3829,24 +3877,24 @@
         <v>3</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -3861,24 +3909,24 @@
         <v>18</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
@@ -3893,24 +3941,24 @@
         <v>18</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="261" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="285" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>12</v>
@@ -3922,24 +3970,24 @@
         <v>2</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>12</v>
@@ -3951,27 +3999,27 @@
         <v>1</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>245</v>
+        <v>514</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>12</v>
@@ -3983,27 +4031,27 @@
         <v>2</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>246</v>
+        <v>104</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>515</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G67" s="2">
         <v>8</v>
@@ -4012,24 +4060,24 @@
         <v>3</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>12</v>
@@ -4041,24 +4089,24 @@
         <v>2</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>12</v>
@@ -4067,24 +4115,24 @@
         <v>1</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>20</v>
@@ -4093,24 +4141,24 @@
         <v>2</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>26</v>
@@ -4119,30 +4167,30 @@
         <v>2</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>26</v>
@@ -4151,30 +4199,30 @@
         <v>2</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>103</v>
+        <v>176</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -4183,21 +4231,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -4206,21 +4254,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
@@ -4232,47 +4280,47 @@
         <v>0</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>53</v>
@@ -4281,24 +4329,24 @@
         <v>0</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>53</v>
@@ -4307,24 +4355,24 @@
         <v>0</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>53</v>
@@ -4333,12 +4381,12 @@
         <v>0</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>59</v>
@@ -4356,12 +4404,12 @@
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>62</v>
@@ -4379,240 +4427,240 @@
         <v>3</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K85" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="S85" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K89" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="S89" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="E91" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>20</v>
@@ -4621,24 +4669,24 @@
         <v>0</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>53</v>
@@ -4647,93 +4695,93 @@
         <v>0</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S93" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S94" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>392</v>
+      <c r="E96" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
@@ -4742,113 +4790,113 @@
         <v>0</v>
       </c>
       <c r="S96" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S98" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>12</v>
@@ -4857,121 +4905,121 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="E107" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>17</v>
@@ -4980,14 +5028,79 @@
         <v>18</v>
       </c>
     </row>
+    <row r="108" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V107" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="event"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V111" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V92">
     <sortCondition ref="A2:A92"/>
   </sortState>
@@ -5000,8 +5113,9 @@
     <hyperlink ref="V17" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
     <hyperlink ref="R37" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
     <hyperlink ref="R38" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
+    <hyperlink ref="E67" r:id="rId8" xr:uid="{D75047B2-D490-4448-A2F9-8B6D76F4FF9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B041C7E1-FAB8-44CD-B94B-3D13CF5F83DA}"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="13_ncr:1_{408E4E9B-A7F7-4609-9E19-471F8CD70632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBEBA722-425C-4071-BAD2-EF33FDFDDD6C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="559">
   <si>
     <t>experimentation</t>
   </si>
@@ -1193,9 +1193,6 @@
     <t>Nombre de répétition</t>
   </si>
   <si>
-    <t>Nombre de répétitions du traitement</t>
-  </si>
-  <si>
     <t>MO [ici un seul facteur]</t>
   </si>
   <si>
@@ -1637,9 +1634,6 @@
     <t>#plant_pop_at_planting</t>
   </si>
   <si>
-    <t>matériel végétal,intrant,traitement phytosanitaire,entretien du sol, mode de conduite,système,fertilisant,irrigation</t>
-  </si>
-  <si>
     <t>field_soil_texture</t>
   </si>
   <si>
@@ -1716,6 +1710,18 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Nombre de répétitions par traitement expérimental (combinaison de facteurs appliqués)</t>
+  </si>
+  <si>
+    <t>matériel végétal,protection phytosanitaire,entretien du sol, mode de conduite,système,fertilisant,irrigation</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) du porte-greffe. Utiliser la liste disposnible sur https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) produisant les fruits. Format de type "Syrah N Cl300" ou "Grenache B". Utiliser la liste disposnible sur https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
   </si>
 </sst>
 </file>
@@ -1856,10 +1862,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2162,8 +2164,8 @@
   <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="67.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2197,16 +2199,16 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -2221,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>351</v>
@@ -2274,7 +2276,7 @@
     </row>
     <row r="2" spans="1:25" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>186</v>
@@ -2297,7 +2299,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>186</v>
@@ -2320,7 +2322,7 @@
     </row>
     <row r="4" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>149</v>
@@ -2329,7 +2331,7 @@
         <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>151</v>
@@ -2349,7 +2351,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>367</v>
@@ -2358,7 +2360,7 @@
         <v>375</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>369</v>
@@ -2387,7 +2389,7 @@
     </row>
     <row r="6" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>367</v>
@@ -2402,7 +2404,7 @@
         <v>272</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -2411,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>364</v>
@@ -2422,7 +2424,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>367</v>
@@ -2457,7 +2459,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>149</v>
@@ -2466,7 +2468,7 @@
         <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>152</v>
@@ -2489,10 +2491,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>554</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>366</v>
@@ -2515,16 +2514,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>554</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>378</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>379</v>
@@ -2533,7 +2529,7 @@
         <v>380</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>24</v>
@@ -2542,9 +2538,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>149</v>
@@ -2553,13 +2549,13 @@
         <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>381</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>382</v>
+        <v>555</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>322</v>
@@ -2570,7 +2566,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>149</v>
@@ -2593,7 +2589,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>149</v>
@@ -2616,7 +2612,7 @@
     </row>
     <row r="14" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>149</v>
@@ -2639,7 +2635,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -2648,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>100</v>
@@ -2674,7 +2670,7 @@
     </row>
     <row r="16" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -2712,7 +2708,7 @@
     </row>
     <row r="17" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -2750,7 +2746,7 @@
     </row>
     <row r="18" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -2759,7 +2755,7 @@
         <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>83</v>
@@ -2785,7 +2781,7 @@
     </row>
     <row r="19" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -2794,7 +2790,7 @@
         <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>84</v>
@@ -2817,25 +2813,25 @@
     </row>
     <row r="20" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>11</v>
@@ -2852,25 +2848,25 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>97</v>
@@ -2887,25 +2883,25 @@
     </row>
     <row r="22" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="F22" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>24</v>
@@ -2914,12 +2910,12 @@
         <v>2</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -2948,7 +2944,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -2957,7 +2953,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>87</v>
@@ -2983,19 +2979,19 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>324</v>
@@ -3004,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>281</v>
@@ -3012,33 +3008,33 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>109</v>
@@ -3047,7 +3043,7 @@
         <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>111</v>
@@ -3067,7 +3063,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>109</v>
@@ -3076,7 +3072,7 @@
         <v>121</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>112</v>
@@ -3093,7 +3089,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>109</v>
@@ -3119,7 +3115,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>109</v>
@@ -3128,7 +3124,7 @@
         <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>114</v>
@@ -3148,7 +3144,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>109</v>
@@ -3157,7 +3153,7 @@
         <v>226</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>227</v>
@@ -3177,25 +3173,25 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>11</v>
@@ -3206,16 +3202,16 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>98</v>
@@ -3259,16 +3255,16 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>99</v>
@@ -3312,22 +3308,22 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>11</v>
@@ -3339,25 +3335,25 @@
         <v>3</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y35" s="7"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>31</v>
@@ -3386,16 +3382,16 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>30</v>
@@ -3418,16 +3414,16 @@
     </row>
     <row r="38" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>33</v>
@@ -3456,13 +3452,13 @@
     </row>
     <row r="39" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>183</v>
@@ -3494,13 +3490,13 @@
     </row>
     <row r="40" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>38</v>
@@ -3521,27 +3517,27 @@
         <v>3</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>41</v>
@@ -3562,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>334</v>
@@ -3570,13 +3566,13 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
@@ -3597,24 +3593,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>51</v>
+        <v>558</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>48</v>
@@ -3632,21 +3628,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>50</v>
+        <v>557</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>52</v>
@@ -3666,16 +3662,16 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>53</v>
@@ -3704,16 +3700,16 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>59</v>
@@ -3742,13 +3738,13 @@
     </row>
     <row r="47" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>60</v>
@@ -3777,13 +3773,13 @@
     </row>
     <row r="48" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>61</v>
@@ -3812,16 +3808,16 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -3850,16 +3846,16 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>62</v>
@@ -3885,22 +3881,22 @@
     </row>
     <row r="51" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
@@ -3927,22 +3923,22 @@
     </row>
     <row r="52" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>24</v>
@@ -3951,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>281</v>
@@ -3959,13 +3955,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>65</v>
@@ -3974,7 +3970,7 @@
         <v>344</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>24</v>
@@ -3983,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>281</v>
@@ -3991,13 +3987,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>342</v>
@@ -4006,7 +4002,7 @@
         <v>343</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>11</v>
@@ -4020,13 +4016,13 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>66</v>
@@ -4055,13 +4051,13 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>67</v>
@@ -4090,13 +4086,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -4122,16 +4118,16 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>218</v>
@@ -4160,16 +4156,16 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>220</v>
@@ -4195,22 +4191,22 @@
     </row>
     <row r="60" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>307</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>11</v>
@@ -4222,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>305</v>
@@ -4230,22 +4226,22 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
@@ -4271,7 +4267,7 @@
     </row>
     <row r="62" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>195</v>
@@ -4307,7 +4303,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>195</v>
@@ -4339,7 +4335,7 @@
     </row>
     <row r="64" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>195</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="65" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>195</v>
@@ -4409,7 +4405,7 @@
     </row>
     <row r="66" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>195</v>
@@ -4441,7 +4437,7 @@
     </row>
     <row r="67" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>195</v>
@@ -4476,7 +4472,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>195</v>
@@ -4485,7 +4481,7 @@
         <v>213</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>202</v>
@@ -4511,7 +4507,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>126</v>
@@ -4540,7 +4536,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>126</v>
@@ -4569,7 +4565,7 @@
     </row>
     <row r="71" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>126</v>
@@ -4578,7 +4574,7 @@
         <v>137</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>129</v>
@@ -4607,7 +4603,7 @@
     </row>
     <row r="72" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>126</v>
@@ -4634,7 +4630,7 @@
         <v>148</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>337</v>
@@ -4642,7 +4638,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>126</v>
@@ -4651,13 +4647,13 @@
         <v>140</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>312</v>
@@ -4671,7 +4667,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>126</v>
@@ -4680,7 +4676,7 @@
         <v>141</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>132</v>
@@ -4700,7 +4696,7 @@
     </row>
     <row r="75" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>126</v>
@@ -4732,22 +4728,22 @@
     </row>
     <row r="76" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>276</v>
@@ -4761,19 +4757,19 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>265</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>326</v>
@@ -4790,19 +4786,19 @@
     </row>
     <row r="78" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>327</v>
@@ -4819,19 +4815,19 @@
     </row>
     <row r="79" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>328</v>
@@ -4848,10 +4844,10 @@
     </row>
     <row r="80" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>47</v>
@@ -4874,10 +4870,10 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>49</v>
@@ -4900,19 +4896,19 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>266</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>267</v>
@@ -4926,19 +4922,19 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>269</v>
@@ -4952,7 +4948,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>231</v>
@@ -4978,7 +4974,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>231</v>
@@ -5007,7 +5003,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>231</v>
@@ -5036,7 +5032,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>231</v>
@@ -5062,7 +5058,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>231</v>
@@ -5088,7 +5084,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>231</v>
@@ -5117,7 +5113,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>231</v>
@@ -5143,7 +5139,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>231</v>
@@ -5172,7 +5168,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>231</v>
@@ -5201,7 +5197,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>283</v>
@@ -5227,7 +5223,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>283</v>
@@ -5253,7 +5249,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>283</v>
@@ -5282,7 +5278,7 @@
     </row>
     <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>283</v>
@@ -5308,7 +5304,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>283</v>
@@ -5331,7 +5327,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>231</v>
@@ -5357,7 +5353,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>231</v>
@@ -5383,7 +5379,7 @@
     </row>
     <row r="100" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>367</v>
@@ -5409,22 +5405,22 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>11</v>
@@ -5432,22 +5428,22 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>11</v>
@@ -5455,22 +5451,22 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>11</v>
@@ -5478,22 +5474,22 @@
     </row>
     <row r="104" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>11</v>
@@ -5501,22 +5497,22 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>11</v>
@@ -5524,22 +5520,22 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="9" t="s">
         <v>435</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>436</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>16</v>
@@ -5550,19 +5546,19 @@
     </row>
     <row r="107" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>11</v>
@@ -5573,19 +5569,19 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>24</v>
@@ -5593,19 +5589,19 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>11</v>
@@ -5616,19 +5612,19 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>11</v>
@@ -5636,39 +5632,39 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="G112" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>11</v>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7E96DB-38D8-4584-BC40-A491DB4D253D}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20FEF2C-B88B-4AA0-88E8-83F23A88CB93}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="603">
   <si>
     <t>experimentation</t>
   </si>
@@ -1850,6 +1850,9 @@
   </si>
   <si>
     <t>field,measure</t>
+  </si>
+  <si>
+    <t>Nom de la parcelle expérimentale</t>
   </si>
 </sst>
 </file>
@@ -2307,44 +2310,18 @@
   <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="67.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.54296875" style="2"/>
-    <col min="7" max="7" width="100.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7265625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.81640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="65.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.1796875" style="2" customWidth="1"/>
-    <col min="28" max="29" width="44.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="67.54296875" style="2"/>
+    <col min="1" max="5" width="14.85546875" style="2"/>
+    <col min="6" max="6" width="44" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="14.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>476</v>
       </c>
@@ -2433,7 +2410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>477</v>
       </c>
@@ -2459,7 +2436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>477</v>
       </c>
@@ -2488,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>477</v>
       </c>
@@ -2514,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>478</v>
       </c>
@@ -2534,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>478</v>
       </c>
@@ -2554,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>477</v>
       </c>
@@ -2583,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>477</v>
       </c>
@@ -2612,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>477</v>
       </c>
@@ -2644,7 +2621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>477</v>
       </c>
@@ -2670,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>477</v>
       </c>
@@ -2696,7 +2673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>477</v>
       </c>
@@ -2728,7 +2705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>477</v>
       </c>
@@ -2757,7 +2734,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>477</v>
       </c>
@@ -2786,7 +2763,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>478</v>
       </c>
@@ -2806,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>477</v>
       </c>
@@ -2835,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>477</v>
       </c>
@@ -2864,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>477</v>
       </c>
@@ -2890,7 +2867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>477</v>
       </c>
@@ -2913,7 +2890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>477</v>
       </c>
@@ -2936,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>477</v>
       </c>
@@ -2959,7 +2936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>477</v>
       </c>
@@ -2973,13 +2950,16 @@
         <v>548</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>417</v>
+        <v>602</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>477</v>
       </c>
@@ -3001,11 +2981,14 @@
       <c r="H23" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
       <c r="Z23" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>477</v>
       </c>
@@ -3027,11 +3010,14 @@
       <c r="H24" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N24" s="2">
+        <v>2</v>
+      </c>
       <c r="Z24" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>477</v>
       </c>
@@ -3053,6 +3039,9 @@
       <c r="H25" s="2" t="s">
         <v>485</v>
       </c>
+      <c r="N25" s="2">
+        <v>6</v>
+      </c>
       <c r="P25" s="2">
         <v>0</v>
       </c>
@@ -3060,7 +3049,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>477</v>
       </c>
@@ -3082,11 +3071,14 @@
       <c r="L26" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="N26" s="2">
+        <v>3</v>
+      </c>
       <c r="Z26" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
@@ -3105,11 +3097,14 @@
       <c r="H27" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N27" s="2">
+        <v>5</v>
+      </c>
       <c r="Z27" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>477</v>
       </c>
@@ -3131,8 +3126,11 @@
       <c r="H28" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>478</v>
       </c>
@@ -3155,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>478</v>
       </c>
@@ -3178,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>478</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>478</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>477</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>477</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>477</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>477</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>477</v>
       </c>
@@ -3409,7 +3407,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>477</v>
       </c>
@@ -3441,7 +3439,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>477</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>477</v>
       </c>
@@ -3505,7 +3503,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>477</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>477</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>477</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>477</v>
       </c>
@@ -3635,11 +3633,14 @@
       <c r="H44" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
       <c r="O44" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>477</v>
       </c>
@@ -3647,52 +3648,28 @@
         <v>425</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="2">
         <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="N45" s="2">
-        <v>7</v>
       </c>
       <c r="O45" s="2">
         <v>2</v>
       </c>
-      <c r="P45" s="2">
-        <v>-90</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>90</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V45" s="2">
-        <v>43.692996999999998</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC45" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>477</v>
       </c>
@@ -3700,52 +3677,31 @@
         <v>425</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>485</v>
+        <v>5</v>
       </c>
       <c r="N46" s="2">
-        <v>8</v>
-      </c>
-      <c r="O46" s="2">
-        <v>2</v>
-      </c>
-      <c r="P46" s="2">
-        <v>-180</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>180</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V46" s="2">
-        <v>4.2784149999999999</v>
+        <v>3</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC46" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>477</v>
       </c>
@@ -3753,73 +3709,75 @@
         <v>425</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>343</v>
+        <v>22</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>347</v>
+        <v>23</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O47" s="2">
-        <v>3</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC47" s="7"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>601</v>
+        <v>425</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>160</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L48" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="N48" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O48" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB48" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>477</v>
       </c>
@@ -3827,31 +3785,34 @@
         <v>425</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>351</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N49" s="2">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="O49" s="2">
+        <v>3</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>477</v>
       </c>
@@ -3859,37 +3820,37 @@
         <v>425</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="K50" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="N50" s="2">
+        <v>7</v>
+      </c>
+      <c r="O50" s="2">
         <v>3</v>
       </c>
-      <c r="O50" s="2">
-        <v>1</v>
+      <c r="W50" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>477</v>
       </c>
@@ -3897,37 +3858,52 @@
         <v>425</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>162</v>
+        <v>485</v>
       </c>
       <c r="N51" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O51" s="2">
         <v>2</v>
       </c>
-      <c r="X51" s="7" t="s">
-        <v>25</v>
+      <c r="P51" s="2">
+        <v>-90</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>90</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V51" s="2">
+        <v>43.692996999999998</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="145" hidden="1" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+      <c r="AC51" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>477</v>
       </c>
@@ -3935,37 +3911,52 @@
         <v>425</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>349</v>
+        <v>485</v>
       </c>
       <c r="N52" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O52" s="2">
-        <v>3</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="X52" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="P52" s="2">
+        <v>-180</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>180</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V52" s="2">
+        <v>4.2784149999999999</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>477</v>
       </c>
@@ -3973,37 +3964,35 @@
         <v>425</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>343</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="N53" s="2">
         <v>10</v>
       </c>
       <c r="O53" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC53" s="7"/>
+    </row>
+    <row r="54" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>477</v>
       </c>
@@ -4011,28 +4000,37 @@
         <v>425</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>430</v>
+        <v>454</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L54" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="N54" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O54" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z54" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>477</v>
       </c>
@@ -4040,37 +4038,37 @@
         <v>425</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>37</v>
+        <v>189</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>5</v>
+        <v>485</v>
       </c>
       <c r="N55" s="2">
         <v>13</v>
       </c>
       <c r="O55" s="2">
-        <v>1</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>482</v>
+        <v>3</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>477</v>
       </c>
@@ -4078,16 +4076,19 @@
         <v>425</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>431</v>
+        <v>452</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>5</v>
@@ -4095,14 +4096,14 @@
       <c r="N56" s="2">
         <v>14</v>
       </c>
-      <c r="O56" s="2">
-        <v>1</v>
+      <c r="S56" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>477</v>
       </c>
@@ -4110,37 +4111,28 @@
         <v>425</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>283</v>
+        <v>480</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>485</v>
+        <v>5</v>
       </c>
       <c r="N57" s="2">
         <v>15</v>
       </c>
-      <c r="O57" s="2">
-        <v>2</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
       <c r="Z57" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>477</v>
       </c>
@@ -4148,19 +4140,19 @@
         <v>425</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>485</v>
@@ -4178,7 +4170,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>477</v>
       </c>
@@ -4186,34 +4178,37 @@
         <v>425</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>432</v>
+        <v>456</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>194</v>
+        <v>485</v>
       </c>
       <c r="N59" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O59" s="2">
         <v>2</v>
       </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
       <c r="Z59" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>477</v>
       </c>
@@ -4221,34 +4216,31 @@
         <v>425</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>57</v>
+        <v>191</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="N60" s="2">
-        <v>19</v>
-      </c>
-      <c r="O60" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>477</v>
       </c>
@@ -4256,37 +4248,34 @@
         <v>425</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="N61" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O61" s="2">
         <v>2</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>477</v>
       </c>
@@ -4294,34 +4283,34 @@
         <v>425</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>285</v>
+        <v>61</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>485</v>
+        <v>5</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="N62" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O62" s="2">
-        <v>3</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>477</v>
       </c>
@@ -4329,41 +4318,37 @@
         <v>425</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>485</v>
+        <v>5</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" s="2">
+        <v>21</v>
       </c>
       <c r="O63" s="2">
-        <v>3</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>70</v>
-      </c>
-      <c r="W63" s="3"/>
-      <c r="X63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC63" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>477</v>
       </c>
@@ -4389,7 +4374,7 @@
         <v>64</v>
       </c>
       <c r="N64" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O64" s="2">
         <v>2</v>
@@ -4398,7 +4383,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>477</v>
       </c>
@@ -4424,7 +4409,7 @@
         <v>246</v>
       </c>
       <c r="N65" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O65" s="2">
         <v>2</v>
@@ -4433,7 +4418,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>477</v>
       </c>
@@ -4456,7 +4441,7 @@
         <v>485</v>
       </c>
       <c r="N66" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O66" s="2">
         <v>2</v>
@@ -4465,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>477</v>
       </c>
@@ -4473,25 +4458,25 @@
         <v>425</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>485</v>
       </c>
       <c r="N67" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="O67" s="2">
         <v>3</v>
@@ -4499,11 +4484,8 @@
       <c r="P67" s="2">
         <v>0</v>
       </c>
-      <c r="Z67" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>477</v>
       </c>
@@ -4511,34 +4493,40 @@
         <v>425</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>274</v>
+        <v>442</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>485</v>
       </c>
       <c r="N68" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O68" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>360</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>477</v>
       </c>
@@ -4546,75 +4534,82 @@
         <v>425</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>353</v>
+        <v>441</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>5</v>
+        <v>485</v>
       </c>
       <c r="N69" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="O69" s="2">
         <v>3</v>
       </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>70</v>
+      </c>
+      <c r="W69" s="3"/>
       <c r="X69" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z69" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="AC69" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>425</v>
+        <v>601</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G70" s="2">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>485</v>
+        <v>5</v>
       </c>
       <c r="N70" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O70" s="2">
-        <v>2</v>
-      </c>
-      <c r="P70" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+      <c r="AB70" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>477</v>
       </c>
@@ -4628,13 +4623,13 @@
         <v>548</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>417</v>
+        <v>602</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>477</v>
       </c>
@@ -4663,7 +4658,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>477</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>477</v>
       </c>
@@ -4718,7 +4713,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>477</v>
       </c>
@@ -4744,7 +4739,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>477</v>
       </c>
@@ -4770,7 +4765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>477</v>
       </c>
@@ -4799,7 +4794,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>477</v>
       </c>
@@ -4828,7 +4823,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>477</v>
       </c>
@@ -4857,7 +4852,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>478</v>
       </c>
@@ -4889,7 +4884,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>478</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>477</v>
       </c>
@@ -4950,7 +4945,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>477</v>
       </c>
@@ -4973,7 +4968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>477</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>477</v>
       </c>
@@ -5046,7 +5041,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>477</v>
       </c>
@@ -5078,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>478</v>
       </c>
@@ -5107,7 +5102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>478</v>
       </c>
@@ -5136,7 +5131,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>478</v>
       </c>
@@ -5165,7 +5160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>478</v>
       </c>
@@ -5194,7 +5189,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>478</v>
       </c>
@@ -5220,7 +5215,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>478</v>
       </c>
@@ -5246,7 +5241,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="93" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>477</v>
       </c>
@@ -5269,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>477</v>
       </c>
@@ -5305,7 +5300,7 @@
       </c>
       <c r="AB94" s="7"/>
     </row>
-    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>477</v>
       </c>
@@ -5337,7 +5332,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>477</v>
       </c>
@@ -5375,7 +5370,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>477</v>
       </c>
@@ -5413,7 +5408,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>477</v>
       </c>
@@ -5445,7 +5440,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>477</v>
       </c>
@@ -5480,7 +5475,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>477</v>
       </c>
@@ -5515,7 +5510,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>477</v>
       </c>
@@ -5529,13 +5524,13 @@
         <v>548</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>417</v>
+        <v>602</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>477</v>
       </c>
@@ -5564,7 +5559,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>477</v>
       </c>
@@ -5593,7 +5588,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>477</v>
       </c>
@@ -5631,7 +5626,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>477</v>
       </c>
@@ -5666,7 +5661,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>477</v>
       </c>
@@ -5695,7 +5690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>477</v>
       </c>
@@ -5724,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>477</v>
       </c>
@@ -5756,7 +5751,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>477</v>
       </c>
@@ -5779,7 +5774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>478</v>
       </c>
@@ -5805,7 +5800,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>478</v>
       </c>
@@ -5834,7 +5829,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>478</v>
       </c>
@@ -5863,7 +5858,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>478</v>
       </c>
@@ -5889,7 +5884,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>478</v>
       </c>
@@ -5918,7 +5913,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>478</v>
       </c>
@@ -5944,7 +5939,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>478</v>
       </c>
@@ -5973,7 +5968,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>478</v>
       </c>
@@ -6002,7 +5997,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>478</v>
       </c>
@@ -6028,7 +6023,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>478</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>477</v>
       </c>
@@ -6080,7 +6075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>477</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>477</v>
       </c>
@@ -6132,7 +6127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>477</v>
       </c>
@@ -6158,7 +6153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>477</v>
       </c>
@@ -6181,7 +6176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>477</v>
       </c>
@@ -6201,7 +6196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>477</v>
       </c>
@@ -6224,7 +6219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>477</v>
       </c>
@@ -6253,7 +6248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>477</v>
       </c>
@@ -6283,26 +6278,26 @@
   <autoFilter ref="B1:AC128" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="field, measure"/>
-        <filter val="measure"/>
+        <filter val="soil"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC119">
-    <sortCondition ref="B2:B119"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:AC70">
+    <sortCondition ref="B2:B128"/>
+    <sortCondition ref="N2:N128"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X50" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
-    <hyperlink ref="AB48" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
-    <hyperlink ref="AC46" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
-    <hyperlink ref="AC63" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
+    <hyperlink ref="X47" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
+    <hyperlink ref="AB70" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
+    <hyperlink ref="AC52" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
+    <hyperlink ref="AC69" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
     <hyperlink ref="AC36" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
-    <hyperlink ref="X51" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
-    <hyperlink ref="X52" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
+    <hyperlink ref="X48" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
+    <hyperlink ref="X50" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
     <hyperlink ref="G44" r:id="rId8" xr:uid="{DD46286A-0E32-40A3-82D8-D66374710F42}"/>
     <hyperlink ref="G32" r:id="rId9" xr:uid="{AFFF90C1-D45E-4017-BB95-DA50C258BAFA}"/>
-    <hyperlink ref="S55" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
+    <hyperlink ref="S56" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
     <hyperlink ref="X79" r:id="rId11" xr:uid="{737122E9-D843-4053-80E4-C1B5D81D3D01}"/>
     <hyperlink ref="G13" r:id="rId12" xr:uid="{C906AFA1-6140-45E8-88C7-755C40AF913C}"/>
     <hyperlink ref="X13" r:id="rId13" xr:uid="{8F09AA18-95A4-4921-8013-22C81C4D5414}"/>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20FEF2C-B88B-4AA0-88E8-83F23A88CB93}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B97445D4-E882-4FDB-8D0C-8F842C9D3917}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1483,9 +1483,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>Nombre de répétitions par traitement expérimental (combinaison de facteurs appliqués)</t>
-  </si>
-  <si>
     <t>Nom de la variété (et clone si connu) du porte-greffe. Utiliser la liste disposnible sur https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
   </si>
   <si>
@@ -1714,9 +1711,6 @@
     <t>treatment_name</t>
   </si>
   <si>
-    <t>Nom ou code du traitement</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -1726,12 +1720,6 @@
     <t>Commentaires</t>
   </si>
   <si>
-    <t>Commentaires sur le traitement</t>
-  </si>
-  <si>
-    <t>Liste des niveaux de facteurs du traitement (séparés par ";")</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -1853,6 +1841,18 @@
   </si>
   <si>
     <t>Nom de la parcelle expérimentale</t>
+  </si>
+  <si>
+    <t>Nombre de répétitions pour le traitement expérimental</t>
+  </si>
+  <si>
+    <t>Combinaison des niveaux de facteurs appliqués (séparés par ";").</t>
+  </si>
+  <si>
+    <t>Nom ou code du traitement expérimental</t>
+  </si>
+  <si>
+    <t>Commentaires sur le traitement expérimental</t>
   </si>
 </sst>
 </file>
@@ -2310,8 +2310,8 @@
   <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2329,37 +2329,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>388</v>
@@ -2374,19 +2374,19 @@
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>63</v>
@@ -2418,13 +2418,13 @@
         <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>165</v>
@@ -2444,22 +2444,22 @@
         <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -2473,16 +2473,16 @@
         <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -2539,16 +2539,16 @@
         <v>468</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>471</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -2568,16 +2568,16 @@
         <v>468</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -2597,25 +2597,25 @@
         <v>468</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="N9" s="2">
         <v>3</v>
@@ -2629,16 +2629,16 @@
         <v>468</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>5</v>
@@ -2655,16 +2655,16 @@
         <v>468</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
@@ -2681,19 +2681,19 @@
         <v>468</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>5</v>
@@ -2713,16 +2713,16 @@
         <v>468</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -2731,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2742,25 +2742,25 @@
         <v>468</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N14" s="2">
         <v>9</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2771,10 +2771,10 @@
         <v>468</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>391</v>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>477</v>
       </c>
@@ -2808,11 +2808,14 @@
       <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
       <c r="O16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>477</v>
       </c>
@@ -2837,16 +2840,19 @@
       <c r="K17" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
       <c r="O17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>555</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>401</v>
@@ -2858,7 +2864,7 @@
         <v>329</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>479</v>
+        <v>599</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>286</v>
@@ -2866,8 +2872,11 @@
       <c r="H18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>477</v>
       </c>
@@ -2889,8 +2898,11 @@
       <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>477</v>
       </c>
@@ -2912,8 +2924,11 @@
       <c r="H20" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>477</v>
       </c>
@@ -2935,6 +2950,9 @@
       <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2944,13 +2962,13 @@
         <v>247</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>5</v>
@@ -3037,7 +3055,7 @@
         <v>295</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N25" s="2">
         <v>6</v>
@@ -3199,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>9</v>
@@ -3236,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="2" t="s">
@@ -3511,16 +3529,16 @@
         <v>326</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>397</v>
@@ -3529,7 +3547,7 @@
         <v>5</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N41" s="2">
         <v>3</v>
@@ -3552,13 +3570,13 @@
         <v>326</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>327</v>
@@ -3587,16 +3605,16 @@
         <v>326</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>5</v>
@@ -3873,7 +3891,7 @@
         <v>279</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N51" s="2">
         <v>8</v>
@@ -3926,7 +3944,7 @@
         <v>280</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N52" s="2">
         <v>9</v>
@@ -4053,7 +4071,7 @@
         <v>273</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N55" s="2">
         <v>13</v>
@@ -4085,7 +4103,7 @@
         <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>37</v>
@@ -4097,7 +4115,7 @@
         <v>14</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>298</v>
@@ -4117,7 +4135,7 @@
         <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>39</v>
@@ -4155,7 +4173,7 @@
         <v>283</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N58" s="2">
         <v>16</v>
@@ -4193,7 +4211,7 @@
         <v>284</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N59" s="2">
         <v>17</v>
@@ -4231,7 +4249,7 @@
         <v>274</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N60" s="2">
         <v>18</v>
@@ -4298,7 +4316,7 @@
         <v>5</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N62" s="2">
         <v>20</v>
@@ -4438,7 +4456,7 @@
         <v>272</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N66" s="2">
         <v>24</v>
@@ -4473,7 +4491,7 @@
         <v>285</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N67" s="2">
         <v>25</v>
@@ -4508,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N68" s="2">
         <v>26</v>
@@ -4549,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N69" s="2">
         <v>27</v>
@@ -4576,7 +4594,7 @@
         <v>477</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>423</v>
@@ -4617,13 +4635,13 @@
         <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>5</v>
@@ -4707,7 +4725,7 @@
         <v>289</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z74" s="2" t="s">
         <v>245</v>
@@ -4736,7 +4754,7 @@
         <v>290</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4831,16 +4849,16 @@
         <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>5</v>
@@ -4849,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="X79" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,7 +4951,7 @@
         <v>307</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>5</v>
@@ -5249,13 +5267,13 @@
         <v>166</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>5</v>
@@ -5510,7 +5528,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>477</v>
       </c>
@@ -5518,19 +5536,19 @@
         <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>477</v>
       </c>
@@ -5559,7 +5577,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>477</v>
       </c>
@@ -5579,7 +5597,7 @@
         <v>275</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O103" s="2">
         <v>2</v>
@@ -5588,7 +5606,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>477</v>
       </c>
@@ -5626,7 +5644,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>477</v>
       </c>
@@ -5661,7 +5679,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>477</v>
       </c>
@@ -5684,13 +5702,13 @@
         <v>276</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O106" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>477</v>
       </c>
@@ -5713,13 +5731,13 @@
         <v>277</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O107" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>477</v>
       </c>
@@ -5739,7 +5757,7 @@
         <v>278</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O108" s="2">
         <v>2</v>
@@ -5751,7 +5769,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>477</v>
       </c>
@@ -5959,7 +5977,7 @@
         <v>293</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P116" s="2">
         <v>0</v>
@@ -6049,38 +6067,41 @@
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>402</v>
@@ -6092,39 +6113,45 @@
         <v>328</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N121" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="N122" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6135,16 +6162,16 @@
         <v>468</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>5</v>
@@ -6158,19 +6185,19 @@
         <v>477</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>5</v>
@@ -6181,16 +6208,16 @@
         <v>477</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>5</v>
@@ -6201,16 +6228,16 @@
         <v>477</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>288</v>
@@ -6224,22 +6251,22 @@
         <v>477</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>5</v>
@@ -6253,22 +6280,22 @@
         <v>477</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>5</v>
@@ -6278,7 +6305,8 @@
   <autoFilter ref="B1:AC128" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="soil"/>
+        <filter val="design"/>
+        <filter val="treatment"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B97445D4-E882-4FDB-8D0C-8F842C9D3917}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BAA98FE-42AD-4838-9FD6-54FF2A97096B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -2310,7 +2310,7 @@
   <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>477</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>477</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>477</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>477</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>477</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>477</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>477</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>477</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>477</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>477</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>477</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>477</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>477</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>477</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>477</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>477</v>
       </c>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AC53" s="7"/>
     </row>
-    <row r="54" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>477</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>477</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>477</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>477</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>477</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>477</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>477</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>477</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>477</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>477</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>477</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>477</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>477</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>477</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>477</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>477</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>477</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>477</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>477</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>477</v>
       </c>
@@ -6305,8 +6305,8 @@
   <autoFilter ref="B1:AC128" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="design"/>
-        <filter val="treatment"/>
+        <filter val="field"/>
+        <filter val="field,measure"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BAA98FE-42AD-4838-9FD6-54FF2A97096B}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4EA7765-77CD-4505-9B1C-58B3EA771DAB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="608">
   <si>
     <t>experimentation</t>
   </si>
@@ -1853,6 +1853,21 @@
   </si>
   <si>
     <t>Commentaires sur le traitement expérimental</t>
+  </si>
+  <si>
+    <t>data_granularity</t>
+  </si>
+  <si>
+    <t>Granularité des données</t>
+  </si>
+  <si>
+    <t>Granularité de la données dans les fichiers</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>organe,cep,unité d'observation,parcelle,exploitation,région</t>
   </si>
 </sst>
 </file>
@@ -1922,6 +1937,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2307,11 +2323,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2491,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>478</v>
       </c>
@@ -2511,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>478</v>
       </c>
@@ -2531,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>477</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>477</v>
       </c>
@@ -2589,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>477</v>
       </c>
@@ -2621,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>477</v>
       </c>
@@ -2647,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>477</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>477</v>
       </c>
@@ -2681,31 +2697,28 @@
         <v>468</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>521</v>
+        <v>604</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
+      <c r="K12" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="N12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>477</v>
       </c>
@@ -2713,28 +2726,31 @@
         <v>468</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>565</v>
+        <v>515</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
       <c r="N13" s="2">
-        <v>7</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>477</v>
       </c>
@@ -2742,77 +2758,74 @@
         <v>468</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="N14" s="2">
-        <v>9</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>468</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="N15" s="2">
+        <v>10</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,25 +2836,25 @@
         <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="N17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>1</v>
@@ -2852,28 +2865,31 @@
         <v>477</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>555</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>401</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>286</v>
+        <v>136</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="N18" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,19 +2897,22 @@
         <v>477</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>555</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>146</v>
+        <v>401</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>137</v>
+        <v>599</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>32</v>
@@ -2910,22 +2929,22 @@
         <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2936,22 +2955,22 @@
         <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,22 +2978,25 @@
         <v>477</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>549</v>
+        <v>148</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>547</v>
+        <v>134</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>598</v>
+        <v>138</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,25 +3007,19 @@
         <v>247</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>248</v>
+        <v>549</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>249</v>
+        <v>547</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>255</v>
+        <v>598</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>259</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,22 +3030,22 @@
         <v>247</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="2" t="s">
         <v>259</v>
@@ -3043,28 +3059,25 @@
         <v>247</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>295</v>
+        <v>253</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="N25" s="2">
-        <v>6</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,25 +3088,28 @@
         <v>247</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>266</v>
+        <v>484</v>
       </c>
       <c r="N26" s="2">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3104,22 +3120,25 @@
         <v>247</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L27" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="N27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,45 +3149,48 @@
         <v>247</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>375</v>
+        <v>341</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,16 +3201,16 @@
         <v>371</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>5</v>
@@ -3202,25 +3224,19 @@
         <v>371</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>382</v>
+        <v>378</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,46 +3247,48 @@
         <v>371</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>474</v>
+        <v>380</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>418</v>
+        <v>381</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>382</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>571</v>
+        <v>474</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G33" s="7"/>
+        <v>475</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>418</v>
+      </c>
       <c r="H33" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3281,31 +3299,23 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>398</v>
+        <v>573</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>398</v>
+        <v>573</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N34" s="2">
-        <v>2</v>
-      </c>
-      <c r="O34" s="2">
         <v>1</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3316,38 +3326,32 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>398</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" s="2">
         <v>1</v>
       </c>
-      <c r="S35" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="Z35" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AC35" s="6" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="36" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -3357,16 +3361,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>5</v>
@@ -3375,10 +3379,10 @@
         <v>8</v>
       </c>
       <c r="N36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O36" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>9</v>
@@ -3386,8 +3390,8 @@
       <c r="Z36" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AC36" s="7" t="s">
-        <v>156</v>
+      <c r="AC36" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,31 +3402,37 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>399</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J37" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="N37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,28 +3443,31 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N38" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,22 +3478,25 @@
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>400</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N39" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>296</v>
@@ -3494,31 +3510,25 @@
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>414</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N40" s="2">
-        <v>8</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,40 +3536,34 @@
         <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>592</v>
+        <v>414</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>592</v>
+        <v>414</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>397</v>
+        <v>69</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="N41" s="2">
-        <v>3</v>
-      </c>
-      <c r="O41" s="2">
-        <v>2</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>325</v>
+        <v>8</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3570,28 +3574,34 @@
         <v>326</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>510</v>
+        <v>592</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>506</v>
+        <v>236</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>327</v>
+        <v>397</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="K42" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="N42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z42" s="2" t="s">
         <v>323</v>
@@ -3605,60 +3615,63 @@
         <v>326</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>593</v>
+        <v>327</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T43" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>420</v>
+        <v>509</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>418</v>
+        <v>511</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N44" s="2">
+        <v>2</v>
+      </c>
+      <c r="O44" s="2">
         <v>1</v>
       </c>
-      <c r="O44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>477</v>
       </c>
@@ -3666,28 +3679,31 @@
         <v>425</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>33</v>
+        <v>416</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>35</v>
+        <v>417</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N45" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O45" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>477</v>
       </c>
@@ -3695,31 +3711,28 @@
         <v>425</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N46" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>477</v>
       </c>
@@ -3727,37 +3740,31 @@
         <v>425</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="2">
-        <v>4</v>
-      </c>
-      <c r="O47" s="2">
-        <v>1</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>477</v>
       </c>
@@ -3765,37 +3772,37 @@
         <v>425</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>281</v>
+        <v>23</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="N48" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X48" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>477</v>
       </c>
@@ -3803,34 +3810,37 @@
         <v>425</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L49" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="N49" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O49" s="2">
-        <v>3</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>352</v>
+        <v>2</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>477</v>
       </c>
@@ -3838,37 +3848,34 @@
         <v>425</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>351</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="N50" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O50" s="2">
         <v>3</v>
       </c>
-      <c r="W50" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="X50" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>477</v>
       </c>
@@ -3876,52 +3883,37 @@
         <v>425</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>279</v>
+        <v>28</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="N51" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O51" s="2">
-        <v>2</v>
-      </c>
-      <c r="P51" s="2">
-        <v>-90</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>90</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V51" s="2">
-        <v>43.692996999999998</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC51" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>477</v>
       </c>
@@ -3929,52 +3921,52 @@
         <v>425</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>484</v>
       </c>
       <c r="N52" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O52" s="2">
         <v>2</v>
       </c>
       <c r="P52" s="2">
-        <v>-180</v>
+        <v>-90</v>
       </c>
       <c r="Q52" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V52" s="2">
-        <v>4.2784149999999999</v>
+        <v>43.692996999999998</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AC52" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC52" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>477</v>
       </c>
@@ -3982,35 +3974,52 @@
         <v>425</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>343</v>
+        <v>86</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>5</v>
+        <v>484</v>
       </c>
       <c r="N53" s="2">
+        <v>9</v>
+      </c>
+      <c r="O53" s="2">
+        <v>2</v>
+      </c>
+      <c r="P53" s="2">
+        <v>-180</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>180</v>
+      </c>
+      <c r="S53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O53" s="2">
-        <v>3</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="T53" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC53" s="7"/>
-    </row>
-    <row r="54" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="V53" s="2">
+        <v>4.2784149999999999</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>477</v>
       </c>
@@ -4018,37 +4027,35 @@
         <v>425</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>343</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="N54" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O54" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC54" s="7"/>
+    </row>
+    <row r="55" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>477</v>
       </c>
@@ -4056,37 +4063,37 @@
         <v>425</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="N55" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O55" s="2">
-        <v>3</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>477</v>
       </c>
@@ -4094,34 +4101,37 @@
         <v>425</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>37</v>
+        <v>189</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>5</v>
+        <v>484</v>
       </c>
       <c r="N56" s="2">
-        <v>14</v>
-      </c>
-      <c r="S56" s="7" t="s">
-        <v>481</v>
+        <v>13</v>
+      </c>
+      <c r="O56" s="2">
+        <v>3</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>477</v>
       </c>
@@ -4129,28 +4139,34 @@
         <v>425</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>431</v>
+        <v>452</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="2">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>477</v>
       </c>
@@ -4158,37 +4174,28 @@
         <v>425</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>283</v>
+        <v>479</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="N58" s="2">
-        <v>16</v>
-      </c>
-      <c r="O58" s="2">
-        <v>2</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>477</v>
       </c>
@@ -4196,25 +4203,25 @@
         <v>425</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>484</v>
       </c>
       <c r="N59" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O59" s="2">
         <v>2</v>
@@ -4226,7 +4233,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>477</v>
       </c>
@@ -4234,31 +4241,37 @@
         <v>425</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>484</v>
       </c>
       <c r="N60" s="2">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="O60" s="2">
+        <v>2</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>477</v>
       </c>
@@ -4266,34 +4279,31 @@
         <v>425</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>56</v>
+        <v>191</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>194</v>
+        <v>484</v>
       </c>
       <c r="N61" s="2">
-        <v>19</v>
-      </c>
-      <c r="O61" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>477</v>
       </c>
@@ -4301,34 +4311,34 @@
         <v>425</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>505</v>
+        <v>194</v>
       </c>
       <c r="N62" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O62" s="2">
         <v>2</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>477</v>
       </c>
@@ -4336,37 +4346,34 @@
         <v>425</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>15</v>
+        <v>505</v>
       </c>
       <c r="N63" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O63" s="2">
         <v>2</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>477</v>
       </c>
@@ -4374,34 +4381,37 @@
         <v>425</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N64" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O64" s="2">
         <v>2</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>477</v>
       </c>
@@ -4409,34 +4419,34 @@
         <v>425</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="N65" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O65" s="2">
         <v>2</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>477</v>
       </c>
@@ -4444,31 +4454,34 @@
         <v>425</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>272</v>
+        <v>45</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="N66" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O66" s="2">
         <v>2</v>
       </c>
-      <c r="P66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z66" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>477</v>
       </c>
@@ -4476,34 +4489,31 @@
         <v>425</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>484</v>
       </c>
       <c r="N67" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P67" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>477</v>
       </c>
@@ -4511,40 +4521,34 @@
         <v>425</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G68" s="2">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>484</v>
       </c>
       <c r="N68" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P68" s="2">
         <v>0</v>
       </c>
-      <c r="Q68" s="2">
-        <v>360</v>
-      </c>
-      <c r="Z68" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>477</v>
       </c>
@@ -4552,99 +4556,120 @@
         <v>425</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G69" s="11">
+        <v>442</v>
+      </c>
+      <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>484</v>
       </c>
       <c r="N69" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O69" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P69" s="2">
         <v>0</v>
       </c>
       <c r="Q69" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="N70" s="2">
+        <v>27</v>
+      </c>
+      <c r="O70" s="2">
+        <v>3</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
         <v>70</v>
       </c>
-      <c r="W69" s="3"/>
-      <c r="X69" s="2" t="s">
+      <c r="W70" s="3"/>
+      <c r="X70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC69" s="7" t="s">
+      <c r="AC70" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B70" s="2" t="s">
+    <row r="71" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N70" s="2">
+      <c r="H71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="2">
         <v>2</v>
       </c>
-      <c r="O70" s="2">
+      <c r="O71" s="2">
         <v>1</v>
       </c>
-      <c r="Z70" s="2" t="s">
+      <c r="Z71" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AB70" s="7" t="s">
+      <c r="AB71" s="7" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4655,25 +4680,16 @@
         <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>354</v>
+        <v>546</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>359</v>
+        <v>547</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>288</v>
+        <v>598</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z72" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4684,16 +4700,16 @@
         <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>5</v>
@@ -4701,6 +4717,9 @@
       <c r="L73" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="Z73" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="74" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -4710,25 +4729,22 @@
         <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>464</v>
+        <v>355</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z74" s="2" t="s">
-        <v>245</v>
+        <v>5</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4739,23 +4755,26 @@
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>484</v>
       </c>
+      <c r="Z75" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="76" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -4765,22 +4784,22 @@
         <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>103</v>
+        <v>465</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>107</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4791,25 +4810,22 @@
         <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z77" s="2" t="s">
-        <v>301</v>
+      <c r="K77" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4820,25 +4836,25 @@
         <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>466</v>
+        <v>104</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>198</v>
+      <c r="Z78" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,57 +4865,54 @@
         <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>489</v>
+        <v>466</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>490</v>
+        <v>195</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>491</v>
+        <v>196</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>492</v>
+        <v>197</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O79" s="2">
-        <v>2</v>
-      </c>
-      <c r="X79" s="7" t="s">
-        <v>493</v>
+      <c r="K79" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>490</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="O80" s="2">
         <v>2</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>245</v>
+      <c r="X80" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4910,22 +4923,22 @@
         <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O81" s="2">
         <v>2</v>
@@ -4936,31 +4949,34 @@
     </row>
     <row r="82" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="O82" s="2">
         <v>2</v>
       </c>
       <c r="Z82" s="2" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,19 +4987,25 @@
         <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>366</v>
+        <v>494</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="O83" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4991,34 +5013,22 @@
         <v>477</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>404</v>
+        <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>393</v>
+        <v>367</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N84" s="2">
-        <v>6</v>
-      </c>
-      <c r="O84" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5029,34 +5039,31 @@
         <v>404</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="N85" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5067,57 +5074,66 @@
         <v>404</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>409</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>415</v>
+      <c r="J86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N86" s="2">
+        <v>7</v>
       </c>
       <c r="O86" s="2">
         <v>2</v>
       </c>
+      <c r="Z86" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="87" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>240</v>
+        <v>412</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z87" s="2" t="s">
-        <v>300</v>
+      <c r="K87" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O87" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5128,22 +5144,22 @@
         <v>443</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>290</v>
+        <v>331</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P88" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z88" s="2" t="s">
         <v>300</v>
@@ -5157,16 +5173,16 @@
         <v>443</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>32</v>
@@ -5186,16 +5202,16 @@
         <v>443</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>32</v>
@@ -5215,22 +5231,25 @@
         <v>443</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>232</v>
+        <v>334</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>233</v>
+        <v>335</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
       </c>
       <c r="Z91" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5241,16 +5260,16 @@
         <v>443</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>5</v>
@@ -5261,25 +5280,28 @@
     </row>
     <row r="93" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>568</v>
+        <v>448</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>569</v>
+        <v>234</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>570</v>
+        <v>338</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N93" s="2">
-        <v>1</v>
+      <c r="Z93" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5290,33 +5312,20 @@
         <v>166</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>318</v>
+        <v>568</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>319</v>
+        <v>569</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>175</v>
+        <v>570</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N94" s="2">
-        <v>2</v>
-      </c>
-      <c r="O94" s="2">
         <v>1</v>
       </c>
-      <c r="Z94" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA94" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB94" s="7"/>
     </row>
     <row r="95" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -5326,29 +5335,33 @@
         <v>166</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N95" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O95" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z95" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB95" s="7"/>
     </row>
     <row r="96" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -5358,34 +5371,28 @@
         <v>166</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N96" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O96" s="2">
-        <v>1</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z96" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5396,16 +5403,16 @@
         <v>166</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>5</v>
@@ -5414,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="N97" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>9</v>
@@ -5434,28 +5441,34 @@
         <v>166</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J98" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="N98" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O98" s="2">
         <v>2</v>
       </c>
+      <c r="S98" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Z98" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5466,31 +5479,28 @@
         <v>166</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N99" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z99" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA99" s="2" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5501,31 +5511,31 @@
         <v>166</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>403</v>
+        <v>187</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N100" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z100" s="2" t="s">
-        <v>296</v>
+        <v>317</v>
+      </c>
+      <c r="AA100" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5533,19 +5543,34 @@
         <v>477</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>548</v>
+        <v>403</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>598</v>
+        <v>174</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="N101" s="2">
+        <v>9</v>
+      </c>
+      <c r="O101" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z101" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5556,25 +5581,16 @@
         <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>547</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>123</v>
+        <v>598</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="O102" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z102" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5585,25 +5601,25 @@
         <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>275</v>
+        <v>115</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="O103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z103" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,32 +5630,23 @@
         <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>459</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>124</v>
+        <v>193</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>126</v>
+        <v>484</v>
       </c>
       <c r="O104" s="2">
         <v>2</v>
       </c>
-      <c r="X104" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="Z104" s="2" t="s">
         <v>304</v>
       </c>
@@ -5652,31 +5659,34 @@
         <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>120</v>
+        <v>459</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O105" s="2">
         <v>2</v>
       </c>
-      <c r="W105" s="3" t="s">
-        <v>395</v>
+      <c r="X105" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="Z105" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5687,26 +5697,32 @@
         <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>461</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>276</v>
+        <v>116</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="O106" s="2">
         <v>2</v>
       </c>
+      <c r="W106" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="107" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -5716,19 +5732,19 @@
         <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>117</v>
+        <v>460</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>484</v>
@@ -5745,16 +5761,19 @@
         <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>241</v>
+        <v>462</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>484</v>
@@ -5762,12 +5781,6 @@
       <c r="O108" s="2">
         <v>2</v>
       </c>
-      <c r="P108" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="2" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="109" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -5777,45 +5790,51 @@
         <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>368</v>
+        <v>241</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>365</v>
+        <v>242</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>370</v>
+        <v>316</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>5</v>
+        <v>484</v>
+      </c>
+      <c r="O109" s="2">
+        <v>2</v>
+      </c>
+      <c r="P109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>200</v>
+        <v>368</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="Z110" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5826,22 +5845,19 @@
         <v>199</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="Z111" s="2" t="s">
         <v>301</v>
@@ -5855,22 +5871,22 @@
         <v>199</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="Z112" s="2" t="s">
         <v>301</v>
@@ -5884,19 +5900,22 @@
         <v>199</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>5</v>
+        <v>163</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="Z113" s="2" t="s">
         <v>301</v>
@@ -5910,22 +5929,19 @@
         <v>199</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Z114" s="2" t="s">
         <v>301</v>
@@ -5939,19 +5955,22 @@
         <v>199</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Z115" s="2" t="s">
         <v>301</v>
@@ -5965,22 +5984,19 @@
         <v>199</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>293</v>
+        <v>223</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="P116" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z116" s="2" t="s">
         <v>301</v>
@@ -5994,19 +6010,19 @@
         <v>199</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>32</v>
+        <v>484</v>
       </c>
       <c r="P117" s="2">
         <v>0</v>
@@ -6023,19 +6039,22 @@
         <v>199</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="P118" s="2">
+        <v>0</v>
       </c>
       <c r="Z118" s="2" t="s">
         <v>301</v>
@@ -6049,16 +6068,16 @@
         <v>199</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>235</v>
+        <v>311</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>5</v>
@@ -6069,31 +6088,28 @@
     </row>
     <row r="120" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>555</v>
+        <v>199</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>554</v>
+        <v>313</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>601</v>
+        <v>314</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>594</v>
+        <v>235</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N120" s="2">
-        <v>1</v>
+      <c r="Z120" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,25 +6120,25 @@
         <v>555</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>402</v>
+        <v>554</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>402</v>
+        <v>554</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6133,25 +6149,25 @@
         <v>555</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>556</v>
+        <v>402</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>556</v>
+        <v>402</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>557</v>
+        <v>328</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N122" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6159,48 +6175,54 @@
         <v>477</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N123" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N123" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="H124" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="N124" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,14 +6232,17 @@
       <c r="B125" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>577</v>
+      <c r="C125" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>554</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>5</v>
@@ -6228,19 +6253,16 @@
         <v>477</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>578</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>288</v>
+        <v>579</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>5</v>
@@ -6251,28 +6273,22 @@
         <v>477</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>583</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>585</v>
+        <v>288</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6283,52 +6299,81 @@
         <v>574</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AC128" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
+  <autoFilter ref="B1:AC129" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="field"/>
+        <filter val="data_dictionnary"/>
         <filter val="field,measure"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:AC70">
-    <sortCondition ref="B2:B128"/>
-    <sortCondition ref="N2:N128"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:AC71">
+    <sortCondition ref="B2:B129"/>
+    <sortCondition ref="N2:N129"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X47" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
-    <hyperlink ref="AB70" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
-    <hyperlink ref="AC52" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
-    <hyperlink ref="AC69" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
-    <hyperlink ref="AC36" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
-    <hyperlink ref="X48" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
-    <hyperlink ref="X50" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
-    <hyperlink ref="G44" r:id="rId8" xr:uid="{DD46286A-0E32-40A3-82D8-D66374710F42}"/>
-    <hyperlink ref="G32" r:id="rId9" xr:uid="{AFFF90C1-D45E-4017-BB95-DA50C258BAFA}"/>
-    <hyperlink ref="S56" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
-    <hyperlink ref="X79" r:id="rId11" xr:uid="{737122E9-D843-4053-80E4-C1B5D81D3D01}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{C906AFA1-6140-45E8-88C7-755C40AF913C}"/>
-    <hyperlink ref="X13" r:id="rId13" xr:uid="{8F09AA18-95A4-4921-8013-22C81C4D5414}"/>
+    <hyperlink ref="X48" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
+    <hyperlink ref="AB71" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
+    <hyperlink ref="AC53" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
+    <hyperlink ref="AC70" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
+    <hyperlink ref="AC37" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
+    <hyperlink ref="X49" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
+    <hyperlink ref="X51" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
+    <hyperlink ref="G45" r:id="rId8" xr:uid="{DD46286A-0E32-40A3-82D8-D66374710F42}"/>
+    <hyperlink ref="G33" r:id="rId9" xr:uid="{AFFF90C1-D45E-4017-BB95-DA50C258BAFA}"/>
+    <hyperlink ref="S57" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
+    <hyperlink ref="X80" r:id="rId11" xr:uid="{737122E9-D843-4053-80E4-C1B5D81D3D01}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{C906AFA1-6140-45E8-88C7-755C40AF913C}"/>
+    <hyperlink ref="X14" r:id="rId13" xr:uid="{8F09AA18-95A4-4921-8013-22C81C4D5414}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Experimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4EA7765-77CD-4505-9B1C-58B3EA771DAB}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4052FCD4-2511-4219-8825-9A8B0B11474D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="627">
   <si>
     <t>experimentation</t>
   </si>
@@ -408,9 +408,6 @@
     <t>soil_ston</t>
   </si>
   <si>
-    <t>Texture dominante du sol accessible au racine (texture 6 classes GEPPA)</t>
-  </si>
-  <si>
     <t>Outil de calcul de la texture du sol : https://www.nrcs.usda.gov/wps/portal/nrcs/detailfull/soils/research/guide/?cid=NRCS142P2_054167</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>A:abondant 40-80%</t>
   </si>
   <si>
-    <t>A:argileux,Al:argilo-limoneux,As:argile sableuse,L:limoneux,Sl:sablo-limoneux,S:Sableux</t>
-  </si>
-  <si>
     <t>N:aucun cailloux,V:très peu (0-2%),F:peu 2-5%,C:fréquent 5-15%,M:beaucoup 15-40%,A:abondant 40-80%,D:majoritaire &gt;80%,S:concentré sur une couche</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
     <t>gradient NS de fertilité du sol</t>
   </si>
   <si>
-    <t xml:space="preserve">Randomisé,Carré latin,Bloc randomisé,Blocs incomplets </t>
-  </si>
-  <si>
     <t>Brève description des unités d'observations</t>
   </si>
   <si>
@@ -562,12 +553,6 @@
   </si>
   <si>
     <t>Date fin</t>
-  </si>
-  <si>
-    <t>Support financier</t>
-  </si>
-  <si>
-    <t>Support financier du projet</t>
   </si>
   <si>
     <t>Elaboration d’un outil d’aide à la décision pour la gestion du patrimoine organique des sols viticoles. Paramétrage et validation du modèle AMG</t>
@@ -586,9 +571,6 @@
 Les parcelles d’expérimentation ont été mises en place l’hiver 2008-2009 pour certaines et l’hiver 2009-2010 pour d’autres. </t>
   </si>
   <si>
-    <t> FranceAgriMer</t>
-  </si>
-  <si>
     <t>Date de début du projet. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
   </si>
   <si>
@@ -754,9 +736,6 @@
     <t>TEM</t>
   </si>
   <si>
-    <t>Catégorie de facteur</t>
-  </si>
-  <si>
     <t>silexportegreffe</t>
   </si>
   <si>
@@ -1024,15 +1003,9 @@
     <t>Experimental factor type</t>
   </si>
   <si>
-    <t>factor</t>
-  </si>
-  <si>
     <t>DV</t>
   </si>
   <si>
-    <t>Combinaison de niveaux de facteurs</t>
-  </si>
-  <si>
     <t>Nombre de répétition</t>
   </si>
   <si>
@@ -1420,9 +1393,6 @@
     <t>row_direction</t>
   </si>
   <si>
-    <t>#plant_pop_at_planting</t>
-  </si>
-  <si>
     <t>field_soil_texture</t>
   </si>
   <si>
@@ -1483,12 +1453,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>Nom de la variété (et clone si connu) du porte-greffe. Utiliser la liste disposnible sur https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
-  </si>
-  <si>
-    <t>Nom de la variété (et clone si connu) produisant les fruits. Format de type "Syrah N Cl300" ou "Grenache B". Utiliser la liste disposnible sur https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
-  </si>
-  <si>
     <t>https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
   </si>
   <si>
@@ -1525,9 +1489,6 @@
     <t>Sp2T2</t>
   </si>
   <si>
-    <t>https://vignevin.github.io/standard_guide/</t>
-  </si>
-  <si>
     <t>Enherbé semé permanent alterné avec du désherbage mécanique un inter-rang sur deux, combiné à du désherbage mécanique sous le rang</t>
   </si>
   <si>
@@ -1567,9 +1528,6 @@
     <t>Modalité</t>
   </si>
   <si>
-    <t>Nom ou code de la modalité (niveau du facteur)</t>
-  </si>
-  <si>
     <t>Description de la modalité</t>
   </si>
   <si>
@@ -1582,9 +1540,6 @@
     <t>Description de la modalité (niveau de facteur)</t>
   </si>
   <si>
-    <t>Type du facteur</t>
-  </si>
-  <si>
     <t>Nom de la variable dans les fichiers de données</t>
   </si>
   <si>
@@ -1639,9 +1594,6 @@
     <t>sans unité</t>
   </si>
   <si>
-    <t>https://cropontology.org/term/CO_356:ROOT</t>
-  </si>
-  <si>
     <t>annot_type</t>
   </si>
   <si>
@@ -1711,9 +1663,6 @@
     <t>treatment_name</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>tr_notes</t>
   </si>
   <si>
@@ -1732,12 +1681,6 @@
     <t>var_ref_uri</t>
   </si>
   <si>
-    <t>URI de la variable de référence (Vitis Ontology)</t>
-  </si>
-  <si>
-    <t>URI référence</t>
-  </si>
-  <si>
     <t>MUST_pH</t>
   </si>
   <si>
@@ -1753,18 +1696,6 @@
     <t>proj_uri</t>
   </si>
   <si>
-    <t>URI projet</t>
-  </si>
-  <si>
-    <t>URI du projet</t>
-  </si>
-  <si>
-    <t>URI expérimentation</t>
-  </si>
-  <si>
-    <t>URI de l'expérimentation</t>
-  </si>
-  <si>
     <t>experiment_ID</t>
   </si>
   <si>
@@ -1816,9 +1747,6 @@
     <t>BBCH 57</t>
   </si>
   <si>
-    <t>Nom de la variable de référence (nom standardisé).</t>
-  </si>
-  <si>
     <t>measure,wine</t>
   </si>
   <si>
@@ -1846,12 +1774,6 @@
     <t>Nombre de répétitions pour le traitement expérimental</t>
   </si>
   <si>
-    <t>Combinaison des niveaux de facteurs appliqués (séparés par ";").</t>
-  </si>
-  <si>
-    <t>Nom ou code du traitement expérimental</t>
-  </si>
-  <si>
     <t>Commentaires sur le traitement expérimental</t>
   </si>
   <si>
@@ -1868,6 +1790,141 @@
   </si>
   <si>
     <t>organe,cep,unité d'observation,parcelle,exploitation,région</t>
+  </si>
+  <si>
+    <t>Texture dominante du sol accessible au racine (texture 17 classes GEPPA)</t>
+  </si>
+  <si>
+    <t>AA:Argile lourde,A:Argileux,As:Argile sableuse,Als:Argile limono-sableuse,Al:Argilo-limoneux,AS:Argilo sableux,LAS:Limon argilo-sableux,La:Limon argileux,Sa:Sable argileux,Sal:Sable limono-argileux,Lsa: Limon sablo-argileux,L:limon,Sl:sable limoneux,S:Sableux,SS:Sable,Ls:Limon sableux,LL:Limon pur</t>
+  </si>
+  <si>
+    <t>Combinaison de modalités (ou niveaux de facteurs). Utiliser le séparateur ";" sans espace.</t>
+  </si>
+  <si>
+    <t>Combinaison de modalités</t>
+  </si>
+  <si>
+    <t>https://vignevin.github.io/standard_guide/soilManagementCode.html</t>
+  </si>
+  <si>
+    <t>factor_uri</t>
+  </si>
+  <si>
+    <t>cultivar_uri</t>
+  </si>
+  <si>
+    <t>field_rootstock_uri</t>
+  </si>
+  <si>
+    <t>http://opensilex.vitioeno/variety/FRA/9159</t>
+  </si>
+  <si>
+    <t>http://opensilex.vitioeno/variety/FRA/150</t>
+  </si>
+  <si>
+    <t>randomisé,carré latin,bloc randomisé,blocs incomplets,en bandes,variable</t>
+  </si>
+  <si>
+    <t>Identifiant modalité</t>
+  </si>
+  <si>
+    <t>Identifiant (généralement de type URI) de la modalité</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>Traitement expérimental</t>
+  </si>
+  <si>
+    <t>Code du traitement expérimental</t>
+  </si>
+  <si>
+    <t>Facteur de la modalité</t>
+  </si>
+  <si>
+    <t>Facteur</t>
+  </si>
+  <si>
+    <t>Code de la modalité (niveau du facteur)</t>
+  </si>
+  <si>
+    <t>treatment_xp</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) du porte-greffe. Utiliser la nomenclature de https://www.plantgrape.fr/fr</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) produisant les fruits. Format de type "Syrah N Cl300" ou "Grenache B". Utiliser la nomenclature de https://www.plantgrape.fr/fr</t>
+  </si>
+  <si>
+    <t>https://www.plantgrape.fr/fr</t>
+  </si>
+  <si>
+    <t>https://vitioeno.mistea.inrae.fr/resource/app/</t>
+  </si>
+  <si>
+    <t>https://clydedacruz.github.io/openstreetmap-wkt-playground/</t>
+  </si>
+  <si>
+    <t>plant_pop_at_planting</t>
+  </si>
+  <si>
+    <t>Identifiant expérimentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de l'expérimentation (URI ou autre) </t>
+  </si>
+  <si>
+    <t>Identifiant variable</t>
+  </si>
+  <si>
+    <t>Identifiant de la variable (typiquement URI de la Vitis Ontology)</t>
+  </si>
+  <si>
+    <t>https://cropontology.org/term/CO_356:ROOT ou https://vitioeno.mistea.inrae.fr/resource/app/</t>
+  </si>
+  <si>
+    <t>Identifiant Greffon</t>
+  </si>
+  <si>
+    <t>Identifiant Porte-greffe</t>
+  </si>
+  <si>
+    <t>Identifiant du greffon. Utiliser les URI de https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+  </si>
+  <si>
+    <t>Identifiant du porte-greffe. Utiliser les URI de https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+  </si>
+  <si>
+    <t>Nom de la variable de référence (nom standardisé). Utilisez ceux de la Vitis Ontology.</t>
+  </si>
+  <si>
+    <t>Identifiant projet</t>
+  </si>
+  <si>
+    <t>Identifiant du projet (URI ou autre)</t>
+  </si>
+  <si>
+    <t>Identifiant convention</t>
+  </si>
+  <si>
+    <t>Identifiant de la ou des conventions administratives liées au projet. Séparer par ";"</t>
+  </si>
+  <si>
+    <t>proj_conv</t>
+  </si>
+  <si>
+    <t>Financeurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financeur(s) du projet. Séparer par ";" </t>
+  </si>
+  <si>
+    <t>FranceAgriMer;CNIV</t>
+  </si>
+  <si>
+    <t>GARP:2069;GARP:2051</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +2020,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2001,6 +2058,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2021,14 +2079,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2066,7 +2120,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2172,7 +2226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2314,7 +2368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2322,66 +2376,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.85546875" style="2"/>
-    <col min="6" max="6" width="44" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="14.85546875" style="2"/>
+    <col min="1" max="2" width="14.85546875" style="2"/>
+    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="72" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="2" customWidth="1"/>
+    <col min="8" max="23" width="14.85546875" style="2"/>
+    <col min="24" max="24" width="48" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="14.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
@@ -2390,19 +2449,19 @@
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>63</v>
@@ -2411,39 +2470,39 @@
         <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -2452,53 +2511,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -2509,19 +2568,19 @@
     </row>
     <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
@@ -2529,19 +2588,19 @@
     </row>
     <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>5</v>
@@ -2549,22 +2608,22 @@
     </row>
     <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -2578,22 +2637,22 @@
     </row>
     <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -2607,31 +2666,31 @@
     </row>
     <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="N9" s="2">
         <v>3</v>
@@ -2639,22 +2698,22 @@
     </row>
     <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>5</v>
@@ -2665,22 +2724,22 @@
     </row>
     <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
@@ -2691,28 +2750,28 @@
     </row>
     <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="N12" s="2">
         <v>7</v>
@@ -2720,25 +2779,25 @@
     </row>
     <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -2752,22 +2811,22 @@
     </row>
     <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>5</v>
@@ -2776,79 +2835,79 @@
         <v>8</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N15" s="2">
         <v>10</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>5</v>
@@ -2860,30 +2919,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>143</v>
+        <v>592</v>
       </c>
       <c r="N18" s="2">
         <v>2</v>
@@ -2892,27 +2951,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>32</v>
@@ -2921,24 +2980,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>32</v>
@@ -2947,24 +3006,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>5</v>
@@ -2973,24 +3032,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>5</v>
@@ -2999,21 +3058,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>5</v>
@@ -3022,24 +3081,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>5</v>
@@ -3048,27 +3107,27 @@
         <v>1</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>5</v>
@@ -3077,30 +3136,30 @@
         <v>2</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N26" s="2">
         <v>6</v>
@@ -3109,53 +3168,53 @@
         <v>0</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2">
         <v>3</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>5</v>
@@ -3164,27 +3223,27 @@
         <v>5</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>5</v>
@@ -3193,122 +3252,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G32" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="H32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="2" t="s">
@@ -3318,24 +3377,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>83</v>
@@ -3350,12 +3409,12 @@
         <v>1</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -3388,15 +3447,15 @@
         <v>9</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -3429,24 +3488,24 @@
         <v>9</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>70</v>
@@ -3467,21 +3526,21 @@
         <v>1</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
@@ -3499,12 +3558,12 @@
         <v>6</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -3528,21 +3587,21 @@
         <v>7</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>74</v>
@@ -3563,36 +3622,36 @@
         <v>68</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>326</v>
+        <v>595</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>236</v>
+        <v>599</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="N42" s="2">
         <v>3</v>
@@ -3601,30 +3660,30 @@
         <v>2</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>326</v>
+        <v>595</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>507</v>
+        <v>600</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>5</v>
@@ -3636,30 +3695,30 @@
         <v>1</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>326</v>
+        <v>595</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>5</v>
@@ -3671,1332 +3730,1320 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>425</v>
+        <v>595</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>420</v>
+        <v>587</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="C46" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="2">
         <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="2">
-        <v>12</v>
       </c>
       <c r="O46" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="2">
+        <v>12</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="H48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="2">
         <v>3</v>
       </c>
-      <c r="Z47" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="Z48" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="2">
+      <c r="H49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="2">
         <v>4</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O49" s="2">
         <v>1</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="N49" s="2">
-        <v>5</v>
-      </c>
-      <c r="O49" s="2">
-        <v>2</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>351</v>
+        <v>157</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L50" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="N50" s="2">
+        <v>5</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="2">
         <v>6</v>
-      </c>
-      <c r="O50" s="2">
-        <v>3</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="N51" s="2">
-        <v>7</v>
       </c>
       <c r="O51" s="2">
         <v>3</v>
       </c>
-      <c r="W51" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="X51" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X51" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N52" s="2">
+        <v>7</v>
+      </c>
+      <c r="O52" s="2">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N52" s="2">
+      <c r="G53" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N53" s="2">
         <v>8</v>
-      </c>
-      <c r="O52" s="2">
-        <v>2</v>
-      </c>
-      <c r="P52" s="2">
-        <v>-90</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>90</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V52" s="2">
-        <v>43.692996999999998</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC52" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N53" s="2">
-        <v>9</v>
       </c>
       <c r="O53" s="2">
         <v>2</v>
       </c>
       <c r="P53" s="2">
-        <v>-180</v>
+        <v>-90</v>
       </c>
       <c r="Q53" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V53" s="2">
+        <v>43.692996999999998</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC53" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="V53" s="2">
+      <c r="F54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N54" s="2">
+        <v>9</v>
+      </c>
+      <c r="O54" s="2">
+        <v>2</v>
+      </c>
+      <c r="P54" s="2">
+        <v>-180</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>180</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V54" s="2">
         <v>4.2784149999999999</v>
       </c>
-      <c r="Z53" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC53" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="2">
+      <c r="Z54" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC54" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N55" s="2">
         <v>10</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O55" s="2">
         <v>3</v>
       </c>
-      <c r="S54" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC54" s="7"/>
-    </row>
-    <row r="55" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="S55" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="X55" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC55" s="7"/>
+    </row>
+    <row r="56" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="N55" s="2">
+      <c r="G56" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N56" s="2">
         <v>11</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O56" s="2">
         <v>2</v>
       </c>
-      <c r="Z55" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N56" s="2">
+      <c r="Z56" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N57" s="2">
         <v>13</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O57" s="2">
         <v>3</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P57" s="2">
         <v>0</v>
       </c>
-      <c r="Z56" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="Z57" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="2">
+      <c r="H58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="2">
         <v>14</v>
       </c>
-      <c r="S57" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="S58" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="X58" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="F59" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="2">
+      <c r="H59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="2">
         <v>15</v>
       </c>
-      <c r="Z58" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="X59" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N59" s="2">
+      <c r="G62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N62" s="2">
         <v>16</v>
-      </c>
-      <c r="O59" s="2">
-        <v>2</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N60" s="2">
-        <v>17</v>
-      </c>
-      <c r="O60" s="2">
-        <v>2</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N61" s="2">
-        <v>18</v>
-      </c>
-      <c r="Z61" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N62" s="2">
-        <v>19</v>
       </c>
       <c r="O62" s="2">
         <v>2</v>
       </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
       <c r="Z62" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="N63" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O63" s="2">
         <v>2</v>
       </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
       <c r="Z63" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>463</v>
+        <v>607</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>185</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>15</v>
+        <v>472</v>
       </c>
       <c r="N64" s="2">
-        <v>21</v>
-      </c>
-      <c r="O64" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="N65" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O65" s="2">
         <v>2</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="N66" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O66" s="2">
         <v>2</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>438</v>
+      <c r="D67" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>272</v>
+        <v>14</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N67" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O67" s="2">
         <v>2</v>
       </c>
-      <c r="P67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z67" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>285</v>
+        <v>44</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="N68" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O68" s="2">
-        <v>3</v>
-      </c>
-      <c r="P68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="N69" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O69" s="2">
         <v>2</v>
       </c>
-      <c r="P69" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>360</v>
-      </c>
       <c r="Z69" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G70" s="11">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P70" s="2">
         <v>0</v>
       </c>
-      <c r="Q70" s="2">
-        <v>70</v>
-      </c>
-      <c r="W70" s="3"/>
-      <c r="X70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC70" s="7" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="71" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>597</v>
+        <v>416</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N71" s="2">
+        <v>25</v>
+      </c>
+      <c r="O71" s="2">
+        <v>3</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N72" s="2">
+        <v>26</v>
+      </c>
+      <c r="O72" s="2">
+        <v>2</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z72" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N73" s="2">
+        <v>27</v>
+      </c>
+      <c r="O73" s="2">
+        <v>3</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>70</v>
+      </c>
+      <c r="W73" s="3"/>
+      <c r="X73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC73" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="F74" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N71" s="2">
+      <c r="H74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="2">
         <v>2</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O74" s="2">
         <v>1</v>
       </c>
-      <c r="Z71" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB71" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB74" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>531</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>289</v>
+        <v>574</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z75" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>105</v>
+        <v>347</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>104</v>
+        <v>454</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>5</v>
+        <v>472</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>197</v>
+        <v>100</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>489</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>490</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>491</v>
+        <v>101</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>492</v>
+        <v>105</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O80" s="2">
-        <v>2</v>
-      </c>
-      <c r="X80" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>361</v>
+        <v>104</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="O81" s="2">
-        <v>2</v>
-      </c>
       <c r="Z81" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>362</v>
+        <v>456</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>386</v>
+        <v>191</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="O82" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z82" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>363</v>
+        <v>477</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>306</v>
+        <v>478</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>307</v>
+        <v>479</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>5</v>
@@ -5004,1378 +5051,1498 @@
       <c r="O83" s="2">
         <v>2</v>
       </c>
-      <c r="Z83" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X83" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="O84" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z84" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>404</v>
+        <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>393</v>
+        <v>301</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="2">
-        <v>6</v>
+      <c r="K85" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="O85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>404</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>394</v>
+        <v>300</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N86" s="2">
-        <v>7</v>
       </c>
       <c r="O86" s="2">
         <v>2</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N88" s="2">
+        <v>6</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N89" s="2">
+        <v>7</v>
+      </c>
+      <c r="O89" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="O87" s="2">
+      <c r="H90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="O90" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z88" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H89" s="2" t="s">
+    <row r="91" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P89" s="2">
+      <c r="P92" s="2">
         <v>0</v>
       </c>
-      <c r="Z89" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="Z92" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P90" s="2">
+      <c r="P93" s="2">
         <v>0</v>
       </c>
-      <c r="Z90" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H91" s="2" t="s">
+      <c r="Z93" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P91" s="2">
+      <c r="P94" s="2">
         <v>0</v>
       </c>
-      <c r="Z91" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z92" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z93" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="2">
+      <c r="Z94" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N97" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N95" s="2">
+    <row r="98" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N98" s="2">
         <v>2</v>
-      </c>
-      <c r="O95" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z95" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA95" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB95" s="7"/>
-    </row>
-    <row r="96" spans="1:28" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N96" s="2">
-        <v>3</v>
-      </c>
-      <c r="O96" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z96" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N97" s="2">
-        <v>4</v>
-      </c>
-      <c r="O97" s="2">
-        <v>1</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z97" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N98" s="2">
-        <v>5</v>
       </c>
       <c r="O98" s="2">
         <v>2</v>
       </c>
-      <c r="S98" s="2" t="s">
+      <c r="Z98" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA98" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB98" s="7"/>
+    </row>
+    <row r="99" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N99" s="2">
+        <v>3</v>
+      </c>
+      <c r="O99" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z99" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="2">
+        <v>4</v>
+      </c>
+      <c r="O100" s="2">
+        <v>2</v>
+      </c>
+      <c r="S100" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z98" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N99" s="2">
-        <v>6</v>
-      </c>
-      <c r="O99" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z99" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="Z100" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="2">
-        <v>7</v>
-      </c>
-      <c r="O100" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z100" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA100" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J101" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="N101" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O101" s="2">
         <v>2</v>
       </c>
+      <c r="S101" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Z101" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>548</v>
+        <v>180</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>547</v>
+        <v>70</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>598</v>
+        <v>165</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N102" s="2">
+        <v>6</v>
+      </c>
+      <c r="O102" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z102" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N103" s="2">
+        <v>7</v>
+      </c>
       <c r="O103" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z103" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="AA103" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>119</v>
+        <v>394</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>623</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>275</v>
+        <v>624</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="N104" s="2">
+        <v>9</v>
       </c>
       <c r="O104" s="2">
         <v>2</v>
       </c>
       <c r="Z104" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>459</v>
+        <v>622</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>620</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>121</v>
+        <v>621</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>124</v>
+        <v>626</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>126</v>
+      <c r="N105" s="2">
+        <v>10</v>
       </c>
       <c r="O105" s="2">
         <v>2</v>
       </c>
-      <c r="X105" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z105" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>120</v>
+        <v>532</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>531</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>125</v>
+        <v>574</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O106" s="2">
-        <v>2</v>
-      </c>
-      <c r="W106" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="Z106" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>461</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>276</v>
+        <v>115</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="O107" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="O108" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z108" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>241</v>
+        <v>449</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>278</v>
+        <v>582</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>484</v>
+        <v>5</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="O109" s="2">
         <v>2</v>
       </c>
-      <c r="P109" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z109" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>368</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>369</v>
+        <v>116</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O110" s="2">
+        <v>2</v>
+      </c>
+      <c r="W110" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z110" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O111" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O112" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O113" s="2">
+        <v>2</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z115" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="Z116" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z117" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z111" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z112" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="H118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z118" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z113" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="H119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="Z119" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z114" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z120" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Z115" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="G121" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="P121" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z116" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="P117" s="2">
+      <c r="G122" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P122" s="2">
         <v>0</v>
       </c>
-      <c r="Z117" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="Z122" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P118" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z119" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z120" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N122" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>555</v>
+        <v>193</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>556</v>
+        <v>302</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>557</v>
+        <v>303</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>596</v>
+        <v>304</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N123" s="2">
-        <v>4</v>
+      <c r="Z123" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>468</v>
+        <v>193</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z124" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N127" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N128" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N124" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="H129" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AC129" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="data_dictionnary"/>
-        <filter val="field,measure"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:AC71">
-    <sortCondition ref="B2:B129"/>
-    <sortCondition ref="N2:N129"/>
+  <autoFilter ref="B1:AC133" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:AC74">
+    <sortCondition ref="B2:B132"/>
+    <sortCondition ref="N2:N132"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X48" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
-    <hyperlink ref="AB71" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
-    <hyperlink ref="AC53" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
-    <hyperlink ref="AC70" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
+    <hyperlink ref="X49" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
+    <hyperlink ref="AB74" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
+    <hyperlink ref="AC54" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
+    <hyperlink ref="AC73" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
     <hyperlink ref="AC37" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
-    <hyperlink ref="X49" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
-    <hyperlink ref="X51" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
-    <hyperlink ref="G45" r:id="rId8" xr:uid="{DD46286A-0E32-40A3-82D8-D66374710F42}"/>
+    <hyperlink ref="X50" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
+    <hyperlink ref="X52" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
+    <hyperlink ref="G46" r:id="rId8" xr:uid="{DD46286A-0E32-40A3-82D8-D66374710F42}"/>
     <hyperlink ref="G33" r:id="rId9" xr:uid="{AFFF90C1-D45E-4017-BB95-DA50C258BAFA}"/>
-    <hyperlink ref="S57" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
-    <hyperlink ref="X80" r:id="rId11" xr:uid="{737122E9-D843-4053-80E4-C1B5D81D3D01}"/>
+    <hyperlink ref="S58" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
+    <hyperlink ref="X83" r:id="rId11" xr:uid="{737122E9-D843-4053-80E4-C1B5D81D3D01}"/>
     <hyperlink ref="G14" r:id="rId12" xr:uid="{C906AFA1-6140-45E8-88C7-755C40AF913C}"/>
-    <hyperlink ref="X14" r:id="rId13" xr:uid="{8F09AA18-95A4-4921-8013-22C81C4D5414}"/>
+    <hyperlink ref="X14" r:id="rId13" display="https://cropontology.org/term/CO_356:ROOT" xr:uid="{8F09AA18-95A4-4921-8013-22C81C4D5414}"/>
+    <hyperlink ref="G61" r:id="rId14" xr:uid="{871DB657-8381-4C74-9EB1-0DA6810D2952}"/>
+    <hyperlink ref="G60" r:id="rId15" xr:uid="{8A6F1B7C-88AB-44D2-9FEA-585E3A5C1167}"/>
+    <hyperlink ref="X59" r:id="rId16" xr:uid="{355D50C8-3A17-41B8-8F1F-4964D9C6C167}"/>
+    <hyperlink ref="X58" r:id="rId17" xr:uid="{610C51D6-5140-4F17-8A9C-552A28E7DDE1}"/>
+    <hyperlink ref="X55" r:id="rId18" xr:uid="{4918FEA5-C38D-4808-8F0B-F12D044BC135}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Experimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4052FCD4-2511-4219-8825-9A8B0B11474D}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D56D5DF-414F-419F-B9AE-B9BFB67716A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -2378,9 +2378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
   <dimension ref="A1:AC133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3402,6 +3402,9 @@
       <c r="H35" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
       <c r="N35" s="2">
         <v>2</v>
       </c>
@@ -4798,6 +4801,9 @@
       </c>
       <c r="H74" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
       </c>
       <c r="N74" s="2">
         <v>2</v>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Experimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{7E65C6BA-C87A-4619-9764-C45083FA781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D56D5DF-414F-419F-B9AE-B9BFB67716A5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{D16C2F42-B43A-4C59-A199-3C52AD3D54E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FBF631-49AD-4D75-A5A8-E183C63751DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="631">
   <si>
     <t>experimentation</t>
   </si>
@@ -1066,9 +1066,6 @@
     <t>https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006071367/LEGISCTA000036441436/2020-07-02/?anchor=LEGIARTI000036441438#LEGIARTI000036441438</t>
   </si>
   <si>
-    <t>Alsace Est,Aquitaine,Bourgogne-Beaujolais-Savoie-Jura,Champagne,Charentes-Cognac,Corse,Languedoc-Roussillon,Sud-Ouest,Val-de-Loire-Centre, Vallée-du-Rhône-Provence</t>
-  </si>
-  <si>
     <t>AAAA</t>
   </si>
   <si>
@@ -1306,9 +1303,6 @@
     <t>field_insee_commune</t>
   </si>
   <si>
-    <t>field_bassin</t>
-  </si>
-  <si>
     <t>field_previous_crop</t>
   </si>
   <si>
@@ -1420,9 +1414,6 @@
     <t>fertiliz_app_name</t>
   </si>
   <si>
-    <t>data_dictionnary</t>
-  </si>
-  <si>
     <t>data_file_name</t>
   </si>
   <si>
@@ -1925,6 +1916,27 @@
   </si>
   <si>
     <t>GARP:2069;GARP:2051</t>
+  </si>
+  <si>
+    <t>Alsace Est,Aquitaine,Bourgogne-Beaujolais-Savoie-Jura,Champagne,Charentes-Cognac,Corse,Languedoc-Roussillon,Sud-Ouest,Val-de-Loire-Centre,Vallée-du-Rhône-Provence</t>
+  </si>
+  <si>
+    <t>tr_field</t>
+  </si>
+  <si>
+    <t>Parcelle sur laquelle est mis en place le traitement expérimental</t>
+  </si>
+  <si>
+    <t>Le Mas</t>
+  </si>
+  <si>
+    <t>https://cropontology.org/term/CO_356:1000166</t>
+  </si>
+  <si>
+    <t>data_dictionary</t>
+  </si>
+  <si>
+    <t>field_wine_area</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1946,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1996,6 +2008,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2020,7 +2038,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2059,6 +2077,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2376,16 +2395,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" style="2"/>
+    <col min="1" max="1" width="14.85546875" style="2"/>
+    <col min="2" max="2" width="23.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
@@ -2398,46 +2418,46 @@
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>308</v>
@@ -2449,19 +2469,19 @@
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>63</v>
@@ -2487,19 +2507,19 @@
     </row>
     <row r="2" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>162</v>
@@ -2513,28 +2533,28 @@
     </row>
     <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -2542,22 +2562,22 @@
     </row>
     <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -2568,19 +2588,19 @@
     </row>
     <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
@@ -2588,19 +2608,19 @@
     </row>
     <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>5</v>
@@ -2608,22 +2628,22 @@
     </row>
     <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -2637,22 +2657,22 @@
     </row>
     <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -2666,31 +2686,31 @@
     </row>
     <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N9" s="2">
         <v>3</v>
@@ -2698,22 +2718,22 @@
     </row>
     <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>5</v>
@@ -2724,22 +2744,22 @@
     </row>
     <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
@@ -2750,28 +2770,28 @@
     </row>
     <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="N12" s="2">
         <v>7</v>
@@ -2779,25 +2799,25 @@
     </row>
     <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -2811,22 +2831,22 @@
     </row>
     <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>5</v>
@@ -2835,53 +2855,53 @@
         <v>8</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N15" s="2">
         <v>10</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -2889,7 +2909,7 @@
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>126</v>
@@ -2898,7 +2918,7 @@
         <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>128</v>
@@ -2921,7 +2941,7 @@
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>126</v>
@@ -2942,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N18" s="2">
         <v>2</v>
@@ -2953,22 +2973,22 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>279</v>
@@ -2977,12 +2997,12 @@
         <v>32</v>
       </c>
       <c r="N19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>126</v>
@@ -3008,7 +3028,7 @@
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>126</v>
@@ -3034,7 +3054,7 @@
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>126</v>
@@ -3060,19 +3080,22 @@
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>5</v>
@@ -3083,7 +3106,7 @@
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>240</v>
@@ -3112,7 +3135,7 @@
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>240</v>
@@ -3141,7 +3164,7 @@
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>240</v>
@@ -3159,7 +3182,7 @@
         <v>288</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N26" s="2">
         <v>6</v>
@@ -3173,7 +3196,7 @@
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>240</v>
@@ -3202,7 +3225,7 @@
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>240</v>
@@ -3228,7 +3251,7 @@
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>240</v>
@@ -3254,22 +3277,22 @@
     </row>
     <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>5</v>
@@ -3277,22 +3300,22 @@
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>5</v>
@@ -3300,28 +3323,28 @@
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>9</v>
@@ -3329,22 +3352,22 @@
     </row>
     <row r="33" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>5</v>
@@ -3352,22 +3375,22 @@
     </row>
     <row r="34" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="2" t="s">
@@ -3379,16 +3402,16 @@
     </row>
     <row r="35" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>87</v>
@@ -3417,7 +3440,7 @@
     </row>
     <row r="36" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -3458,7 +3481,7 @@
     </row>
     <row r="37" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -3499,16 +3522,16 @@
     </row>
     <row r="38" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>70</v>
@@ -3534,16 +3557,16 @@
     </row>
     <row r="39" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
@@ -3566,7 +3589,7 @@
     </row>
     <row r="40" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -3595,16 +3618,16 @@
     </row>
     <row r="41" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>74</v>
@@ -3630,31 +3653,31 @@
     </row>
     <row r="42" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N42" s="2">
         <v>3</v>
@@ -3671,19 +3694,19 @@
     </row>
     <row r="43" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>319</v>
@@ -3706,22 +3729,22 @@
     </row>
     <row r="44" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>5</v>
@@ -3735,19 +3758,19 @@
     </row>
     <row r="45" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>5</v>
@@ -3755,25 +3778,25 @@
     </row>
     <row r="46" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>5</v>
@@ -3787,13 +3810,13 @@
     </row>
     <row r="47" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>33</v>
@@ -3816,16 +3839,16 @@
     </row>
     <row r="48" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
@@ -3848,16 +3871,16 @@
     </row>
     <row r="49" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
@@ -3886,13 +3909,13 @@
     </row>
     <row r="50" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>158</v>
@@ -3924,22 +3947,22 @@
     </row>
     <row r="51" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>5</v>
@@ -3951,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>262</v>
@@ -3959,13 +3982,13 @@
     </row>
     <row r="52" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>27</v>
@@ -3980,7 +4003,7 @@
         <v>5</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>340</v>
+        <v>624</v>
       </c>
       <c r="N52" s="2">
         <v>7</v>
@@ -3989,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X52" s="7" t="s">
         <v>339</v>
@@ -3997,16 +4020,16 @@
     </row>
     <row r="53" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>85</v>
@@ -4018,7 +4041,7 @@
         <v>272</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N53" s="2">
         <v>8</v>
@@ -4050,16 +4073,16 @@
     </row>
     <row r="54" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>86</v>
@@ -4071,7 +4094,7 @@
         <v>273</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N54" s="2">
         <v>9</v>
@@ -4103,13 +4126,13 @@
     </row>
     <row r="55" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>334</v>
@@ -4136,22 +4159,22 @@
         <v>335</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AC55" s="7"/>
     </row>
     <row r="56" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>30</v>
@@ -4166,7 +4189,7 @@
         <v>5</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2">
         <v>11</v>
@@ -4180,16 +4203,16 @@
     </row>
     <row r="57" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>182</v>
@@ -4201,7 +4224,7 @@
         <v>266</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N57" s="2">
         <v>13</v>
@@ -4218,22 +4241,22 @@
     </row>
     <row r="58" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>37</v>
@@ -4245,10 +4268,10 @@
         <v>14</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="X58" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>291</v>
@@ -4256,19 +4279,19 @@
     </row>
     <row r="59" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>39</v>
@@ -4280,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="X59" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Z59" s="2" t="s">
         <v>291</v>
@@ -4288,68 +4311,68 @@
     </row>
     <row r="60" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>591</v>
-      </c>
       <c r="H60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>40</v>
@@ -4361,7 +4384,7 @@
         <v>276</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N62" s="2">
         <v>16</v>
@@ -4378,16 +4401,16 @@
     </row>
     <row r="63" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>46</v>
@@ -4399,7 +4422,7 @@
         <v>277</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N63" s="2">
         <v>17</v>
@@ -4416,16 +4439,16 @@
     </row>
     <row r="64" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>184</v>
@@ -4437,7 +4460,7 @@
         <v>267</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N64" s="2">
         <v>18</v>
@@ -4445,16 +4468,20 @@
       <c r="Z64" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="65" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>47</v>
@@ -4483,13 +4510,13 @@
     </row>
     <row r="66" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>48</v>
@@ -4504,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N66" s="2">
         <v>20</v>
@@ -4518,16 +4545,16 @@
     </row>
     <row r="67" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -4556,13 +4583,13 @@
     </row>
     <row r="68" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>53</v>
@@ -4591,13 +4618,13 @@
     </row>
     <row r="69" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>54</v>
@@ -4626,13 +4653,13 @@
     </row>
     <row r="70" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>55</v>
@@ -4644,7 +4671,7 @@
         <v>265</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N70" s="2">
         <v>24</v>
@@ -4658,16 +4685,16 @@
     </row>
     <row r="71" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
@@ -4679,7 +4706,7 @@
         <v>278</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N71" s="2">
         <v>25</v>
@@ -4693,28 +4720,28 @@
     </row>
     <row r="72" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N72" s="2">
         <v>26</v>
@@ -4734,28 +4761,28 @@
     </row>
     <row r="73" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G73" s="11">
         <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N73" s="2">
         <v>27</v>
@@ -4779,16 +4806,16 @@
     </row>
     <row r="74" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>20</v>
@@ -4820,19 +4847,19 @@
     </row>
     <row r="75" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>5</v>
@@ -4840,19 +4867,19 @@
     </row>
     <row r="76" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>281</v>
@@ -4861,7 +4888,7 @@
         <v>5</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z76" s="2" t="s">
         <v>238</v>
@@ -4869,42 +4896,42 @@
     </row>
     <row r="77" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="G77" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>95</v>
@@ -4916,7 +4943,7 @@
         <v>282</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Z78" s="2" t="s">
         <v>238</v>
@@ -4924,16 +4951,16 @@
     </row>
     <row r="79" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>96</v>
@@ -4945,12 +4972,12 @@
         <v>283</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>93</v>
@@ -4976,7 +5003,7 @@
     </row>
     <row r="81" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>93</v>
@@ -4985,7 +5012,7 @@
         <v>104</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>98</v>
@@ -5005,16 +5032,16 @@
     </row>
     <row r="82" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>189</v>
@@ -5034,22 +5061,22 @@
     </row>
     <row r="83" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>5</v>
@@ -5058,33 +5085,33 @@
         <v>2</v>
       </c>
       <c r="X83" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O84" s="2">
         <v>2</v>
@@ -5095,13 +5122,13 @@
     </row>
     <row r="85" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>52</v>
@@ -5110,13 +5137,13 @@
         <v>301</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O85" s="2">
         <v>2</v>
@@ -5127,13 +5154,13 @@
     </row>
     <row r="86" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>299</v>
@@ -5142,7 +5169,7 @@
         <v>300</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>5</v>
@@ -5156,22 +5183,22 @@
     </row>
     <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>5</v>
@@ -5179,25 +5206,25 @@
     </row>
     <row r="88" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>5</v>
@@ -5214,25 +5241,25 @@
     </row>
     <row r="89" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>5</v>
@@ -5252,31 +5279,31 @@
     </row>
     <row r="90" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="F90" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="H90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O90" s="2">
         <v>2</v>
@@ -5284,16 +5311,16 @@
     </row>
     <row r="91" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>321</v>
@@ -5313,13 +5340,13 @@
     </row>
     <row r="92" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>225</v>
@@ -5342,13 +5369,13 @@
     </row>
     <row r="93" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>324</v>
@@ -5371,13 +5398,13 @@
     </row>
     <row r="94" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>325</v>
@@ -5400,13 +5427,13 @@
     </row>
     <row r="95" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>226</v>
@@ -5426,13 +5453,13 @@
     </row>
     <row r="96" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>228</v>
@@ -5452,19 +5479,19 @@
     </row>
     <row r="97" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>5</v>
@@ -5475,7 +5502,7 @@
     </row>
     <row r="98" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>163</v>
@@ -5511,7 +5538,7 @@
     </row>
     <row r="99" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>163</v>
@@ -5543,7 +5570,7 @@
     </row>
     <row r="100" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>163</v>
@@ -5581,7 +5608,7 @@
     </row>
     <row r="101" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>163</v>
@@ -5619,7 +5646,7 @@
     </row>
     <row r="102" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>163</v>
@@ -5651,7 +5678,7 @@
     </row>
     <row r="103" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>163</v>
@@ -5686,25 +5713,25 @@
     </row>
     <row r="104" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>5</v>
@@ -5721,22 +5748,22 @@
     </row>
     <row r="105" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>5</v>
@@ -5750,19 +5777,19 @@
     </row>
     <row r="106" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>5</v>
@@ -5770,7 +5797,7 @@
     </row>
     <row r="107" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>108</v>
@@ -5799,7 +5826,7 @@
     </row>
     <row r="108" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>108</v>
@@ -5817,7 +5844,7 @@
         <v>268</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O108" s="2">
         <v>2</v>
@@ -5828,22 +5855,22 @@
     </row>
     <row r="109" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>123</v>
@@ -5852,7 +5879,7 @@
         <v>5</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O109" s="2">
         <v>2</v>
@@ -5866,7 +5893,7 @@
     </row>
     <row r="110" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>108</v>
@@ -5893,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Z110" s="2" t="s">
         <v>294</v>
@@ -5901,28 +5928,28 @@
     </row>
     <row r="111" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>269</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O111" s="2">
         <v>2</v>
@@ -5930,16 +5957,16 @@
     </row>
     <row r="112" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>114</v>
@@ -5951,7 +5978,7 @@
         <v>270</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O112" s="2">
         <v>2</v>
@@ -5959,7 +5986,7 @@
     </row>
     <row r="113" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>108</v>
@@ -5977,7 +6004,7 @@
         <v>271</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O113" s="2">
         <v>2</v>
@@ -5991,22 +6018,22 @@
     </row>
     <row r="114" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>5</v>
@@ -6014,7 +6041,7 @@
     </row>
     <row r="115" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>193</v>
@@ -6040,7 +6067,7 @@
     </row>
     <row r="116" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>193</v>
@@ -6069,7 +6096,7 @@
     </row>
     <row r="117" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>193</v>
@@ -6098,7 +6125,7 @@
     </row>
     <row r="118" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>193</v>
@@ -6124,7 +6151,7 @@
     </row>
     <row r="119" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>193</v>
@@ -6153,7 +6180,7 @@
     </row>
     <row r="120" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>193</v>
@@ -6179,7 +6206,7 @@
     </row>
     <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>193</v>
@@ -6197,7 +6224,7 @@
         <v>286</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P121" s="2">
         <v>0</v>
@@ -6208,7 +6235,7 @@
     </row>
     <row r="122" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>193</v>
@@ -6237,7 +6264,7 @@
     </row>
     <row r="123" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>193</v>
@@ -6263,7 +6290,7 @@
     </row>
     <row r="124" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>193</v>
@@ -6289,240 +6316,266 @@
     </row>
     <row r="125" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N125" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N126" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N127" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>458</v>
+        <v>598</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N129" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N128" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="C130" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H129" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C130" s="2" t="s">
+      <c r="H131" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G132" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H130" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="D133" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C132" s="2" t="s">
+      <c r="G133" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="H133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="D134" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="F134" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C133" s="2" t="s">
+      <c r="G134" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="H133" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AC133" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
+  <autoFilter ref="B1:AC134" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:AC74">
     <sortCondition ref="B2:B132"/>
     <sortCondition ref="N2:N132"/>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Experimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{D16C2F42-B43A-4C59-A199-3C52AD3D54E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FBF631-49AD-4D75-A5A8-E183C63751DC}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{D16C2F42-B43A-4C59-A199-3C52AD3D54E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12C72BC-A91D-4484-B025-A3ECD4BD33CE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$AC$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="618">
   <si>
     <t>experimentation</t>
   </si>
@@ -354,12 +354,6 @@
     <t>Descriptif de la fertilisation pratiquée sur la parcelle habituellement</t>
   </si>
   <si>
-    <t>itk_n_type</t>
-  </si>
-  <si>
-    <t>itk_ferti_desc</t>
-  </si>
-  <si>
     <t>minérale</t>
   </si>
   <si>
@@ -730,12 +724,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Traitement</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
     <t>silexportegreffe</t>
   </si>
   <si>
@@ -769,18 +757,12 @@
     <t>estate</t>
   </si>
   <si>
-    <t>est_name</t>
-  </si>
-  <si>
     <t>Nom de l'exploitation</t>
   </si>
   <si>
     <t>Nom de l'exploitation agricole (ou domaine)</t>
   </si>
   <si>
-    <t>est_adress</t>
-  </si>
-  <si>
     <t>Adresse de l'exploitation</t>
   </si>
   <si>
@@ -793,9 +775,6 @@
     <t>Domaine Cabanis</t>
   </si>
   <si>
-    <t>est_area_vine</t>
-  </si>
-  <si>
     <t>Surface en vigne (ha)</t>
   </si>
   <si>
@@ -808,15 +787,9 @@
     <t>oscar,ocesar</t>
   </si>
   <si>
-    <t>est_cvi</t>
-  </si>
-  <si>
     <t>Numéro CVI</t>
   </si>
   <si>
-    <t>est_desc</t>
-  </si>
-  <si>
     <t>Description ou commentaire sur l'exploitation</t>
   </si>
   <si>
@@ -964,12 +937,6 @@
     <t>2019125</t>
   </si>
   <si>
-    <t>wine_trt</t>
-  </si>
-  <si>
-    <t>Code du traitement expérimental appliqué ou en lien avec le vin</t>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
@@ -1033,12 +1000,6 @@
     <t>Code du bloc surlequel se trouve la parcelle unitaire</t>
   </si>
   <si>
-    <t>Code du traitement appliqué sur la parcelle unitaire</t>
-  </si>
-  <si>
-    <t>est_siret</t>
-  </si>
-  <si>
     <t>SIRET</t>
   </si>
   <si>
@@ -1099,15 +1060,6 @@
     <t>Année de fin</t>
   </si>
   <si>
-    <t>itk_ir_soil_man</t>
-  </si>
-  <si>
-    <t>itk_r_soil_man</t>
-  </si>
-  <si>
-    <t>itk_soil_man</t>
-  </si>
-  <si>
     <t>itk_file</t>
   </si>
   <si>
@@ -1297,45 +1249,9 @@
     <t>field_geometry</t>
   </si>
   <si>
-    <t>field_commune</t>
-  </si>
-  <si>
-    <t>field_insee_commune</t>
-  </si>
-  <si>
-    <t>field_previous_crop</t>
-  </si>
-  <si>
-    <t>field_rootstock</t>
-  </si>
-  <si>
-    <t>field_pruning</t>
-  </si>
-  <si>
-    <t>field_training</t>
-  </si>
-  <si>
-    <t>field_irrigation_system</t>
-  </si>
-  <si>
     <t>field_slope</t>
   </si>
   <si>
-    <t>field_prod_mode</t>
-  </si>
-  <si>
-    <t>field_product_type</t>
-  </si>
-  <si>
-    <t>field_target_yield</t>
-  </si>
-  <si>
-    <t>field_density</t>
-  </si>
-  <si>
-    <t>field_cadas</t>
-  </si>
-  <si>
     <t>Pente moyenne du sol en %</t>
   </si>
   <si>
@@ -1357,9 +1273,6 @@
     <t>plot_bloc</t>
   </si>
   <si>
-    <t>plot_trt</t>
-  </si>
-  <si>
     <t>plot_id</t>
   </si>
   <si>
@@ -1468,9 +1381,6 @@
     <t>label_en</t>
   </si>
   <si>
-    <t>itk_code_soil_man</t>
-  </si>
-  <si>
     <t>Code entretien sol</t>
   </si>
   <si>
@@ -1627,18 +1537,6 @@
     <t>numérique</t>
   </si>
   <si>
-    <t>itk_field</t>
-  </si>
-  <si>
-    <t>Parcelle</t>
-  </si>
-  <si>
-    <t>soil_field</t>
-  </si>
-  <si>
-    <t>est_field</t>
-  </si>
-  <si>
     <t>var_ref_conv</t>
   </si>
   <si>
@@ -1693,12 +1591,6 @@
     <t>measure</t>
   </si>
   <si>
-    <t>Code traitement expérimental</t>
-  </si>
-  <si>
-    <t>Code du traitement expérimental appliqué</t>
-  </si>
-  <si>
     <t>replicate</t>
   </si>
   <si>
@@ -1756,12 +1648,6 @@
     <t>Fertilisé (30U N/ha) et irrigué en goutte-à-goutte</t>
   </si>
   <si>
-    <t>field,measure</t>
-  </si>
-  <si>
-    <t>Nom de la parcelle expérimentale</t>
-  </si>
-  <si>
     <t>Nombre de répétitions pour le traitement expérimental</t>
   </si>
   <si>
@@ -1804,9 +1690,6 @@
     <t>cultivar_uri</t>
   </si>
   <si>
-    <t>field_rootstock_uri</t>
-  </si>
-  <si>
     <t>http://opensilex.vitioeno/variety/FRA/9159</t>
   </si>
   <si>
@@ -1921,22 +1804,100 @@
     <t>Alsace Est,Aquitaine,Bourgogne-Beaujolais-Savoie-Jura,Champagne,Charentes-Cognac,Corse,Languedoc-Roussillon,Sud-Ouest,Val-de-Loire-Centre,Vallée-du-Rhône-Provence</t>
   </si>
   <si>
-    <t>tr_field</t>
-  </si>
-  <si>
-    <t>Parcelle sur laquelle est mis en place le traitement expérimental</t>
-  </si>
-  <si>
-    <t>Le Mas</t>
-  </si>
-  <si>
     <t>https://cropontology.org/term/CO_356:1000166</t>
   </si>
   <si>
     <t>data_dictionary</t>
   </si>
   <si>
-    <t>field_wine_area</t>
+    <t>field,measure,soil,treatment_xp,estate,itk</t>
+  </si>
+  <si>
+    <t>treatment_xp,measure,plot,wine</t>
+  </si>
+  <si>
+    <t>soil_texture</t>
+  </si>
+  <si>
+    <t>soil_management</t>
+  </si>
+  <si>
+    <t>r_soil_management</t>
+  </si>
+  <si>
+    <t>ir_soil_management</t>
+  </si>
+  <si>
+    <t>soil_management_code</t>
+  </si>
+  <si>
+    <t>fertilization_desc</t>
+  </si>
+  <si>
+    <t>N_type</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>target_yield</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>prod_mode</t>
+  </si>
+  <si>
+    <t>irrigation_system</t>
+  </si>
+  <si>
+    <t>training_system</t>
+  </si>
+  <si>
+    <t>pruning_system</t>
+  </si>
+  <si>
+    <t>planting_density</t>
+  </si>
+  <si>
+    <t>rootstock_uri</t>
+  </si>
+  <si>
+    <t>rootstock</t>
+  </si>
+  <si>
+    <t>wine_area</t>
+  </si>
+  <si>
+    <t>cadastral_ref</t>
+  </si>
+  <si>
+    <t>commune_code_INSEE</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>previous_crop</t>
+  </si>
+  <si>
+    <t>estate_name</t>
+  </si>
+  <si>
+    <t>estate_adress</t>
+  </si>
+  <si>
+    <t>estate_area_vine</t>
+  </si>
+  <si>
+    <t>estate_cvi</t>
+  </si>
+  <si>
+    <t>estate_desc</t>
+  </si>
+  <si>
+    <t>estate_siret</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +1999,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2073,9 +2034,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2096,6 +2054,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2395,17 +2357,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="2"/>
-    <col min="2" max="2" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
@@ -2418,49 +2380,49 @@
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
@@ -2469,19 +2431,19 @@
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>63</v>
@@ -2490,39 +2452,39 @@
         <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -2533,28 +2495,28 @@
     </row>
     <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -2562,22 +2524,22 @@
     </row>
     <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -2588,19 +2550,19 @@
     </row>
     <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
@@ -2608,19 +2570,19 @@
     </row>
     <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>5</v>
@@ -2628,22 +2590,22 @@
     </row>
     <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -2657,22 +2619,22 @@
     </row>
     <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -2686,31 +2648,31 @@
     </row>
     <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="N9" s="2">
         <v>3</v>
@@ -2718,22 +2680,22 @@
     </row>
     <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>5</v>
@@ -2744,22 +2706,22 @@
     </row>
     <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
@@ -2770,28 +2732,28 @@
     </row>
     <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="N12" s="2">
         <v>7</v>
@@ -2799,25 +2761,25 @@
     </row>
     <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -2831,22 +2793,22 @@
     </row>
     <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>5</v>
@@ -2855,53 +2817,53 @@
         <v>8</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="N15" s="2">
         <v>10</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -2909,25 +2871,25 @@
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>5</v>
@@ -2941,28 +2903,28 @@
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="N18" s="2">
         <v>2</v>
@@ -2973,25 +2935,25 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>32</v>
@@ -3002,22 +2964,22 @@
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>32</v>
@@ -3028,22 +2990,22 @@
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>5</v>
@@ -3054,22 +3016,22 @@
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>5</v>
@@ -3080,219 +3042,216 @@
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>530</v>
+        <v>612</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>528</v>
+        <v>237</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>571</v>
+        <v>238</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>627</v>
+        <v>242</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="2">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="H24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="N25" s="2">
+        <v>6</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="N26" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="N26" s="2">
-        <v>6</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>254</v>
+        <v>616</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="N27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>256</v>
+        <v>617</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>318</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>257</v>
+        <v>319</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>333</v>
+        <v>348</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N29" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>5</v>
@@ -3300,162 +3259,180 @@
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>372</v>
+        <v>433</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>460</v>
+        <v>513</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>461</v>
+        <v>566</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>408</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>547</v>
+        <v>372</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>547</v>
+        <v>372</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
       <c r="N34" s="2">
+        <v>2</v>
+      </c>
+      <c r="O34" s="2">
         <v>1</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>388</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="2">
-        <v>1</v>
+      <c r="J35" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="N35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" s="2">
         <v>1</v>
       </c>
+      <c r="S35" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Z35" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>5</v>
@@ -3464,345 +3441,333 @@
         <v>8</v>
       </c>
       <c r="N36" s="2">
+        <v>4</v>
+      </c>
+      <c r="O36" s="2">
         <v>3</v>
-      </c>
-      <c r="O36" s="2">
-        <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>154</v>
+        <v>280</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>373</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N37" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O37" s="2">
-        <v>3</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC37" s="7" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N38" s="2">
-        <v>5</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>390</v>
+        <v>91</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N39" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>91</v>
+        <v>388</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N40" s="2">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>404</v>
+        <v>529</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>404</v>
+        <v>529</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>74</v>
+        <v>557</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>80</v>
+        <v>556</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="K41" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="N41" s="2">
-        <v>8</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>68</v>
+        <v>3</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>565</v>
+        <v>463</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>596</v>
+        <v>460</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="N42" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>319</v>
+        <v>530</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="2">
         <v>1</v>
       </c>
-      <c r="T43" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="44" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N44" s="2">
-        <v>2</v>
-      </c>
-      <c r="O44" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>592</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>584</v>
+        <v>394</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>591</v>
+        <v>391</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>410</v>
+        <v>611</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>406</v>
+        <v>33</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>408</v>
+        <v>34</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N46" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O46" s="2">
         <v>2</v>
@@ -3810,584 +3775,593 @@
     </row>
     <row r="47" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="2">
-        <v>12</v>
-      </c>
-      <c r="O47" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>440</v>
+        <v>610</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>414</v>
+        <v>609</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L49" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="N49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="N50" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O50" s="2">
-        <v>2</v>
-      </c>
-      <c r="X50" s="7" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>429</v>
+        <v>607</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>343</v>
+        <v>28</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="K51" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="N51" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O51" s="2">
         <v>3</v>
       </c>
-      <c r="X51" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>262</v>
+      <c r="W51" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>630</v>
+        <v>395</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>624</v>
+        <v>440</v>
       </c>
       <c r="N52" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O52" s="2">
-        <v>3</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="X52" s="7" t="s">
-        <v>339</v>
+        <v>2</v>
+      </c>
+      <c r="P52" s="2">
+        <v>-90</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>90</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V52" s="2">
+        <v>43.692996999999998</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC52" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="N53" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O53" s="2">
         <v>2</v>
       </c>
       <c r="P53" s="2">
-        <v>-90</v>
+        <v>-180</v>
       </c>
       <c r="Q53" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V53" s="2">
-        <v>43.692996999999998</v>
+        <v>4.2784149999999999</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC53" s="8" t="s">
-        <v>150</v>
+        <v>287</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>469</v>
+        <v>5</v>
       </c>
       <c r="N54" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O54" s="2">
-        <v>2</v>
-      </c>
-      <c r="P54" s="2">
-        <v>-180</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V54" s="2">
-        <v>4.2784149999999999</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC54" s="7" t="s">
-        <v>151</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="X54" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC54" s="7"/>
     </row>
     <row r="55" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>334</v>
+        <v>30</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L55" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="N55" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O55" s="2">
-        <v>3</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="X55" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="AC55" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="56" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="N56" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O56" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>266</v>
+        <v>561</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>469</v>
+        <v>5</v>
       </c>
       <c r="N57" s="2">
-        <v>13</v>
-      </c>
-      <c r="O57" s="2">
-        <v>3</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="X57" s="12" t="s">
+        <v>562</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>441</v>
+        <v>606</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N58" s="2">
-        <v>14</v>
-      </c>
-      <c r="S58" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>601</v>
+        <v>15</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>562</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>571</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>39</v>
+        <v>573</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="2">
-        <v>15</v>
-      </c>
-      <c r="X59" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="Z59" s="2" t="s">
-        <v>291</v>
+      <c r="X59" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>586</v>
+      <c r="D61" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>611</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>587</v>
+        <v>41</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>602</v>
+        <v>440</v>
+      </c>
+      <c r="N61" s="2">
+        <v>16</v>
+      </c>
+      <c r="O61" s="2">
+        <v>2</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="N62" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O62" s="2">
         <v>2</v>
@@ -4396,288 +4370,285 @@
         <v>0</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>445</v>
+        <v>604</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>445</v>
+        <v>565</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="N63" s="2">
-        <v>17</v>
-      </c>
-      <c r="O63" s="2">
-        <v>2</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>291</v>
+        <v>253</v>
+      </c>
+      <c r="AB63" s="13"/>
+      <c r="AC63" s="13" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>267</v>
+        <v>60</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>469</v>
+        <v>5</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="N64" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O64" s="2">
+        <v>2</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="14" t="s">
-        <v>628</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>421</v>
+        <v>602</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="N65" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O65" s="2">
         <v>2</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>422</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>489</v>
+        <v>15</v>
       </c>
       <c r="N66" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O66" s="2">
         <v>2</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="N67" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O67" s="2">
         <v>2</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>425</v>
+        <v>599</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="N68" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O68" s="2">
         <v>2</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>426</v>
+        <v>598</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>239</v>
+        <v>440</v>
       </c>
       <c r="N69" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O69" s="2">
         <v>2</v>
       </c>
-      <c r="Z69" s="2" t="s">
-        <v>296</v>
+      <c r="P69" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>427</v>
+        <v>597</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="N70" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O70" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P70" s="2">
         <v>0</v>
@@ -4685,677 +4656,680 @@
     </row>
     <row r="71" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>278</v>
+        <v>403</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="N71" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P71" s="2">
         <v>0</v>
       </c>
+      <c r="Q71" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="72" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G72" s="2">
+        <v>402</v>
+      </c>
+      <c r="G72" s="11">
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="N72" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P72" s="2">
         <v>0</v>
       </c>
       <c r="Q72" s="2">
-        <v>360</v>
-      </c>
-      <c r="Z72" s="2" t="s">
-        <v>293</v>
+        <v>70</v>
+      </c>
+      <c r="W72" s="3"/>
+      <c r="X72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC72" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>415</v>
+        <v>588</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G73" s="11">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>469</v>
+        <v>5</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
       </c>
       <c r="N73" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="O73" s="2">
-        <v>3</v>
-      </c>
-      <c r="P73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>70</v>
-      </c>
-      <c r="W73" s="3"/>
-      <c r="X73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC73" s="7" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB73" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>570</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>334</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M74" s="2">
-        <v>1</v>
-      </c>
-      <c r="N74" s="2">
-        <v>2</v>
-      </c>
-      <c r="O74" s="2">
-        <v>1</v>
+      <c r="L74" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB74" s="7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>527</v>
+        <v>332</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>528</v>
+        <v>337</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>571</v>
+        <v>333</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>344</v>
+        <v>423</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>349</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>345</v>
+        <v>424</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>452</v>
+        <v>596</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>282</v>
+        <v>101</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="Z78" s="2" t="s">
-        <v>238</v>
+        <v>5</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>453</v>
+        <v>595</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>283</v>
+        <v>102</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>469</v>
+        <v>5</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>103</v>
+        <v>425</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>455</v>
+        <v>594</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>102</v>
+        <v>446</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>106</v>
+        <v>447</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z81" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="2">
+        <v>2</v>
+      </c>
+      <c r="X81" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>454</v>
+        <v>593</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="O82" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z82" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>474</v>
+        <v>592</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>475</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>476</v>
+        <v>292</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>477</v>
+        <v>360</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="O83" s="2">
         <v>2</v>
       </c>
-      <c r="X83" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z83" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>351</v>
+        <v>591</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>373</v>
+        <v>291</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="O84" s="2">
         <v>2</v>
       </c>
       <c r="Z84" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>52</v>
+        <v>339</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="O85" s="2">
+    </row>
+    <row r="86" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N86" s="2">
+        <v>6</v>
+      </c>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N87" s="2">
+        <v>7</v>
+      </c>
+      <c r="O87" s="2">
         <v>2</v>
       </c>
-      <c r="Z85" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O86" s="2">
+      <c r="Z87" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O88" s="2">
         <v>2</v>
       </c>
-      <c r="Z86" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N88" s="2">
-        <v>6</v>
-      </c>
-      <c r="O88" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z88" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>384</v>
+        <v>311</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N89" s="2">
-        <v>7</v>
-      </c>
-      <c r="O89" s="2">
-        <v>2</v>
-      </c>
       <c r="Z89" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>399</v>
+        <v>223</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>403</v>
+        <v>312</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="O90" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>233</v>
+        <v>316</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
       </c>
       <c r="Z91" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>32</v>
@@ -5364,157 +5338,179 @@
         <v>0</v>
       </c>
       <c r="Z92" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>284</v>
+        <v>317</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P93" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z93" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>432</v>
+        <v>161</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>435</v>
+        <v>512</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>325</v>
+        <v>576</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>285</v>
+        <v>577</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P94" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="N94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>432</v>
+        <v>161</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N95" s="2">
+        <v>2</v>
+      </c>
+      <c r="O95" s="2">
+        <v>2</v>
+      </c>
       <c r="Z95" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB95" s="7"/>
+    </row>
+    <row r="96" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>432</v>
+        <v>161</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>437</v>
+        <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N96" s="2">
+        <v>3</v>
+      </c>
+      <c r="O96" s="2">
+        <v>3</v>
+      </c>
       <c r="Z96" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>546</v>
+        <v>176</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>615</v>
+        <v>166</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>616</v>
+        <v>173</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J97" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="N97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="O97" s="2">
+        <v>2</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z97" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>170</v>
@@ -5522,1084 +5518,883 @@
       <c r="H98" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J98" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="N98" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O98" s="2">
         <v>2</v>
       </c>
+      <c r="S98" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Z98" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA98" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB98" s="7"/>
-    </row>
-    <row r="99" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N99" s="2">
+        <v>6</v>
+      </c>
+      <c r="O99" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z99" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N99" s="2">
-        <v>3</v>
-      </c>
-      <c r="O99" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z99" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O100" s="2">
         <v>2</v>
       </c>
-      <c r="S100" s="2" t="s">
+      <c r="Z100" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA100" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="2">
         <v>9</v>
-      </c>
-      <c r="Z100" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="2">
-        <v>5</v>
       </c>
       <c r="O101" s="2">
         <v>2</v>
       </c>
-      <c r="S101" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="Z101" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>70</v>
+        <v>578</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>165</v>
+        <v>579</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>173</v>
+        <v>584</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N102" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O102" s="2">
         <v>2</v>
       </c>
-      <c r="Z102" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N103" s="2">
-        <v>7</v>
-      </c>
       <c r="O103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z103" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA103" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>393</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>620</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>622</v>
+        <v>185</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N104" s="2">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="O104" s="2">
         <v>2</v>
       </c>
       <c r="Z104" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>619</v>
+        <v>590</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>617</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>618</v>
+        <v>541</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>623</v>
+        <v>121</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N105" s="2">
-        <v>10</v>
+      <c r="K105" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="O105" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z105" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>529</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>528</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>571</v>
+        <v>114</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O106" s="2">
+        <v>2</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>118</v>
+        <v>420</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O107" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="G108" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="O108" s="2">
         <v>2</v>
       </c>
-      <c r="Z108" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>447</v>
+        <v>230</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="O109" s="2">
         <v>2</v>
       </c>
-      <c r="X109" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z109" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>116</v>
+        <v>343</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O110" s="2">
-        <v>2</v>
-      </c>
-      <c r="W110" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z110" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>449</v>
+        <v>192</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>269</v>
+        <v>199</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O111" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="Z111" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>450</v>
+        <v>194</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>270</v>
+        <v>196</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O112" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z112" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>271</v>
+        <v>203</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O113" s="2">
-        <v>2</v>
-      </c>
-      <c r="P113" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="2" t="s">
-        <v>237</v>
+        <v>158</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z113" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>358</v>
+        <v>204</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="Z114" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="K115" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="Z115" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K116" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="Z116" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>219</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>156</v>
+        <v>440</v>
+      </c>
+      <c r="P117" s="2">
+        <v>0</v>
       </c>
       <c r="Z117" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="P118" s="2">
+        <v>0</v>
       </c>
       <c r="Z118" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>213</v>
+        <v>295</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="Z119" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>193</v>
+        <v>589</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>215</v>
+        <v>501</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>216</v>
+        <v>554</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>217</v>
+        <v>555</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>218</v>
+        <v>531</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z120" s="2" t="s">
-        <v>294</v>
+      <c r="N120" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>193</v>
+        <v>559</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>219</v>
+        <v>376</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>220</v>
+        <v>544</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>286</v>
+        <v>543</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="P121" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z121" s="2" t="s">
-        <v>294</v>
+        <v>5</v>
+      </c>
+      <c r="N121" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>193</v>
+        <v>559</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>222</v>
+        <v>502</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>223</v>
+        <v>503</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>287</v>
+        <v>535</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P122" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z122" s="2" t="s">
-        <v>294</v>
+        <v>5</v>
+      </c>
+      <c r="N122" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>193</v>
+        <v>587</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>302</v>
+        <v>510</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>303</v>
+        <v>511</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>305</v>
+        <v>575</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z123" s="2" t="s">
-        <v>294</v>
+      <c r="N123" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>193</v>
+        <v>514</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>306</v>
+        <v>515</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>228</v>
+        <v>516</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>229</v>
+        <v>517</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="Z124" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>598</v>
+        <v>528</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>593</v>
+        <v>94</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>567</v>
+        <v>519</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N125" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>598</v>
+        <v>514</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>392</v>
+        <v>520</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>392</v>
+        <v>520</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>568</v>
+        <v>522</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N126" s="2">
-        <v>3</v>
+      <c r="J126" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>598</v>
+        <v>514</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>569</v>
+        <v>526</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N127" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N128" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N129" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AC134" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:AC74">
-    <sortCondition ref="B2:B132"/>
-    <sortCondition ref="N2:N132"/>
+  <autoFilter ref="B1:AC127" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:AC73">
+    <sortCondition ref="B2:B131"/>
+    <sortCondition ref="N2:N131"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X49" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
-    <hyperlink ref="AB74" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
-    <hyperlink ref="AC54" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
-    <hyperlink ref="AC73" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
-    <hyperlink ref="AC37" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
-    <hyperlink ref="X50" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
-    <hyperlink ref="X52" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
-    <hyperlink ref="G46" r:id="rId8" xr:uid="{DD46286A-0E32-40A3-82D8-D66374710F42}"/>
-    <hyperlink ref="G33" r:id="rId9" xr:uid="{AFFF90C1-D45E-4017-BB95-DA50C258BAFA}"/>
-    <hyperlink ref="S58" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
-    <hyperlink ref="X83" r:id="rId11" xr:uid="{737122E9-D843-4053-80E4-C1B5D81D3D01}"/>
+    <hyperlink ref="X48" r:id="rId1" xr:uid="{17C75F52-F5E9-4D49-A18B-8F8976E95C9D}"/>
+    <hyperlink ref="AB73" r:id="rId2" xr:uid="{14DC2D8D-2B37-45D3-8BE8-9D92752EC5E1}"/>
+    <hyperlink ref="AC53" r:id="rId3" xr:uid="{3832506C-FCCC-4240-AF14-5BFA4AAE2375}"/>
+    <hyperlink ref="AC72" r:id="rId4" xr:uid="{A69A80FE-5ACA-4CCB-B5EC-40CF44BD579F}"/>
+    <hyperlink ref="AC36" r:id="rId5" xr:uid="{DE9FF68F-0F7A-4E32-9B09-E45F70208747}"/>
+    <hyperlink ref="X49" r:id="rId6" xr:uid="{AEF445DF-CDFE-4606-8857-0290E102EE35}"/>
+    <hyperlink ref="X51" r:id="rId7" location="LEGIARTI000036441438" xr:uid="{41A9340C-3F68-4743-9160-70B203179B28}"/>
+    <hyperlink ref="G45" r:id="rId8" xr:uid="{DD46286A-0E32-40A3-82D8-D66374710F42}"/>
+    <hyperlink ref="G32" r:id="rId9" xr:uid="{AFFF90C1-D45E-4017-BB95-DA50C258BAFA}"/>
+    <hyperlink ref="S57" r:id="rId10" xr:uid="{E55E3D10-4FB3-4C09-ADA2-974AE95FDB49}"/>
+    <hyperlink ref="X81" r:id="rId11" xr:uid="{737122E9-D843-4053-80E4-C1B5D81D3D01}"/>
     <hyperlink ref="G14" r:id="rId12" xr:uid="{C906AFA1-6140-45E8-88C7-755C40AF913C}"/>
     <hyperlink ref="X14" r:id="rId13" display="https://cropontology.org/term/CO_356:ROOT" xr:uid="{8F09AA18-95A4-4921-8013-22C81C4D5414}"/>
-    <hyperlink ref="G61" r:id="rId14" xr:uid="{871DB657-8381-4C74-9EB1-0DA6810D2952}"/>
-    <hyperlink ref="G60" r:id="rId15" xr:uid="{8A6F1B7C-88AB-44D2-9FEA-585E3A5C1167}"/>
-    <hyperlink ref="X59" r:id="rId16" xr:uid="{355D50C8-3A17-41B8-8F1F-4964D9C6C167}"/>
-    <hyperlink ref="X58" r:id="rId17" xr:uid="{610C51D6-5140-4F17-8A9C-552A28E7DDE1}"/>
-    <hyperlink ref="X55" r:id="rId18" xr:uid="{4918FEA5-C38D-4808-8F0B-F12D044BC135}"/>
+    <hyperlink ref="G60" r:id="rId14" xr:uid="{871DB657-8381-4C74-9EB1-0DA6810D2952}"/>
+    <hyperlink ref="G59" r:id="rId15" xr:uid="{8A6F1B7C-88AB-44D2-9FEA-585E3A5C1167}"/>
+    <hyperlink ref="X58" r:id="rId16" xr:uid="{355D50C8-3A17-41B8-8F1F-4964D9C6C167}"/>
+    <hyperlink ref="X57" r:id="rId17" xr:uid="{610C51D6-5140-4F17-8A9C-552A28E7DDE1}"/>
+    <hyperlink ref="X54" r:id="rId18" xr:uid="{4918FEA5-C38D-4808-8F0B-F12D044BC135}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>

--- a/experimental_context_description.xlsx
+++ b/experimental_context_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Experimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{D16C2F42-B43A-4C59-A199-3C52AD3D54E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{212241FC-1091-42E8-8BB4-2BFE6A67AEFA}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{D16C2F42-B43A-4C59-A199-3C52AD3D54E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C96E07-6105-48DF-A254-7F5F94CF80F9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AE09EEA-C0A3-42DC-AFC7-BA79A75A8C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="677">
   <si>
     <t>experimentation</t>
   </si>
@@ -1904,6 +1904,178 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of the file containing the data (dataset), usually in tabular form. The data can be grouped by vintage, stage and/or type according to the desired granularity
+</t>
+  </si>
+  <si>
+    <t>Variable name in data files</t>
+  </si>
+  <si>
+    <t>Description of the variable</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>Characteristic measured</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Data Granularity in data files</t>
+  </si>
+  <si>
+    <t>Unit of the variable</t>
+  </si>
+  <si>
+    <t>Identifier of the variable (typically URI of the Vitis Ontology)</t>
+  </si>
+  <si>
+    <t>Conversion factor to reference variable</t>
+  </si>
+  <si>
+    <t>Brief description of the experimental design. In some cases, there is no experimental design, and if it is a compilation of different studies, it can be specified as "aggregated or reduced data"</t>
+  </si>
+  <si>
+    <t>Type of experimental design according to crop ontology CO_715</t>
+  </si>
+  <si>
+    <t>Number of repetitions for the experimental treatment</t>
+  </si>
+  <si>
+    <t>Year in which the grapes were harvested</t>
+  </si>
+  <si>
+    <t>Experimental Treatment Code</t>
+  </si>
+  <si>
+    <t>The name of the reference variable (standardized name). Use those from the Vitis Ontology.</t>
+  </si>
+  <si>
+    <t>Code of the repetition of the experimental treatment (block, number, etc.)</t>
+  </si>
+  <si>
+    <t>Name (or code) of the field on which the experiment takes place</t>
+  </si>
+  <si>
+    <t>Starting year of the technical itinerary</t>
+  </si>
+  <si>
+    <t>Ending year of the technical itinerary</t>
+  </si>
+  <si>
+    <t>Quantity of water supplied by irrigation over the season, expressed in mm/year. 0 if no irrigation</t>
+  </si>
+  <si>
+    <t>Quantity brought in per ha and per year</t>
+  </si>
+  <si>
+    <t>Form of nitrogen added: mineral or organic</t>
+  </si>
+  <si>
+    <t>Description of the fertilisation usually carried out on the plot</t>
+  </si>
+  <si>
+    <t>Method of supplying fertilising elements</t>
+  </si>
+  <si>
+    <t>Code describing the soil management on the field</t>
+  </si>
+  <si>
+    <t>Type of soil management in the inter-rows</t>
+  </si>
+  <si>
+    <t>Type of soil management under the rows</t>
+  </si>
+  <si>
+    <t>Description of the soil management on the field</t>
+  </si>
+  <si>
+    <t>First and last name of the person</t>
+  </si>
+  <si>
+    <t>Brief description of the observation units</t>
+  </si>
+  <si>
+    <t>Size in m² of experimental units</t>
+  </si>
+  <si>
+    <t>Description of any heterogeneity factors in the experimental design (soil, plant material, topography, etc.)</t>
+  </si>
+  <si>
+    <t>Name of the farm (or estate)</t>
+  </si>
+  <si>
+    <t>Address of the farm</t>
+  </si>
+  <si>
+    <t>Area planted in vines in ha</t>
+  </si>
+  <si>
+    <t>Vineyard number (E.V.V.) commonly known as CVI number (for Casier Viticole Informatisé), with 10 digits</t>
+  </si>
+  <si>
+    <t>Description or comment on the farm</t>
+  </si>
+  <si>
+    <t>SIRET number of the farm</t>
+  </si>
+  <si>
+    <t>Type of event that occurred during the experiment: climatic accident, accident or technical incident, etc.</t>
+  </si>
+  <si>
+    <t>Free description of the event</t>
+  </si>
+  <si>
+    <t>Date (and time) of the event</t>
+  </si>
+  <si>
+    <t>Name or URI of the object(s) impacted by the event (parcel, unit parcel, etc.)</t>
+  </si>
+  <si>
+    <t>Experiment ID (URI or other)</t>
+  </si>
+  <si>
+    <t>Common name (or code) of the experiment</t>
+  </si>
+  <si>
+    <t>Start date of the experiment. It is expressed in the format YYYY-MM-DD according to the international standard ISO 8601.</t>
+  </si>
+  <si>
+    <t>End date of the experiment. It is expressed in the format YYYY-MM-DD according to the international standard ISO 8601.</t>
+  </si>
+  <si>
+    <t>Description of the objectives of the experiment</t>
+  </si>
+  <si>
+    <t>Description of the experiment</t>
+  </si>
+  <si>
+    <t>Acronym of the project(s) associated with the experiment</t>
+  </si>
+  <si>
+    <t>Modality Factor</t>
+  </si>
+  <si>
+    <t>Description of the factor level</t>
+  </si>
+  <si>
+    <t>Code of the factor level</t>
+  </si>
+  <si>
+    <t>Identifier (usually URI) of the factor level</t>
+  </si>
+  <si>
+    <t>Previous cultivation (especially if young vines)</t>
+  </si>
+  <si>
+    <t>Experimental field identifier (URI or other)</t>
+  </si>
+  <si>
+    <t>Brief description or comment on the experimental field</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2177,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2042,6 +2214,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2361,9 +2539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13ADFC-DCBE-45B8-93DC-72D8CCE37DD2}">
   <dimension ref="A1:AD127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W89" sqref="W89"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2554,10 @@
     <col min="6" max="6" width="36.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="72" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.85546875" style="2" customWidth="1"/>
-    <col min="9" max="24" width="14.85546875" style="2"/>
+    <col min="9" max="19" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="2"/>
+    <col min="22" max="22" width="24.42578125" style="15" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="2"/>
     <col min="25" max="25" width="48" style="2" customWidth="1"/>
     <col min="26" max="16384" width="14.85546875" style="2"/>
   </cols>
@@ -2445,7 +2626,7 @@
       <c r="U1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="14" t="s">
         <v>454</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -2589,6 +2770,9 @@
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V5" s="15" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2646,6 +2830,9 @@
       <c r="O7" s="2">
         <v>1</v>
       </c>
+      <c r="V7" s="15" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2679,6 +2866,9 @@
       <c r="O8" s="2">
         <v>2</v>
       </c>
+      <c r="V8" s="15" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="9" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2715,6 +2905,9 @@
       <c r="O9" s="2">
         <v>3</v>
       </c>
+      <c r="V9" s="15" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2745,6 +2938,9 @@
       <c r="O10" s="2">
         <v>5</v>
       </c>
+      <c r="V10" s="15" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2775,6 +2971,9 @@
       <c r="O11" s="2">
         <v>6</v>
       </c>
+      <c r="V11" s="15" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2808,6 +3007,9 @@
       <c r="O12" s="2">
         <v>7</v>
       </c>
+      <c r="V12" s="15" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2844,6 +3046,9 @@
       <c r="O13" s="2">
         <v>4</v>
       </c>
+      <c r="V13" s="15" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2874,6 +3079,9 @@
       <c r="O14" s="2">
         <v>8</v>
       </c>
+      <c r="V14" s="15" t="s">
+        <v>628</v>
+      </c>
       <c r="Y14" s="7" t="s">
         <v>559</v>
       </c>
@@ -2907,6 +3115,9 @@
       <c r="O15" s="2">
         <v>10</v>
       </c>
+      <c r="V15" s="15" t="s">
+        <v>629</v>
+      </c>
       <c r="Z15" s="2" t="s">
         <v>617</v>
       </c>
@@ -2970,6 +3181,9 @@
       <c r="P17" s="2">
         <v>1</v>
       </c>
+      <c r="V17" s="15" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -3006,6 +3220,9 @@
       <c r="P18" s="2">
         <v>1</v>
       </c>
+      <c r="V18" s="15" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3039,6 +3256,9 @@
       <c r="O19" s="2">
         <v>4</v>
       </c>
+      <c r="V19" s="15" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3069,6 +3289,9 @@
       <c r="O20" s="2">
         <v>3</v>
       </c>
+      <c r="V20" s="15" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3099,6 +3322,9 @@
       <c r="O21" s="2">
         <v>4</v>
       </c>
+      <c r="V21" s="15" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3129,6 +3355,9 @@
       <c r="O22" s="2">
         <v>5</v>
       </c>
+      <c r="V22" s="15" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3159,6 +3388,9 @@
       <c r="O23" s="2">
         <v>1</v>
       </c>
+      <c r="V23" s="15" t="s">
+        <v>653</v>
+      </c>
       <c r="AA23" s="2" t="s">
         <v>242</v>
       </c>
@@ -3192,6 +3424,9 @@
       <c r="O24" s="2">
         <v>2</v>
       </c>
+      <c r="V24" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="AA24" s="2" t="s">
         <v>242</v>
       </c>
@@ -3228,6 +3463,9 @@
       <c r="Q25" s="2">
         <v>0</v>
       </c>
+      <c r="V25" s="15" t="s">
+        <v>655</v>
+      </c>
       <c r="AA25" s="2" t="s">
         <v>243</v>
       </c>
@@ -3261,6 +3499,9 @@
       <c r="O26" s="2">
         <v>3</v>
       </c>
+      <c r="V26" s="15" t="s">
+        <v>656</v>
+      </c>
       <c r="AA26" s="2" t="s">
         <v>248</v>
       </c>
@@ -3291,6 +3532,9 @@
       <c r="O27" s="2">
         <v>5</v>
       </c>
+      <c r="V27" s="15" t="s">
+        <v>657</v>
+      </c>
       <c r="AA27" s="2" t="s">
         <v>249</v>
       </c>
@@ -3324,6 +3568,9 @@
       <c r="O28" s="2">
         <v>4</v>
       </c>
+      <c r="V28" s="15" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3351,6 +3598,9 @@
       <c r="I29" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V29" s="15" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3378,6 +3628,9 @@
       <c r="I30" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V30" s="15" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3411,6 +3664,9 @@
       <c r="T31" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="V31" s="15" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3438,6 +3694,9 @@
       <c r="I32" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V32" s="15" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="33" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3469,6 +3728,9 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
+      <c r="V33" s="15" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="34" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3508,6 +3770,9 @@
       <c r="P34" s="2">
         <v>1</v>
       </c>
+      <c r="V34" s="15" t="s">
+        <v>664</v>
+      </c>
       <c r="AA34" s="2" t="s">
         <v>277</v>
       </c>
@@ -3550,6 +3815,9 @@
       <c r="T35" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="V35" s="15" t="s">
+        <v>665</v>
+      </c>
       <c r="AA35" s="2" t="s">
         <v>277</v>
       </c>
@@ -3595,6 +3863,9 @@
       <c r="T36" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="V36" s="15" t="s">
+        <v>666</v>
+      </c>
       <c r="AA36" s="2" t="s">
         <v>277</v>
       </c>
@@ -3637,6 +3908,9 @@
       <c r="P37" s="2">
         <v>1</v>
       </c>
+      <c r="V37" s="15" t="s">
+        <v>667</v>
+      </c>
       <c r="AA37" s="2" t="s">
         <v>278</v>
       </c>
@@ -3673,6 +3947,9 @@
       <c r="O38" s="2">
         <v>6</v>
       </c>
+      <c r="V38" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="AA38" s="2" t="s">
         <v>277</v>
       </c>
@@ -3706,6 +3983,9 @@
       <c r="O39" s="2">
         <v>7</v>
       </c>
+      <c r="V39" s="15" t="s">
+        <v>669</v>
+      </c>
       <c r="AA39" s="2" t="s">
         <v>277</v>
       </c>
@@ -3742,7 +4022,7 @@
       <c r="O40" s="2">
         <v>8</v>
       </c>
-      <c r="V40" s="2" t="s">
+      <c r="V40" s="15" t="s">
         <v>66</v>
       </c>
       <c r="AA40" s="2" t="s">
@@ -3790,6 +4070,9 @@
       <c r="U41" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="V41" s="15" t="s">
+        <v>670</v>
+      </c>
       <c r="AA41" s="2" t="s">
         <v>302</v>
       </c>
@@ -3829,6 +4112,9 @@
       <c r="U42" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="V42" s="15" t="s">
+        <v>672</v>
+      </c>
       <c r="AA42" s="2" t="s">
         <v>302</v>
       </c>
@@ -3865,6 +4151,9 @@
       <c r="P43" s="2">
         <v>1</v>
       </c>
+      <c r="V43" s="15" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="44" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3889,6 +4178,9 @@
       <c r="I44" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V44" s="15" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="45" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -3925,6 +4217,9 @@
       <c r="P45" s="2">
         <v>2</v>
       </c>
+      <c r="V45" s="15" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="46" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -3958,6 +4253,9 @@
       <c r="P46" s="2">
         <v>2</v>
       </c>
+      <c r="V46" s="15" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="47" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -3991,6 +4289,9 @@
       <c r="O47" s="2">
         <v>3</v>
       </c>
+      <c r="V47" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="AA47" s="2" t="s">
         <v>283</v>
       </c>
@@ -5076,6 +5377,9 @@
       <c r="P73" s="2">
         <v>1</v>
       </c>
+      <c r="V73" s="15" t="s">
+        <v>637</v>
+      </c>
       <c r="AA73" s="2" t="s">
         <v>279</v>
       </c>
@@ -5112,6 +5416,9 @@
       <c r="M74" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="V74" s="15" t="s">
+        <v>638</v>
+      </c>
       <c r="AA74" s="2" t="s">
         <v>231</v>
       </c>
@@ -5145,6 +5452,9 @@
       <c r="M75" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="V75" s="15" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -5175,6 +5485,9 @@
       <c r="I76" s="2" t="s">
         <v>437</v>
       </c>
+      <c r="V76" s="15" t="s">
+        <v>640</v>
+      </c>
       <c r="AA76" s="2" t="s">
         <v>231</v>
       </c>
@@ -5208,6 +5521,9 @@
       <c r="I77" s="2" t="s">
         <v>437</v>
       </c>
+      <c r="V77" s="15" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="78" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -5238,6 +5554,9 @@
       <c r="L78" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="V78" s="15" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="79" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -5268,6 +5587,9 @@
       <c r="I79" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V79" s="15" t="s">
+        <v>643</v>
+      </c>
       <c r="AA79" s="2" t="s">
         <v>282</v>
       </c>
@@ -5304,6 +5626,9 @@
       <c r="L80" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="V80" s="15" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="81" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -5334,6 +5659,9 @@
       <c r="P81" s="2">
         <v>2</v>
       </c>
+      <c r="V81" s="15" t="s">
+        <v>645</v>
+      </c>
       <c r="Y81" s="7" t="s">
         <v>541</v>
       </c>
@@ -5370,6 +5698,9 @@
       <c r="P82" s="2">
         <v>2</v>
       </c>
+      <c r="V82" s="15" t="s">
+        <v>646</v>
+      </c>
       <c r="AA82" s="2" t="s">
         <v>231</v>
       </c>
@@ -5406,6 +5737,9 @@
       <c r="P83" s="2">
         <v>2</v>
       </c>
+      <c r="V83" s="15" t="s">
+        <v>647</v>
+      </c>
       <c r="AA83" s="2" t="s">
         <v>231</v>
       </c>
@@ -5439,6 +5773,9 @@
       <c r="P84" s="2">
         <v>2</v>
       </c>
+      <c r="V84" s="15" t="s">
+        <v>648</v>
+      </c>
       <c r="AA84" s="2" t="s">
         <v>282</v>
       </c>
@@ -5505,6 +5842,9 @@
       <c r="P86" s="2">
         <v>1</v>
       </c>
+      <c r="V86" s="15" t="s">
+        <v>649</v>
+      </c>
       <c r="AA86" s="2" t="s">
         <v>277</v>
       </c>
@@ -6674,6 +7014,9 @@
       <c r="O120" s="2">
         <v>2</v>
       </c>
+      <c r="V120" s="15" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="121" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
@@ -6770,6 +7113,9 @@
       <c r="O123" s="2">
         <v>9</v>
       </c>
+      <c r="V123" s="15" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="124" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -6794,6 +7140,9 @@
       <c r="I124" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V124" s="15" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="125" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
@@ -6820,6 +7169,9 @@
       </c>
       <c r="I125" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="V125" s="15" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
